--- a/outcome/appendix/forecast/Mumps.xlsx
+++ b/outcome/appendix/forecast/Mumps.xlsx
@@ -424,19 +424,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>24823.4827213146</v>
+        <v>23211.1958498784</v>
       </c>
       <c r="C2" t="n">
-        <v>18764.3161388355</v>
+        <v>18092.6444447926</v>
       </c>
       <c r="D2" t="n">
-        <v>16721.0267650022</v>
+        <v>16064.1090125885</v>
       </c>
       <c r="E2" t="n">
-        <v>30991.0588208319</v>
+        <v>31022.9675368641</v>
       </c>
       <c r="F2" t="n">
-        <v>33972.1756077589</v>
+        <v>36966.9778326361</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -445,7 +445,7 @@
         <v>17159</v>
       </c>
       <c r="I2" t="n">
-        <v>7664.48272131465</v>
+        <v>6052.19584987841</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -456,19 +456,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>14852.991383665</v>
+        <v>12924.6601346229</v>
       </c>
       <c r="C3" t="n">
-        <v>6688.88516838961</v>
+        <v>10127.0551220868</v>
       </c>
       <c r="D3" t="n">
-        <v>3076.41727141541</v>
+        <v>9011.79078507316</v>
       </c>
       <c r="E3" t="n">
-        <v>23111.0295696113</v>
+        <v>17153.3950875731</v>
       </c>
       <c r="F3" t="n">
-        <v>29458.4155240545</v>
+        <v>20341.5259746002</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -477,7 +477,7 @@
         <v>8018</v>
       </c>
       <c r="I3" t="n">
-        <v>6834.99138366504</v>
+        <v>4906.66013462289</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -488,19 +488,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>20688.9006448728</v>
+        <v>18719.2326337641</v>
       </c>
       <c r="C4" t="n">
-        <v>10835.272847729</v>
+        <v>13432.7501455896</v>
       </c>
       <c r="D4" t="n">
-        <v>6144.6600958119</v>
+        <v>11523.3209125436</v>
       </c>
       <c r="E4" t="n">
-        <v>31624.2527618605</v>
+        <v>28175.4522536776</v>
       </c>
       <c r="F4" t="n">
-        <v>40896.4041174303</v>
+        <v>36616.1729568499</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -509,7 +509,7 @@
         <v>6028</v>
       </c>
       <c r="I4" t="n">
-        <v>14660.9006448728</v>
+        <v>12691.2326337641</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -520,19 +520,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>30567.9566853265</v>
+        <v>28302.0881705209</v>
       </c>
       <c r="C5" t="n">
-        <v>18319.9330269756</v>
+        <v>18146.1317419578</v>
       </c>
       <c r="D5" t="n">
-        <v>12489.8871033552</v>
+        <v>14906.172318567</v>
       </c>
       <c r="E5" t="n">
-        <v>44348.2209152888</v>
+        <v>51322.829529277</v>
       </c>
       <c r="F5" t="n">
-        <v>52787.5810373146</v>
+        <v>78189.2570419258</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -541,7 +541,7 @@
         <v>6169</v>
       </c>
       <c r="I5" t="n">
-        <v>24398.9566853265</v>
+        <v>22133.0881705209</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -552,19 +552,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>40177.1006466768</v>
+        <v>38381.233031946</v>
       </c>
       <c r="C6" t="n">
-        <v>25940.8792167272</v>
+        <v>22153.528197162</v>
       </c>
       <c r="D6" t="n">
-        <v>19954.4628425341</v>
+        <v>17533.760333932</v>
       </c>
       <c r="E6" t="n">
-        <v>53772.1559582782</v>
+        <v>85572.486270753</v>
       </c>
       <c r="F6" t="n">
-        <v>63224.6772617213</v>
+        <v>162316.82901376</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -573,7 +573,7 @@
         <v>9273</v>
       </c>
       <c r="I6" t="n">
-        <v>30904.1006466768</v>
+        <v>29108.233031946</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -584,19 +584,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>41763.3297702553</v>
+        <v>40505.009162736</v>
       </c>
       <c r="C7" t="n">
-        <v>26027.5565450341</v>
+        <v>22401.7488534864</v>
       </c>
       <c r="D7" t="n">
-        <v>20265.0530221008</v>
+        <v>17478.7541032736</v>
       </c>
       <c r="E7" t="n">
-        <v>58789.7767596742</v>
+        <v>99346.5360601493</v>
       </c>
       <c r="F7" t="n">
-        <v>64521.5187681089</v>
+        <v>212763.578627427</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -605,7 +605,7 @@
         <v>11995</v>
       </c>
       <c r="I7" t="n">
-        <v>29768.3297702553</v>
+        <v>28510.009162736</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -616,19 +616,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>34995.6952480596</v>
+        <v>31769.2342167663</v>
       </c>
       <c r="C8" t="n">
-        <v>17697.1499825777</v>
+        <v>18361.3929195509</v>
       </c>
       <c r="D8" t="n">
-        <v>10356.5508559863</v>
+        <v>14538.9572520925</v>
       </c>
       <c r="E8" t="n">
-        <v>51464.8927585426</v>
+        <v>70629.9011778482</v>
       </c>
       <c r="F8" t="n">
-        <v>59966.8529747175</v>
+        <v>133519.421938486</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -637,7 +637,7 @@
         <v>9008</v>
       </c>
       <c r="I8" t="n">
-        <v>25987.6952480596</v>
+        <v>22761.2342167663</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -648,19 +648,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>21081.6721667299</v>
+        <v>19485.3749224846</v>
       </c>
       <c r="C9" t="n">
-        <v>3438.56704296897</v>
+        <v>12476.3200255059</v>
       </c>
       <c r="D9" t="n">
-        <v>-7294.64463269702</v>
+        <v>10243.5898437275</v>
       </c>
       <c r="E9" t="n">
-        <v>37707.4841211675</v>
+        <v>35420.9764946235</v>
       </c>
       <c r="F9" t="n">
-        <v>50655.5763127347</v>
+        <v>54087.2769181549</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -669,7 +669,7 @@
         <v>9008</v>
       </c>
       <c r="I9" t="n">
-        <v>12073.6721667299</v>
+        <v>10477.3749224846</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -680,19 +680,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>18559.6741335764</v>
+        <v>17841.5249403041</v>
       </c>
       <c r="C10" t="n">
-        <v>111.848155522449</v>
+        <v>11497.1825722379</v>
       </c>
       <c r="D10" t="n">
-        <v>-9094.2558452825</v>
+        <v>9462.00447103951</v>
       </c>
       <c r="E10" t="n">
-        <v>35006.1659836618</v>
+        <v>32061.9067194869</v>
       </c>
       <c r="F10" t="n">
-        <v>47216.9274556435</v>
+        <v>48433.1778172126</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -701,7 +701,7 @@
         <v>13212</v>
       </c>
       <c r="I10" t="n">
-        <v>5347.67413357642</v>
+        <v>4629.52494030413</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -712,19 +712,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>20657.5050603161</v>
+        <v>19173.1931713911</v>
       </c>
       <c r="C11" t="n">
-        <v>-121.325323382377</v>
+        <v>12016.8271575328</v>
       </c>
       <c r="D11" t="n">
-        <v>-7070.05597941059</v>
+        <v>9789.67296951087</v>
       </c>
       <c r="E11" t="n">
-        <v>38754.2614880272</v>
+        <v>36248.1742821249</v>
       </c>
       <c r="F11" t="n">
-        <v>48971.8094190649</v>
+        <v>57483.9294762837</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -733,7 +733,7 @@
         <v>12818</v>
       </c>
       <c r="I11" t="n">
-        <v>7839.50506031613</v>
+        <v>6355.1931713911</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -744,19 +744,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>25694.72120302</v>
+        <v>24421.2036265335</v>
       </c>
       <c r="C12" t="n">
-        <v>5883.72979200543</v>
+        <v>14261.7481346777</v>
       </c>
       <c r="D12" t="n">
-        <v>-6102.90019068468</v>
+        <v>11332.8616313409</v>
       </c>
       <c r="E12" t="n">
-        <v>46791.8312218821</v>
+        <v>53110.407583103</v>
       </c>
       <c r="F12" t="n">
-        <v>55133.4031065484</v>
+        <v>97831.041966233</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -765,7 +765,7 @@
         <v>15211</v>
       </c>
       <c r="I12" t="n">
-        <v>10483.72120302</v>
+        <v>9210.20362653345</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -776,19 +776,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>28412.0958890768</v>
+        <v>27076.3585726475</v>
       </c>
       <c r="C13" t="n">
-        <v>8393.07894545876</v>
+        <v>15218.7116627951</v>
       </c>
       <c r="D13" t="n">
-        <v>-4464.14718870837</v>
+        <v>11937.9202762655</v>
       </c>
       <c r="E13" t="n">
-        <v>50136.6367583099</v>
+        <v>64000.9791945106</v>
       </c>
       <c r="F13" t="n">
-        <v>58163.4450700293</v>
+        <v>130538.736970927</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -797,7 +797,7 @@
         <v>11437</v>
       </c>
       <c r="I13" t="n">
-        <v>16975.0958890768</v>
+        <v>15639.3585726475</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -808,19 +808,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>24775.3997998589</v>
+        <v>22794.1649271871</v>
       </c>
       <c r="C14" t="n">
-        <v>2721.82611956552</v>
+        <v>13137.1502140118</v>
       </c>
       <c r="D14" t="n">
-        <v>-7623.99332190358</v>
+        <v>10392.3495618819</v>
       </c>
       <c r="E14" t="n">
-        <v>46731.3007729298</v>
+        <v>50983.4688284639</v>
       </c>
       <c r="F14" t="n">
-        <v>60443.7297425163</v>
+        <v>97079.2172903469</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -829,7 +829,7 @@
         <v>7078</v>
       </c>
       <c r="I14" t="n">
-        <v>17697.3997998589</v>
+        <v>15716.1649271871</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -840,19 +840,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>15330.7571735231</v>
+        <v>12638.7496702615</v>
       </c>
       <c r="C15" t="n">
-        <v>-7621.85402124994</v>
+        <v>8260.56133907371</v>
       </c>
       <c r="D15" t="n">
-        <v>-19055.6621425989</v>
+        <v>6834.17978950791</v>
       </c>
       <c r="E15" t="n">
-        <v>39539.4012582394</v>
+        <v>22151.5173249496</v>
       </c>
       <c r="F15" t="n">
-        <v>50989.8366075479</v>
+        <v>32702.4804678901</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -861,7 +861,7 @@
         <v>4393</v>
       </c>
       <c r="I15" t="n">
-        <v>10937.7571735231</v>
+        <v>8245.74967026146</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -872,19 +872,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>21282.5755849468</v>
+        <v>18232.5832479623</v>
       </c>
       <c r="C16" t="n">
-        <v>320.202180819509</v>
+        <v>10809.4618368325</v>
       </c>
       <c r="D16" t="n">
-        <v>-13495.9626379048</v>
+        <v>8634.35082245612</v>
       </c>
       <c r="E16" t="n">
-        <v>45147.9985338432</v>
+        <v>38429.041374888</v>
       </c>
       <c r="F16" t="n">
-        <v>56173.6621136367</v>
+        <v>68307.1148253773</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -893,7 +893,7 @@
         <v>9604</v>
       </c>
       <c r="I16" t="n">
-        <v>11678.5755849468</v>
+        <v>8628.58324796231</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -904,19 +904,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>30468.2702454409</v>
+        <v>27417.1197687954</v>
       </c>
       <c r="C17" t="n">
-        <v>9841.4525060486</v>
+        <v>14318.668071425</v>
       </c>
       <c r="D17" t="n">
-        <v>-7872.66879743852</v>
+        <v>10967.6489943652</v>
       </c>
       <c r="E17" t="n">
-        <v>53516.9766732137</v>
+        <v>77409.6847962813</v>
       </c>
       <c r="F17" t="n">
-        <v>65063.2232878995</v>
+        <v>204574.331919665</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -925,7 +925,7 @@
         <v>11501</v>
       </c>
       <c r="I17" t="n">
-        <v>18967.2702454409</v>
+        <v>15916.1197687954</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -936,19 +936,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>40142.2361139747</v>
+        <v>37022.6592940428</v>
       </c>
       <c r="C18" t="n">
-        <v>18273.664863447</v>
+        <v>17305.2462350724</v>
       </c>
       <c r="D18" t="n">
-        <v>-858.2275026684</v>
+        <v>12817.6656440079</v>
       </c>
       <c r="E18" t="n">
-        <v>63471.3480495177</v>
+        <v>144760.36601956</v>
       </c>
       <c r="F18" t="n">
-        <v>76839.1651604219</v>
+        <v>784280.335714287</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -957,7 +957,7 @@
         <v>11970</v>
       </c>
       <c r="I18" t="n">
-        <v>28172.2361139747</v>
+        <v>25052.6592940428</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -968,19 +968,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>41181.2036879246</v>
+        <v>39091.37173671</v>
       </c>
       <c r="C19" t="n">
-        <v>18576.3151489143</v>
+        <v>17714.5295694923</v>
       </c>
       <c r="D19" t="n">
-        <v>2867.76252329433</v>
+        <v>13004.5100822935</v>
       </c>
       <c r="E19" t="n">
-        <v>65580.1144493174</v>
+        <v>170140.26096436</v>
       </c>
       <c r="F19" t="n">
-        <v>78229.5233976804</v>
+        <v>1326592.74400589</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -989,7 +989,7 @@
         <v>12015</v>
       </c>
       <c r="I19" t="n">
-        <v>29166.2036879246</v>
+        <v>27076.37173671</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1000,19 +1000,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>34390.4707403963</v>
+        <v>30841.1178416324</v>
       </c>
       <c r="C20" t="n">
-        <v>8428.1814290622</v>
+        <v>15023.7949732691</v>
       </c>
       <c r="D20" t="n">
-        <v>-4988.44386009304</v>
+        <v>11264.2386707641</v>
       </c>
       <c r="E20" t="n">
-        <v>60582.0049496772</v>
+        <v>105803.715516489</v>
       </c>
       <c r="F20" t="n">
-        <v>72637.4155730112</v>
+        <v>407807.8781868</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1021,7 +1021,7 @@
         <v>9367</v>
       </c>
       <c r="I20" t="n">
-        <v>25023.4707403963</v>
+        <v>21474.1178416324</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1032,19 +1032,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>21174.4135429114</v>
+        <v>19070.0273613484</v>
       </c>
       <c r="C21" t="n">
-        <v>-3914.18022448012</v>
+        <v>10679.949749488</v>
       </c>
       <c r="D21" t="n">
-        <v>-19079.7474692266</v>
+        <v>8367.54106770514</v>
       </c>
       <c r="E21" t="n">
-        <v>49070.1872690507</v>
+        <v>45446.1659687599</v>
       </c>
       <c r="F21" t="n">
-        <v>60507.330912752</v>
+        <v>93680.5701011239</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1053,7 +1053,7 @@
         <v>8353</v>
       </c>
       <c r="I21" t="n">
-        <v>12821.4135429114</v>
+        <v>10717.0273613484</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1064,19 +1064,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>17698.3697067677</v>
+        <v>17495.1091727778</v>
       </c>
       <c r="C22" t="n">
-        <v>-6338.62516465112</v>
+        <v>9970.77061124087</v>
       </c>
       <c r="D22" t="n">
-        <v>-21102.4854452492</v>
+        <v>7857.72258165793</v>
       </c>
       <c r="E22" t="n">
-        <v>44654.5605342523</v>
+        <v>40096.5015558973</v>
       </c>
       <c r="F22" t="n">
-        <v>60615.0373053235</v>
+        <v>78653.4080235126</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1085,7 +1085,7 @@
         <v>12606</v>
       </c>
       <c r="I22" t="n">
-        <v>5092.36970676766</v>
+        <v>4889.10917277779</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1096,19 +1096,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>19736.0358989978</v>
+        <v>18802.4846425004</v>
       </c>
       <c r="C23" t="n">
-        <v>-5504.58818538103</v>
+        <v>10444.3007627042</v>
       </c>
       <c r="D23" t="n">
-        <v>-21139.2420553927</v>
+        <v>8160.77049170153</v>
       </c>
       <c r="E23" t="n">
-        <v>47541.118594848</v>
+        <v>45654.7011302902</v>
       </c>
       <c r="F23" t="n">
-        <v>65059.3687471566</v>
+        <v>96461.0129059844</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1117,7 +1117,7 @@
         <v>11116</v>
       </c>
       <c r="I23" t="n">
-        <v>8620.0358989978</v>
+        <v>7686.48464250037</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1128,19 +1128,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>24716.2459260533</v>
+        <v>23904.3455541694</v>
       </c>
       <c r="C24" t="n">
-        <v>-3954.32499661399</v>
+        <v>12294.3409740703</v>
       </c>
       <c r="D24" t="n">
-        <v>-15581.8601717137</v>
+        <v>9371.9704661369</v>
       </c>
       <c r="E24" t="n">
-        <v>53806.990716908</v>
+        <v>70275.9111734472</v>
       </c>
       <c r="F24" t="n">
-        <v>67108.0603258477</v>
+        <v>198948.716701351</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1149,7 +1149,7 @@
         <v>11881</v>
       </c>
       <c r="I24" t="n">
-        <v>12835.2459260533</v>
+        <v>12023.3455541694</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1160,19 +1160,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>28689.6296622867</v>
+        <v>26495.7105090902</v>
       </c>
       <c r="C25" t="n">
-        <v>594.413727081409</v>
+        <v>13115.6534975643</v>
       </c>
       <c r="D25" t="n">
-        <v>-12623.3648754086</v>
+        <v>9881.20624119592</v>
       </c>
       <c r="E25" t="n">
-        <v>59621.3025455379</v>
+        <v>86677.9370595022</v>
       </c>
       <c r="F25" t="n">
-        <v>72712.9620784697</v>
+        <v>301139.429418119</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1181,7 +1181,7 @@
         <v>10892</v>
       </c>
       <c r="I25" t="n">
-        <v>17797.6296622867</v>
+        <v>15603.7105090902</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1192,19 +1192,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>25352.1062654385</v>
+        <v>22369.2720309223</v>
       </c>
       <c r="C26" t="n">
-        <v>-3522.03588392142</v>
+        <v>11540.0256119915</v>
       </c>
       <c r="D26" t="n">
-        <v>-16773.2858037847</v>
+        <v>8805.34450149898</v>
       </c>
       <c r="E26" t="n">
-        <v>57455.0764171745</v>
+        <v>65228.3281239177</v>
       </c>
       <c r="F26" t="n">
-        <v>69082.8728971869</v>
+        <v>182048.466191134</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1213,7 +1213,7 @@
         <v>6570</v>
       </c>
       <c r="I26" t="n">
-        <v>18782.1062654385</v>
+        <v>15799.2720309223</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1224,19 +1224,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>14991.4897329167</v>
+        <v>12476.6682512443</v>
       </c>
       <c r="C27" t="n">
-        <v>-16186.5676745701</v>
+        <v>7508.31736126025</v>
       </c>
       <c r="D27" t="n">
-        <v>-31902.9510355123</v>
+        <v>6028.80690028605</v>
       </c>
       <c r="E27" t="n">
-        <v>47726.4071946683</v>
+        <v>25514.2047916478</v>
       </c>
       <c r="F27" t="n">
-        <v>64353.8986489984</v>
+        <v>43871.0685746481</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1245,7 +1245,7 @@
         <v>4491</v>
       </c>
       <c r="I27" t="n">
-        <v>10500.4897329167</v>
+        <v>7985.66825124435</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1256,19 +1256,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>20906.5558693536</v>
+        <v>17958.0484096196</v>
       </c>
       <c r="C28" t="n">
-        <v>-9678.03590441188</v>
+        <v>9721.64643941573</v>
       </c>
       <c r="D28" t="n">
-        <v>-26927.1042683623</v>
+        <v>7532.42889657479</v>
       </c>
       <c r="E28" t="n">
-        <v>52581.0391093012</v>
+        <v>46337.0817407808</v>
       </c>
       <c r="F28" t="n">
-        <v>68241.8197237792</v>
+        <v>106540.972871357</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1277,7 +1277,7 @@
         <v>10001</v>
       </c>
       <c r="I28" t="n">
-        <v>10905.5558693536</v>
+        <v>7957.04840961958</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1288,19 +1288,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>30976.6059645188</v>
+        <v>26921.19749908</v>
       </c>
       <c r="C29" t="n">
-        <v>-769.281780122351</v>
+        <v>12712.2919542595</v>
       </c>
       <c r="D29" t="n">
-        <v>-20695.7526110328</v>
+        <v>9443.73149082119</v>
       </c>
       <c r="E29" t="n">
-        <v>64866.5551458582</v>
+        <v>101802.918866599</v>
       </c>
       <c r="F29" t="n">
-        <v>78987.0408521276</v>
+        <v>501086.199143087</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1309,7 +1309,7 @@
         <v>9968</v>
       </c>
       <c r="I29" t="n">
-        <v>21008.6059645188</v>
+        <v>16953.19749908</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1320,19 +1320,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>40600.7609999034</v>
+        <v>36265.3143627677</v>
       </c>
       <c r="C30" t="n">
-        <v>8384.45305749454</v>
+        <v>15236.3435414491</v>
       </c>
       <c r="D30" t="n">
-        <v>-11835.5197733329</v>
+        <v>10953.7595637456</v>
       </c>
       <c r="E30" t="n">
-        <v>76007.8455008441</v>
+        <v>213581.550704587</v>
       </c>
       <c r="F30" t="n">
-        <v>89075.5583758097</v>
+        <v>16359485.2534034</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1341,7 +1341,7 @@
         <v>11151</v>
       </c>
       <c r="I30" t="n">
-        <v>29449.7609999034</v>
+        <v>25114.3143627677</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1352,20 +1352,18 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>41838.6283295272</v>
+        <v>38302.8338324547</v>
       </c>
       <c r="C31" t="n">
-        <v>8835.78986529813</v>
+        <v>15636.5987425861</v>
       </c>
       <c r="D31" t="n">
-        <v>-11449.1231519664</v>
+        <v>11155.8710716245</v>
       </c>
       <c r="E31" t="n">
-        <v>76356.1315546192</v>
-      </c>
-      <c r="F31" t="n">
-        <v>90629.9505760993</v>
-      </c>
+        <v>257915.352400381</v>
+      </c>
+      <c r="F31"/>
       <c r="G31" t="s">
         <v>10</v>
       </c>
@@ -1373,7 +1371,7 @@
         <v>11945</v>
       </c>
       <c r="I31" t="n">
-        <v>29893.6283295272</v>
+        <v>26357.8338324547</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1384,19 +1382,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>34471.8157428968</v>
+        <v>30319.6614262207</v>
       </c>
       <c r="C32" t="n">
-        <v>440.526870475947</v>
+        <v>13451.0581028725</v>
       </c>
       <c r="D32" t="n">
-        <v>-17315.3091988525</v>
+        <v>9815.74249004666</v>
       </c>
       <c r="E32" t="n">
-        <v>70229.3402071646</v>
+        <v>142737.452832718</v>
       </c>
       <c r="F32" t="n">
-        <v>83888.5963604209</v>
+        <v>1568757.08979897</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1405,7 +1403,7 @@
         <v>9391</v>
       </c>
       <c r="I32" t="n">
-        <v>25080.8157428968</v>
+        <v>20928.6614262207</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1416,19 +1414,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>20665.7575657847</v>
+        <v>18834.3298275428</v>
       </c>
       <c r="C33" t="n">
-        <v>-13266.6480032232</v>
+        <v>9769.7192097405</v>
       </c>
       <c r="D33" t="n">
-        <v>-36177.1443145393</v>
+        <v>7467.33638734917</v>
       </c>
       <c r="E33" t="n">
-        <v>55076.7635338776</v>
+        <v>54129.9610327774</v>
       </c>
       <c r="F33" t="n">
-        <v>70553.0008560065</v>
+        <v>147365.301158339</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1437,7 +1435,7 @@
         <v>8472</v>
       </c>
       <c r="I33" t="n">
-        <v>12193.7575657847</v>
+        <v>10362.3298275428</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1448,19 +1446,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>17684.3442536443</v>
+        <v>17298.058385252</v>
       </c>
       <c r="C34" t="n">
-        <v>-13916.0334510132</v>
+        <v>9171.78565403236</v>
       </c>
       <c r="D34" t="n">
-        <v>-39456.0751493587</v>
+        <v>7059.10341693668</v>
       </c>
       <c r="E34" t="n">
-        <v>53278.1870446697</v>
+        <v>46983.6527069077</v>
       </c>
       <c r="F34" t="n">
-        <v>73580.527461123</v>
+        <v>116686.728183286</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1469,7 +1467,7 @@
         <v>11041</v>
       </c>
       <c r="I34" t="n">
-        <v>6643.34425364425</v>
+        <v>6257.05838525202</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1480,19 +1478,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>19280.7812741405</v>
+        <v>18591.5938660007</v>
       </c>
       <c r="C35" t="n">
-        <v>-15139.6921170083</v>
+        <v>9606.48652750789</v>
       </c>
       <c r="D35" t="n">
-        <v>-39104.5073234245</v>
+        <v>7333.66015901523</v>
       </c>
       <c r="E35" t="n">
-        <v>54955.0778678622</v>
+        <v>53983.0921565507</v>
       </c>
       <c r="F35" t="n">
-        <v>76634.7135002319</v>
+        <v>149562.981953177</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1501,7 +1499,7 @@
         <v>9537</v>
       </c>
       <c r="I35" t="n">
-        <v>9743.78127414047</v>
+        <v>9054.59386600069</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1512,19 +1510,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>24420.5926129147</v>
+        <v>23610.9878682768</v>
       </c>
       <c r="C36" t="n">
-        <v>-10553.4912237372</v>
+        <v>11242.4952361484</v>
       </c>
       <c r="D36" t="n">
-        <v>-34800.9492349803</v>
+        <v>8372.3027586585</v>
       </c>
       <c r="E36" t="n">
-        <v>61202.9243028827</v>
+        <v>86926.8699168645</v>
       </c>
       <c r="F36" t="n">
-        <v>82703.8292311806</v>
+        <v>398123.535739444</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1533,7 +1531,7 @@
         <v>8702</v>
       </c>
       <c r="I36" t="n">
-        <v>15718.5926129147</v>
+        <v>14908.9878682768</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1544,19 +1542,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>28218.0979490177</v>
+        <v>26166.2632593594</v>
       </c>
       <c r="C37" t="n">
-        <v>-6259.03787768762</v>
+        <v>11977.8083646304</v>
       </c>
       <c r="D37" t="n">
-        <v>-29623.5552429771</v>
+        <v>8818.45092969726</v>
       </c>
       <c r="E37" t="n">
-        <v>66449.696406837</v>
+        <v>109874.495487765</v>
       </c>
       <c r="F37" t="n">
-        <v>83434.3755152669</v>
+        <v>750114.098746211</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1565,7 +1563,7 @@
         <v>3839</v>
       </c>
       <c r="I37" t="n">
-        <v>24379.0979490177</v>
+        <v>22327.2632593594</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1576,19 +1574,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>24833.0960596416</v>
+        <v>22127.3456761763</v>
       </c>
       <c r="C38" t="n">
-        <v>-10266.6520288186</v>
+        <v>10637.4505337609</v>
       </c>
       <c r="D38" t="n">
-        <v>-36209.5914221186</v>
+        <v>7944.17766137293</v>
       </c>
       <c r="E38" t="n">
-        <v>63809.9433592735</v>
+        <v>79047.1785623351</v>
       </c>
       <c r="F38" t="n">
-        <v>88009.2016670828</v>
+        <v>335373.600946635</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1597,7 +1595,7 @@
         <v>2370</v>
       </c>
       <c r="I38" t="n">
-        <v>22463.0960596416</v>
+        <v>19757.3456761763</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1608,19 +1606,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>15135.4205245378</v>
+        <v>12383.707000802</v>
       </c>
       <c r="C39" t="n">
-        <v>-21016.908118433</v>
+        <v>7056.72193509203</v>
       </c>
       <c r="D39" t="n">
-        <v>-43172.64395062</v>
+        <v>5560.97404019948</v>
       </c>
       <c r="E39" t="n">
-        <v>53066.8267068029</v>
+        <v>28390.4164234228</v>
       </c>
       <c r="F39" t="n">
-        <v>78483.9700633345</v>
+        <v>55711.5826707343</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1629,7 +1627,7 @@
         <v>4548</v>
       </c>
       <c r="I39" t="n">
-        <v>10587.4205245378</v>
+        <v>7835.70700080201</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1640,19 +1638,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>20963.7763694158</v>
+        <v>17801.0292989458</v>
       </c>
       <c r="C40" t="n">
-        <v>-16522.4127059265</v>
+        <v>9068.0307354836</v>
       </c>
       <c r="D40" t="n">
-        <v>-35942.8125123812</v>
+        <v>6892.01922384713</v>
       </c>
       <c r="E40" t="n">
-        <v>58016.5130918254</v>
+        <v>53708.3659996454</v>
       </c>
       <c r="F40" t="n">
-        <v>84005.4647116122</v>
+        <v>159280.895330545</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1661,7 +1659,7 @@
         <v>7299</v>
       </c>
       <c r="I40" t="n">
-        <v>13664.7763694158</v>
+        <v>10502.0292989458</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1672,19 +1670,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>30998.2965385965</v>
+        <v>26638.632429437</v>
       </c>
       <c r="C41" t="n">
-        <v>-8751.80658302077</v>
+        <v>11750.5270156756</v>
       </c>
       <c r="D41" t="n">
-        <v>-26599.6384027369</v>
+        <v>8561.10861979221</v>
       </c>
       <c r="E41" t="n">
-        <v>68576.6184807682</v>
+        <v>128191.894406851</v>
       </c>
       <c r="F41" t="n">
-        <v>95438.9501787633</v>
+        <v>1576712.52983547</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1693,7 +1691,7 @@
         <v>7028</v>
       </c>
       <c r="I41" t="n">
-        <v>23970.2965385965</v>
+        <v>19610.632429437</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1704,20 +1702,18 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>40730.0196126553</v>
+        <v>35835.078503353</v>
       </c>
       <c r="C42" t="n">
-        <v>-304.622248890443</v>
+        <v>13996.3054758504</v>
       </c>
       <c r="D42" t="n">
-        <v>-21384.2735881701</v>
+        <v>9871.7421132616</v>
       </c>
       <c r="E42" t="n">
-        <v>80291.1295049535</v>
-      </c>
-      <c r="F42" t="n">
-        <v>105760.211303991</v>
-      </c>
+        <v>304737.9060616</v>
+      </c>
+      <c r="F42"/>
       <c r="G42" t="s">
         <v>10</v>
       </c>
@@ -1725,7 +1721,7 @@
         <v>8930</v>
       </c>
       <c r="I42" t="n">
-        <v>31800.0196126553</v>
+        <v>26905.078503353</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1736,20 +1732,18 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>42414.4990612376</v>
+        <v>37854.717437121</v>
       </c>
       <c r="C43" t="n">
-        <v>1045.29949737662</v>
+        <v>14373.5792960037</v>
       </c>
       <c r="D43" t="n">
-        <v>-25795.3234994565</v>
+        <v>10065.7646230228</v>
       </c>
       <c r="E43" t="n">
-        <v>83373.7669087092</v>
-      </c>
-      <c r="F43" t="n">
-        <v>107112.650169832</v>
-      </c>
+        <v>381774.30677831</v>
+      </c>
+      <c r="F43"/>
       <c r="G43" t="s">
         <v>10</v>
       </c>
@@ -1757,7 +1751,7 @@
         <v>10710</v>
       </c>
       <c r="I43" t="n">
-        <v>31704.4990612376</v>
+        <v>27144.717437121</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1768,19 +1762,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>35146.3935447947</v>
+        <v>30022.1073335072</v>
       </c>
       <c r="C44" t="n">
-        <v>-5773.37485663227</v>
+        <v>12467.7367931876</v>
       </c>
       <c r="D44" t="n">
-        <v>-30886.4585225102</v>
+        <v>8935.51477818504</v>
       </c>
       <c r="E44" t="n">
-        <v>77543.2503731116</v>
+        <v>186373.0121838</v>
       </c>
       <c r="F44" t="n">
-        <v>103885.671090259</v>
+        <v>50020335.8877109</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1789,7 +1783,7 @@
         <v>9280</v>
       </c>
       <c r="I44" t="n">
-        <v>25866.3935447947</v>
+        <v>20742.1073335072</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -1800,19 +1794,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>21869.36113661</v>
+        <v>18699.0677639645</v>
       </c>
       <c r="C45" t="n">
-        <v>-19497.386656384</v>
+        <v>9179.01862585911</v>
       </c>
       <c r="D45" t="n">
-        <v>-47358.9814131149</v>
+        <v>6897.90788602894</v>
       </c>
       <c r="E45" t="n">
-        <v>66019.8732975919</v>
+        <v>62696.0929543831</v>
       </c>
       <c r="F45" t="n">
-        <v>90399.2091028952</v>
+        <v>229599.249780612</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1821,7 +1815,7 @@
         <v>7919</v>
       </c>
       <c r="I45" t="n">
-        <v>13950.36113661</v>
+        <v>10780.0677639645</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1832,19 +1826,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>19074.7201937817</v>
+        <v>17184.8198896714</v>
       </c>
       <c r="C46" t="n">
-        <v>-22586.5612766064</v>
+        <v>8644.97016497651</v>
       </c>
       <c r="D46" t="n">
-        <v>-51513.2394551665</v>
+        <v>6545.13132889716</v>
       </c>
       <c r="E46" t="n">
-        <v>64921.065669494</v>
+        <v>53684.5311635045</v>
       </c>
       <c r="F46" t="n">
-        <v>91883.5809349036</v>
+        <v>169977.877149992</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1853,7 +1847,7 @@
         <v>10867</v>
       </c>
       <c r="I46" t="n">
-        <v>8207.72019378173</v>
+        <v>6317.81988967139</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -1864,19 +1858,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>21058.8281093397</v>
+        <v>18470.3948651822</v>
       </c>
       <c r="C47" t="n">
-        <v>-20885.7453455729</v>
+        <v>9049.71196455794</v>
       </c>
       <c r="D47" t="n">
-        <v>-48556.3502096693</v>
+        <v>6796.88360948686</v>
       </c>
       <c r="E47" t="n">
-        <v>65568.4379063649</v>
+        <v>62276.8414355117</v>
       </c>
       <c r="F47" t="n">
-        <v>97501.7527226272</v>
+        <v>230886.443318587</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1885,7 +1879,7 @@
         <v>8287</v>
       </c>
       <c r="I47" t="n">
-        <v>12771.8281093397</v>
+        <v>10183.3948651822</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -1896,19 +1890,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>26421.8081573206</v>
+        <v>23442.6174066666</v>
       </c>
       <c r="C48" t="n">
-        <v>-16177.9448687894</v>
+        <v>10543.7000165822</v>
       </c>
       <c r="D48" t="n">
-        <v>-43479.47321639</v>
+        <v>7723.84449605286</v>
       </c>
       <c r="E48" t="n">
-        <v>72050.4276566296</v>
+        <v>104852.099658736</v>
       </c>
       <c r="F48" t="n">
-        <v>100315.510798457</v>
+        <v>912797.371528228</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1917,7 +1911,7 @@
         <v>7642</v>
       </c>
       <c r="I48" t="n">
-        <v>18779.8081573206</v>
+        <v>15800.6174066666</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -1928,19 +1922,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>30461.4185040543</v>
+        <v>25977.2177066003</v>
       </c>
       <c r="C49" t="n">
-        <v>-12177.5614961967</v>
+        <v>11218.0042102211</v>
       </c>
       <c r="D49" t="n">
-        <v>-46039.5361430531</v>
+        <v>8125.2953701326</v>
       </c>
       <c r="E49" t="n">
-        <v>76539.6393273335</v>
+        <v>136038.488723506</v>
       </c>
       <c r="F49" t="n">
-        <v>106846.671995574</v>
+        <v>2855353.70577123</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1949,7 +1943,7 @@
         <v>7092</v>
       </c>
       <c r="I49" t="n">
-        <v>23369.4185040543</v>
+        <v>18885.2177066003</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>

--- a/outcome/appendix/forecast/Mumps.xlsx
+++ b/outcome/appendix/forecast/Mumps.xlsx
@@ -424,7 +424,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>23211.1958498784</v>
+        <v>24357.1061520668</v>
       </c>
       <c r="C2" t="n">
         <v>18092.6444447926</v>
@@ -433,10 +433,10 @@
         <v>16064.1090125885</v>
       </c>
       <c r="E2" t="n">
-        <v>31022.9675368641</v>
+        <v>38378.7196188028</v>
       </c>
       <c r="F2" t="n">
-        <v>36966.9778326361</v>
+        <v>49300.83605339</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -445,7 +445,7 @@
         <v>17159</v>
       </c>
       <c r="I2" t="n">
-        <v>6052.19584987841</v>
+        <v>7198.1061520668</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -456,7 +456,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>12924.6601346229</v>
+        <v>13762.3853099746</v>
       </c>
       <c r="C3" t="n">
         <v>10127.0551220868</v>
@@ -465,10 +465,10 @@
         <v>9011.79078507316</v>
       </c>
       <c r="E3" t="n">
-        <v>17153.3950875731</v>
+        <v>19029.9351691596</v>
       </c>
       <c r="F3" t="n">
-        <v>20341.5259746002</v>
+        <v>22243.3604492732</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -477,7 +477,7 @@
         <v>8018</v>
       </c>
       <c r="I3" t="n">
-        <v>4906.66013462289</v>
+        <v>5744.3853099746</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -488,13 +488,13 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>18719.2326337641</v>
+        <v>18547.3837243512</v>
       </c>
       <c r="C4" t="n">
-        <v>13432.7501455896</v>
+        <v>12660.0837545926</v>
       </c>
       <c r="D4" t="n">
-        <v>11523.3209125436</v>
+        <v>11366.9179731556</v>
       </c>
       <c r="E4" t="n">
         <v>28175.4522536776</v>
@@ -509,7 +509,7 @@
         <v>6028</v>
       </c>
       <c r="I4" t="n">
-        <v>12691.2326337641</v>
+        <v>12519.3837243512</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -520,13 +520,13 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>28302.0881705209</v>
+        <v>27244.6794428011</v>
       </c>
       <c r="C5" t="n">
-        <v>18146.1317419578</v>
+        <v>15068.7879672245</v>
       </c>
       <c r="D5" t="n">
-        <v>14906.172318567</v>
+        <v>12852.6914634499</v>
       </c>
       <c r="E5" t="n">
         <v>51322.829529277</v>
@@ -541,7 +541,7 @@
         <v>6169</v>
       </c>
       <c r="I5" t="n">
-        <v>22133.0881705209</v>
+        <v>21075.6794428011</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -552,13 +552,13 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>38381.233031946</v>
+        <v>36419.5322412505</v>
       </c>
       <c r="C6" t="n">
-        <v>22153.528197162</v>
+        <v>17432.7555544307</v>
       </c>
       <c r="D6" t="n">
-        <v>17533.760333932</v>
+        <v>14845.4927845512</v>
       </c>
       <c r="E6" t="n">
         <v>85572.486270753</v>
@@ -573,7 +573,7 @@
         <v>9273</v>
       </c>
       <c r="I6" t="n">
-        <v>29108.233031946</v>
+        <v>27146.5322412505</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -584,13 +584,13 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>40505.009162736</v>
+        <v>39327.8431126501</v>
       </c>
       <c r="C7" t="n">
-        <v>22401.7488534864</v>
+        <v>19205.0905771013</v>
       </c>
       <c r="D7" t="n">
-        <v>17478.7541032736</v>
+        <v>16098.585828352</v>
       </c>
       <c r="E7" t="n">
         <v>99346.5360601493</v>
@@ -605,7 +605,7 @@
         <v>11995</v>
       </c>
       <c r="I7" t="n">
-        <v>28510.009162736</v>
+        <v>27332.8431126501</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -616,7 +616,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>31769.2342167663</v>
+        <v>32963.7773015715</v>
       </c>
       <c r="C8" t="n">
         <v>18361.3929195509</v>
@@ -637,7 +637,7 @@
         <v>9008</v>
       </c>
       <c r="I8" t="n">
-        <v>22761.2342167663</v>
+        <v>23955.7773015715</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -648,7 +648,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>19485.3749224846</v>
+        <v>21291.7753359797</v>
       </c>
       <c r="C9" t="n">
         <v>12476.3200255059</v>
@@ -657,7 +657,7 @@
         <v>10243.5898437275</v>
       </c>
       <c r="E9" t="n">
-        <v>35420.9764946235</v>
+        <v>35865.0192784109</v>
       </c>
       <c r="F9" t="n">
         <v>54087.2769181549</v>
@@ -669,7 +669,7 @@
         <v>9008</v>
       </c>
       <c r="I9" t="n">
-        <v>10477.3749224846</v>
+        <v>12283.7753359797</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -680,7 +680,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>17841.5249403041</v>
+        <v>19459.2105212984</v>
       </c>
       <c r="C10" t="n">
         <v>11497.1825722379</v>
@@ -689,7 +689,7 @@
         <v>9462.00447103951</v>
       </c>
       <c r="E10" t="n">
-        <v>32061.9067194869</v>
+        <v>34019.6040625554</v>
       </c>
       <c r="F10" t="n">
         <v>48433.1778172126</v>
@@ -701,7 +701,7 @@
         <v>13212</v>
       </c>
       <c r="I10" t="n">
-        <v>4629.52494030413</v>
+        <v>6247.21052129839</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -712,7 +712,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>19173.1931713911</v>
+        <v>20503.9865015427</v>
       </c>
       <c r="C11" t="n">
         <v>12016.8271575328</v>
@@ -733,7 +733,7 @@
         <v>12818</v>
       </c>
       <c r="I11" t="n">
-        <v>6355.1931713911</v>
+        <v>7685.9865015427</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -744,7 +744,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>24421.2036265335</v>
+        <v>25021.3971937401</v>
       </c>
       <c r="C12" t="n">
         <v>14261.7481346777</v>
@@ -765,7 +765,7 @@
         <v>15211</v>
       </c>
       <c r="I12" t="n">
-        <v>9210.20362653345</v>
+        <v>9810.39719374013</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -776,7 +776,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>27076.3585726475</v>
+        <v>27642.1896585294</v>
       </c>
       <c r="C13" t="n">
         <v>15218.7116627951</v>
@@ -797,7 +797,7 @@
         <v>11437</v>
       </c>
       <c r="I13" t="n">
-        <v>15639.3585726475</v>
+        <v>16205.1896585294</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -808,7 +808,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>22794.1649271871</v>
+        <v>24331.3815393636</v>
       </c>
       <c r="C14" t="n">
         <v>13137.1502140118</v>
@@ -829,7 +829,7 @@
         <v>7078</v>
       </c>
       <c r="I14" t="n">
-        <v>15716.1649271871</v>
+        <v>17253.3815393636</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -840,7 +840,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>12638.7496702615</v>
+        <v>14111.7474163176</v>
       </c>
       <c r="C15" t="n">
         <v>8260.56133907371</v>
@@ -849,10 +849,10 @@
         <v>6834.17978950791</v>
       </c>
       <c r="E15" t="n">
-        <v>22151.5173249496</v>
+        <v>28285.8905868372</v>
       </c>
       <c r="F15" t="n">
-        <v>32702.4804678901</v>
+        <v>34957.3529017533</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -861,7 +861,7 @@
         <v>4393</v>
       </c>
       <c r="I15" t="n">
-        <v>8245.74967026146</v>
+        <v>9718.74741631758</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -872,7 +872,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>18232.5832479623</v>
+        <v>18548.3931284343</v>
       </c>
       <c r="C16" t="n">
         <v>10809.4618368325</v>
@@ -893,7 +893,7 @@
         <v>9604</v>
       </c>
       <c r="I16" t="n">
-        <v>8628.58324796231</v>
+        <v>8944.39312843432</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -904,10 +904,10 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>27417.1197687954</v>
+        <v>26685.4082526854</v>
       </c>
       <c r="C17" t="n">
-        <v>14318.668071425</v>
+        <v>13323.3378127492</v>
       </c>
       <c r="D17" t="n">
         <v>10967.6489943652</v>
@@ -925,7 +925,7 @@
         <v>11501</v>
       </c>
       <c r="I17" t="n">
-        <v>15916.1197687954</v>
+        <v>15184.4082526854</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -936,13 +936,13 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>37022.6592940428</v>
+        <v>35311.9312319168</v>
       </c>
       <c r="C18" t="n">
-        <v>17305.2462350724</v>
+        <v>14969.4131799747</v>
       </c>
       <c r="D18" t="n">
-        <v>12817.6656440079</v>
+        <v>12573.4022690788</v>
       </c>
       <c r="E18" t="n">
         <v>144760.36601956</v>
@@ -957,7 +957,7 @@
         <v>11970</v>
       </c>
       <c r="I18" t="n">
-        <v>25052.6592940428</v>
+        <v>23341.9312319168</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -968,10 +968,10 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>39091.37173671</v>
+        <v>37882.7305666019</v>
       </c>
       <c r="C19" t="n">
-        <v>17714.5295694923</v>
+        <v>16295.3903018962</v>
       </c>
       <c r="D19" t="n">
         <v>13004.5100822935</v>
@@ -989,7 +989,7 @@
         <v>12015</v>
       </c>
       <c r="I19" t="n">
-        <v>27076.37173671</v>
+        <v>25867.7305666019</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1000,7 +1000,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>30841.1178416324</v>
+        <v>31924.9275202214</v>
       </c>
       <c r="C20" t="n">
         <v>15023.7949732691</v>
@@ -1021,7 +1021,7 @@
         <v>9367</v>
       </c>
       <c r="I20" t="n">
-        <v>21474.1178416324</v>
+        <v>22557.9275202214</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1032,7 +1032,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>19070.0273613484</v>
+        <v>21441.5056668638</v>
       </c>
       <c r="C21" t="n">
         <v>10679.949749488</v>
@@ -1053,7 +1053,7 @@
         <v>8353</v>
       </c>
       <c r="I21" t="n">
-        <v>10717.0273613484</v>
+        <v>13088.5056668638</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1064,7 +1064,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>17495.1091727778</v>
+        <v>20006.0808368554</v>
       </c>
       <c r="C22" t="n">
         <v>9970.77061124087</v>
@@ -1073,7 +1073,7 @@
         <v>7857.72258165793</v>
       </c>
       <c r="E22" t="n">
-        <v>40096.5015558973</v>
+        <v>41762.1693107115</v>
       </c>
       <c r="F22" t="n">
         <v>78653.4080235126</v>
@@ -1085,7 +1085,7 @@
         <v>12606</v>
       </c>
       <c r="I22" t="n">
-        <v>4889.10917277779</v>
+        <v>7400.0808368554</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1096,7 +1096,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>18802.4846425004</v>
+        <v>20974.4101783965</v>
       </c>
       <c r="C23" t="n">
         <v>10444.3007627042</v>
@@ -1117,7 +1117,7 @@
         <v>11116</v>
       </c>
       <c r="I23" t="n">
-        <v>7686.48464250037</v>
+        <v>9858.41017839651</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1128,7 +1128,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>23904.3455541694</v>
+        <v>25111.3458037538</v>
       </c>
       <c r="C24" t="n">
         <v>12294.3409740703</v>
@@ -1149,7 +1149,7 @@
         <v>11881</v>
       </c>
       <c r="I24" t="n">
-        <v>12023.3455541694</v>
+        <v>13230.3458037538</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1160,7 +1160,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>26495.7105090902</v>
+        <v>27570.7296264795</v>
       </c>
       <c r="C25" t="n">
         <v>13115.6534975643</v>
@@ -1181,7 +1181,7 @@
         <v>10892</v>
       </c>
       <c r="I25" t="n">
-        <v>15603.7105090902</v>
+        <v>16678.7296264795</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1192,7 +1192,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>22369.2720309223</v>
+        <v>24305.0799425925</v>
       </c>
       <c r="C26" t="n">
         <v>11540.0256119915</v>
@@ -1213,7 +1213,7 @@
         <v>6570</v>
       </c>
       <c r="I26" t="n">
-        <v>15799.2720309223</v>
+        <v>17735.0799425925</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1224,7 +1224,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>12476.6682512443</v>
+        <v>15590.0181118511</v>
       </c>
       <c r="C27" t="n">
         <v>7508.31736126025</v>
@@ -1233,10 +1233,10 @@
         <v>6028.80690028605</v>
       </c>
       <c r="E27" t="n">
-        <v>25514.2047916478</v>
+        <v>38734.5220335439</v>
       </c>
       <c r="F27" t="n">
-        <v>43871.0685746481</v>
+        <v>53581.816307767</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1245,7 +1245,7 @@
         <v>4491</v>
       </c>
       <c r="I27" t="n">
-        <v>7985.66825124435</v>
+        <v>11099.0181118511</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1256,7 +1256,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>17958.0484096196</v>
+        <v>19404.1252412622</v>
       </c>
       <c r="C28" t="n">
         <v>9721.64643941573</v>
@@ -1277,7 +1277,7 @@
         <v>10001</v>
       </c>
       <c r="I28" t="n">
-        <v>7957.04840961958</v>
+        <v>9403.12524126216</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1288,7 +1288,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>26921.19749908</v>
+        <v>27051.0517433584</v>
       </c>
       <c r="C29" t="n">
         <v>12712.2919542595</v>
@@ -1309,7 +1309,7 @@
         <v>9968</v>
       </c>
       <c r="I29" t="n">
-        <v>16953.19749908</v>
+        <v>17083.0517433584</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1320,10 +1320,10 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>36265.3143627677</v>
+        <v>35247.4628778661</v>
       </c>
       <c r="C30" t="n">
-        <v>15236.3435414491</v>
+        <v>13612.8718120327</v>
       </c>
       <c r="D30" t="n">
         <v>10953.7595637456</v>
@@ -1341,7 +1341,7 @@
         <v>11151</v>
       </c>
       <c r="I30" t="n">
-        <v>25114.3143627677</v>
+        <v>24096.4628778661</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1352,10 +1352,10 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>38302.8338324547</v>
+        <v>37575.3950147161</v>
       </c>
       <c r="C31" t="n">
-        <v>15636.5987425861</v>
+        <v>14638.7894943041</v>
       </c>
       <c r="D31" t="n">
         <v>11155.8710716245</v>
@@ -1371,7 +1371,7 @@
         <v>11945</v>
       </c>
       <c r="I31" t="n">
-        <v>26357.8338324547</v>
+        <v>25630.3950147161</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1382,7 +1382,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>30319.6614262207</v>
+        <v>31562.4509620128</v>
       </c>
       <c r="C32" t="n">
         <v>13451.0581028725</v>
@@ -1403,7 +1403,7 @@
         <v>9391</v>
       </c>
       <c r="I32" t="n">
-        <v>20928.6614262207</v>
+        <v>22171.4509620128</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1414,7 +1414,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>18834.3298275428</v>
+        <v>21311.7342926152</v>
       </c>
       <c r="C33" t="n">
         <v>9769.7192097405</v>
@@ -1435,7 +1435,7 @@
         <v>8472</v>
       </c>
       <c r="I33" t="n">
-        <v>10362.3298275428</v>
+        <v>12839.7342926152</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1446,7 +1446,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>17298.058385252</v>
+        <v>20033.7570644795</v>
       </c>
       <c r="C34" t="n">
         <v>9171.78565403236</v>
@@ -1467,7 +1467,7 @@
         <v>11041</v>
       </c>
       <c r="I34" t="n">
-        <v>6257.05838525202</v>
+        <v>8992.75706447953</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1478,7 +1478,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>18591.5938660007</v>
+        <v>21082.2873619694</v>
       </c>
       <c r="C35" t="n">
         <v>9606.48652750789</v>
@@ -1499,7 +1499,7 @@
         <v>9537</v>
       </c>
       <c r="I35" t="n">
-        <v>9054.59386600069</v>
+        <v>11545.2873619694</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1510,7 +1510,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>23610.9878682768</v>
+        <v>25208.2750749026</v>
       </c>
       <c r="C36" t="n">
         <v>11242.4952361484</v>
@@ -1531,7 +1531,7 @@
         <v>8702</v>
       </c>
       <c r="I36" t="n">
-        <v>14908.9878682768</v>
+        <v>16506.2750749026</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1542,7 +1542,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>26166.2632593594</v>
+        <v>27623.8967777234</v>
       </c>
       <c r="C37" t="n">
         <v>11977.8083646304</v>
@@ -1563,7 +1563,7 @@
         <v>3839</v>
       </c>
       <c r="I37" t="n">
-        <v>22327.2632593594</v>
+        <v>23784.8967777234</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1574,7 +1574,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>22127.3456761763</v>
+        <v>24364.8874336716</v>
       </c>
       <c r="C38" t="n">
         <v>10637.4505337609</v>
@@ -1595,7 +1595,7 @@
         <v>2370</v>
       </c>
       <c r="I38" t="n">
-        <v>19757.3456761763</v>
+        <v>21994.8874336716</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1606,7 +1606,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>12383.707000802</v>
+        <v>16726.194460917</v>
       </c>
       <c r="C39" t="n">
         <v>7056.72193509203</v>
@@ -1615,10 +1615,10 @@
         <v>5560.97404019948</v>
       </c>
       <c r="E39" t="n">
-        <v>28390.4164234228</v>
+        <v>43475.7461135582</v>
       </c>
       <c r="F39" t="n">
-        <v>55711.5826707343</v>
+        <v>67081.0713666768</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1627,7 +1627,7 @@
         <v>4548</v>
       </c>
       <c r="I39" t="n">
-        <v>7835.70700080201</v>
+        <v>12178.194460917</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1638,7 +1638,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>17801.0292989458</v>
+        <v>20486.9259286457</v>
       </c>
       <c r="C40" t="n">
         <v>9068.0307354836</v>
@@ -1659,7 +1659,7 @@
         <v>7299</v>
       </c>
       <c r="I40" t="n">
-        <v>10502.0292989458</v>
+        <v>13187.9259286457</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1670,7 +1670,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>26638.632429437</v>
+        <v>27871.6113330244</v>
       </c>
       <c r="C41" t="n">
         <v>11750.5270156756</v>
@@ -1691,7 +1691,7 @@
         <v>7028</v>
       </c>
       <c r="I41" t="n">
-        <v>19610.632429437</v>
+        <v>20843.6113330244</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1702,10 +1702,10 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>35835.078503353</v>
+        <v>35764.17984577</v>
       </c>
       <c r="C42" t="n">
-        <v>13996.3054758504</v>
+        <v>13203.7048859453</v>
       </c>
       <c r="D42" t="n">
         <v>9871.7421132616</v>
@@ -1721,7 +1721,7 @@
         <v>8930</v>
       </c>
       <c r="I42" t="n">
-        <v>26905.078503353</v>
+        <v>26834.17984577</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1732,10 +1732,10 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>37854.717437121</v>
+        <v>37848.440961904</v>
       </c>
       <c r="C43" t="n">
-        <v>14373.5792960037</v>
+        <v>14057.5891452726</v>
       </c>
       <c r="D43" t="n">
         <v>10065.7646230228</v>
@@ -1751,7 +1751,7 @@
         <v>10710</v>
       </c>
       <c r="I43" t="n">
-        <v>27144.717437121</v>
+        <v>27138.440961904</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1762,7 +1762,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>30022.1073335072</v>
+        <v>31671.302813738</v>
       </c>
       <c r="C44" t="n">
         <v>12467.7367931876</v>
@@ -1783,7 +1783,7 @@
         <v>9280</v>
       </c>
       <c r="I44" t="n">
-        <v>20742.1073335072</v>
+        <v>22391.302813738</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -1794,7 +1794,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>18699.0677639645</v>
+        <v>21380.2730857379</v>
       </c>
       <c r="C45" t="n">
         <v>9179.01862585911</v>
@@ -1803,7 +1803,7 @@
         <v>6897.90788602894</v>
       </c>
       <c r="E45" t="n">
-        <v>62696.0929543831</v>
+        <v>63919.1728340493</v>
       </c>
       <c r="F45" t="n">
         <v>229599.249780612</v>
@@ -1815,7 +1815,7 @@
         <v>7919</v>
       </c>
       <c r="I45" t="n">
-        <v>10780.0677639645</v>
+        <v>13461.2730857379</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1826,7 +1826,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>17184.8198896714</v>
+        <v>20096.9330684415</v>
       </c>
       <c r="C46" t="n">
         <v>8644.97016497651</v>
@@ -1835,7 +1835,7 @@
         <v>6545.13132889716</v>
       </c>
       <c r="E46" t="n">
-        <v>53684.5311635045</v>
+        <v>54311.8167472474</v>
       </c>
       <c r="F46" t="n">
         <v>169977.877149992</v>
@@ -1847,7 +1847,7 @@
         <v>10867</v>
       </c>
       <c r="I46" t="n">
-        <v>6317.81988967139</v>
+        <v>9229.93306844149</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -1858,7 +1858,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>18470.3948651822</v>
+        <v>21165.8157644503</v>
       </c>
       <c r="C47" t="n">
         <v>9049.71196455794</v>
@@ -1879,7 +1879,7 @@
         <v>8287</v>
       </c>
       <c r="I47" t="n">
-        <v>10183.3948651822</v>
+        <v>12878.8157644503</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -1890,7 +1890,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>23442.6174066666</v>
+        <v>25298.2985774647</v>
       </c>
       <c r="C48" t="n">
         <v>10543.7000165822</v>
@@ -1911,7 +1911,7 @@
         <v>7642</v>
       </c>
       <c r="I48" t="n">
-        <v>15800.6174066666</v>
+        <v>17656.2985774647</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -1922,7 +1922,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>25977.2177066003</v>
+        <v>27710.2453009392</v>
       </c>
       <c r="C49" t="n">
         <v>11218.0042102211</v>
@@ -1943,7 +1943,7 @@
         <v>7092</v>
       </c>
       <c r="I49" t="n">
-        <v>18885.2177066003</v>
+        <v>20618.2453009392</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>

--- a/outcome/appendix/forecast/Mumps.xlsx
+++ b/outcome/appendix/forecast/Mumps.xlsx
@@ -424,7 +424,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>24357.1061520668</v>
+        <v>24358.577399554</v>
       </c>
       <c r="C2" t="n">
         <v>18092.6444447926</v>
@@ -433,10 +433,10 @@
         <v>16064.1090125885</v>
       </c>
       <c r="E2" t="n">
-        <v>38378.7196188028</v>
+        <v>38436.2516115876</v>
       </c>
       <c r="F2" t="n">
-        <v>49300.83605339</v>
+        <v>49427.7782579771</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -445,7 +445,7 @@
         <v>17159</v>
       </c>
       <c r="I2" t="n">
-        <v>7198.1061520668</v>
+        <v>7199.57739955404</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -456,7 +456,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>13762.3853099746</v>
+        <v>13820.6143339575</v>
       </c>
       <c r="C3" t="n">
         <v>10127.0551220868</v>
@@ -465,10 +465,10 @@
         <v>9011.79078507316</v>
       </c>
       <c r="E3" t="n">
-        <v>19029.9351691596</v>
+        <v>19221.0119409549</v>
       </c>
       <c r="F3" t="n">
-        <v>22243.3604492732</v>
+        <v>22690.1597142649</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -477,7 +477,7 @@
         <v>8018</v>
       </c>
       <c r="I3" t="n">
-        <v>5744.3853099746</v>
+        <v>5802.61433395746</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -488,13 +488,13 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>18547.3837243512</v>
+        <v>18572.4056119828</v>
       </c>
       <c r="C4" t="n">
-        <v>12660.0837545926</v>
+        <v>12726.7359776422</v>
       </c>
       <c r="D4" t="n">
-        <v>11366.9179731556</v>
+        <v>11447.501962646</v>
       </c>
       <c r="E4" t="n">
         <v>28175.4522536776</v>
@@ -509,7 +509,7 @@
         <v>6028</v>
       </c>
       <c r="I4" t="n">
-        <v>12519.3837243512</v>
+        <v>12544.4056119828</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -520,13 +520,13 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>27244.6794428011</v>
+        <v>27255.1099284259</v>
       </c>
       <c r="C5" t="n">
-        <v>15068.7879672245</v>
+        <v>15198.1373042539</v>
       </c>
       <c r="D5" t="n">
-        <v>12852.6914634499</v>
+        <v>12947.1496266373</v>
       </c>
       <c r="E5" t="n">
         <v>51322.829529277</v>
@@ -541,7 +541,7 @@
         <v>6169</v>
       </c>
       <c r="I5" t="n">
-        <v>21075.6794428011</v>
+        <v>21086.1099284259</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -552,13 +552,13 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>36419.5322412505</v>
+        <v>36532.9008333867</v>
       </c>
       <c r="C6" t="n">
-        <v>17432.7555544307</v>
+        <v>17609.3391313264</v>
       </c>
       <c r="D6" t="n">
-        <v>14845.4927845512</v>
+        <v>15048.7519907714</v>
       </c>
       <c r="E6" t="n">
         <v>85572.486270753</v>
@@ -573,7 +573,7 @@
         <v>9273</v>
       </c>
       <c r="I6" t="n">
-        <v>27146.5322412505</v>
+        <v>27259.9008333867</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -584,13 +584,13 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>39327.8431126501</v>
+        <v>39491.0217594978</v>
       </c>
       <c r="C7" t="n">
-        <v>19205.0905771013</v>
+        <v>19485.4516903577</v>
       </c>
       <c r="D7" t="n">
-        <v>16098.585828352</v>
+        <v>16354.3023066479</v>
       </c>
       <c r="E7" t="n">
         <v>99346.5360601493</v>
@@ -605,7 +605,7 @@
         <v>11995</v>
       </c>
       <c r="I7" t="n">
-        <v>27332.8431126501</v>
+        <v>27496.0217594978</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -616,7 +616,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>32963.7773015715</v>
+        <v>33114.6738261357</v>
       </c>
       <c r="C8" t="n">
         <v>18361.3929195509</v>
@@ -637,7 +637,7 @@
         <v>9008</v>
       </c>
       <c r="I8" t="n">
-        <v>23955.7773015715</v>
+        <v>24106.6738261357</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -648,7 +648,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>21291.7753359797</v>
+        <v>21285.7403404022</v>
       </c>
       <c r="C9" t="n">
         <v>12476.3200255059</v>
@@ -657,7 +657,7 @@
         <v>10243.5898437275</v>
       </c>
       <c r="E9" t="n">
-        <v>35865.0192784109</v>
+        <v>36270.3947389659</v>
       </c>
       <c r="F9" t="n">
         <v>54087.2769181549</v>
@@ -669,7 +669,7 @@
         <v>9008</v>
       </c>
       <c r="I9" t="n">
-        <v>12283.7753359797</v>
+        <v>12277.7403404022</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -680,7 +680,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>19459.2105212984</v>
+        <v>19402.8934322052</v>
       </c>
       <c r="C10" t="n">
         <v>11497.1825722379</v>
@@ -689,7 +689,7 @@
         <v>9462.00447103951</v>
       </c>
       <c r="E10" t="n">
-        <v>34019.6040625554</v>
+        <v>33732.863938446</v>
       </c>
       <c r="F10" t="n">
         <v>48433.1778172126</v>
@@ -701,7 +701,7 @@
         <v>13212</v>
       </c>
       <c r="I10" t="n">
-        <v>6247.21052129839</v>
+        <v>6190.89343220517</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -712,7 +712,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>20503.9865015427</v>
+        <v>20418.3198457485</v>
       </c>
       <c r="C11" t="n">
         <v>12016.8271575328</v>
@@ -733,7 +733,7 @@
         <v>12818</v>
       </c>
       <c r="I11" t="n">
-        <v>7685.9865015427</v>
+        <v>7600.31984574854</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -744,7 +744,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>25021.3971937401</v>
+        <v>25035.5975242835</v>
       </c>
       <c r="C12" t="n">
         <v>14261.7481346777</v>
@@ -765,7 +765,7 @@
         <v>15211</v>
       </c>
       <c r="I12" t="n">
-        <v>9810.39719374013</v>
+        <v>9824.59752428353</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -776,7 +776,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>27642.1896585294</v>
+        <v>27719.8793534874</v>
       </c>
       <c r="C13" t="n">
         <v>15218.7116627951</v>
@@ -797,7 +797,7 @@
         <v>11437</v>
       </c>
       <c r="I13" t="n">
-        <v>16205.1896585294</v>
+        <v>16282.8793534874</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -808,7 +808,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>24331.3815393636</v>
+        <v>24441.9708130999</v>
       </c>
       <c r="C14" t="n">
         <v>13137.1502140118</v>
@@ -829,7 +829,7 @@
         <v>7078</v>
       </c>
       <c r="I14" t="n">
-        <v>17253.3815393636</v>
+        <v>17363.9708130999</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -840,7 +840,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>14111.7474163176</v>
+        <v>14252.8074745722</v>
       </c>
       <c r="C15" t="n">
         <v>8260.56133907371</v>
@@ -849,10 +849,10 @@
         <v>6834.17978950791</v>
       </c>
       <c r="E15" t="n">
-        <v>28285.8905868372</v>
+        <v>28729.1878390283</v>
       </c>
       <c r="F15" t="n">
-        <v>34957.3529017533</v>
+        <v>36014.5616051917</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -861,7 +861,7 @@
         <v>4393</v>
       </c>
       <c r="I15" t="n">
-        <v>9718.74741631758</v>
+        <v>9859.80747457219</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -872,7 +872,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>18548.3931284343</v>
+        <v>18611.0925971313</v>
       </c>
       <c r="C16" t="n">
         <v>10809.4618368325</v>
@@ -893,7 +893,7 @@
         <v>9604</v>
       </c>
       <c r="I16" t="n">
-        <v>8944.39312843432</v>
+        <v>9007.0925971313</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -904,10 +904,10 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>26685.4082526854</v>
+        <v>26692.0923544309</v>
       </c>
       <c r="C17" t="n">
-        <v>13323.3378127492</v>
+        <v>13407.0579422677</v>
       </c>
       <c r="D17" t="n">
         <v>10967.6489943652</v>
@@ -925,7 +925,7 @@
         <v>11501</v>
       </c>
       <c r="I17" t="n">
-        <v>15184.4082526854</v>
+        <v>15191.0923544309</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -936,13 +936,13 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>35311.9312319168</v>
+        <v>35289.4016666568</v>
       </c>
       <c r="C18" t="n">
-        <v>14969.4131799747</v>
+        <v>14964.7321839988</v>
       </c>
       <c r="D18" t="n">
-        <v>12573.4022690788</v>
+        <v>12604.5175228342</v>
       </c>
       <c r="E18" t="n">
         <v>144760.36601956</v>
@@ -957,7 +957,7 @@
         <v>11970</v>
       </c>
       <c r="I18" t="n">
-        <v>23341.9312319168</v>
+        <v>23319.4016666568</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -968,10 +968,10 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>37882.7305666019</v>
+        <v>37950.9460481407</v>
       </c>
       <c r="C19" t="n">
-        <v>16295.3903018962</v>
+        <v>16363.7954381981</v>
       </c>
       <c r="D19" t="n">
         <v>13004.5100822935</v>
@@ -989,7 +989,7 @@
         <v>12015</v>
       </c>
       <c r="I19" t="n">
-        <v>25867.7305666019</v>
+        <v>25935.9460481407</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1000,7 +1000,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>31924.9275202214</v>
+        <v>32092.3579260102</v>
       </c>
       <c r="C20" t="n">
         <v>15023.7949732691</v>
@@ -1021,7 +1021,7 @@
         <v>9367</v>
       </c>
       <c r="I20" t="n">
-        <v>22557.9275202214</v>
+        <v>22725.3579260102</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1032,7 +1032,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>21441.5056668638</v>
+        <v>21577.519344483</v>
       </c>
       <c r="C21" t="n">
         <v>10679.949749488</v>
@@ -1053,7 +1053,7 @@
         <v>8353</v>
       </c>
       <c r="I21" t="n">
-        <v>13088.5056668638</v>
+        <v>13224.519344483</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1064,7 +1064,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>20006.0808368554</v>
+        <v>20002.2464060735</v>
       </c>
       <c r="C22" t="n">
         <v>9970.77061124087</v>
@@ -1073,7 +1073,7 @@
         <v>7857.72258165793</v>
       </c>
       <c r="E22" t="n">
-        <v>41762.1693107115</v>
+        <v>42129.2647666515</v>
       </c>
       <c r="F22" t="n">
         <v>78653.4080235126</v>
@@ -1085,7 +1085,7 @@
         <v>12606</v>
       </c>
       <c r="I22" t="n">
-        <v>7400.0808368554</v>
+        <v>7396.24640607349</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1096,7 +1096,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>20974.4101783965</v>
+        <v>20900.3539169634</v>
       </c>
       <c r="C23" t="n">
         <v>10444.3007627042</v>
@@ -1117,7 +1117,7 @@
         <v>11116</v>
       </c>
       <c r="I23" t="n">
-        <v>9858.41017839651</v>
+        <v>9784.35391696344</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1128,7 +1128,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>25111.3458037538</v>
+        <v>25125.1199144237</v>
       </c>
       <c r="C24" t="n">
         <v>12294.3409740703</v>
@@ -1149,7 +1149,7 @@
         <v>11881</v>
       </c>
       <c r="I24" t="n">
-        <v>13230.3458037538</v>
+        <v>13244.1199144237</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1160,7 +1160,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>27570.7296264795</v>
+        <v>27668.2226876418</v>
       </c>
       <c r="C25" t="n">
         <v>13115.6534975643</v>
@@ -1181,7 +1181,7 @@
         <v>10892</v>
       </c>
       <c r="I25" t="n">
-        <v>16678.7296264795</v>
+        <v>16776.2226876418</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1192,7 +1192,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>24305.0799425925</v>
+        <v>24463.0919676686</v>
       </c>
       <c r="C26" t="n">
         <v>11540.0256119915</v>
@@ -1213,7 +1213,7 @@
         <v>6570</v>
       </c>
       <c r="I26" t="n">
-        <v>17735.0799425925</v>
+        <v>17893.0919676686</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1224,7 +1224,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>15590.0181118511</v>
+        <v>15848.2113443777</v>
       </c>
       <c r="C27" t="n">
         <v>7508.31736126025</v>
@@ -1233,10 +1233,10 @@
         <v>6028.80690028605</v>
       </c>
       <c r="E27" t="n">
-        <v>38734.5220335439</v>
+        <v>38815.3308849224</v>
       </c>
       <c r="F27" t="n">
-        <v>53581.816307767</v>
+        <v>54251.4025213225</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1245,7 +1245,7 @@
         <v>4491</v>
       </c>
       <c r="I27" t="n">
-        <v>11099.0181118511</v>
+        <v>11357.2113443777</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1256,7 +1256,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>19404.1252412622</v>
+        <v>19549.9335353355</v>
       </c>
       <c r="C28" t="n">
         <v>9721.64643941573</v>
@@ -1277,7 +1277,7 @@
         <v>10001</v>
       </c>
       <c r="I28" t="n">
-        <v>9403.12524126216</v>
+        <v>9548.93353533551</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1288,7 +1288,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>27051.0517433584</v>
+        <v>27092.3504418266</v>
       </c>
       <c r="C29" t="n">
         <v>12712.2919542595</v>
@@ -1309,7 +1309,7 @@
         <v>9968</v>
       </c>
       <c r="I29" t="n">
-        <v>17083.0517433584</v>
+        <v>17124.3504418266</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1320,10 +1320,10 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>35247.4628778661</v>
+        <v>35219.3017903363</v>
       </c>
       <c r="C30" t="n">
-        <v>13612.8718120327</v>
+        <v>13634.3900621679</v>
       </c>
       <c r="D30" t="n">
         <v>10953.7595637456</v>
@@ -1341,7 +1341,7 @@
         <v>11151</v>
       </c>
       <c r="I30" t="n">
-        <v>24096.4628778661</v>
+        <v>24068.3017903363</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1352,10 +1352,10 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>37575.3950147161</v>
+        <v>37536.4811357329</v>
       </c>
       <c r="C31" t="n">
-        <v>14638.7894943041</v>
+        <v>14614.0891415861</v>
       </c>
       <c r="D31" t="n">
         <v>11155.8710716245</v>
@@ -1371,7 +1371,7 @@
         <v>11945</v>
       </c>
       <c r="I31" t="n">
-        <v>25630.3950147161</v>
+        <v>25591.4811357329</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1382,7 +1382,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>31562.4509620128</v>
+        <v>31603.6684235759</v>
       </c>
       <c r="C32" t="n">
         <v>13451.0581028725</v>
@@ -1403,7 +1403,7 @@
         <v>9391</v>
       </c>
       <c r="I32" t="n">
-        <v>22171.4509620128</v>
+        <v>22212.6684235759</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1414,7 +1414,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>21311.7342926152</v>
+        <v>21442.1374022264</v>
       </c>
       <c r="C33" t="n">
         <v>9769.7192097405</v>
@@ -1435,7 +1435,7 @@
         <v>8472</v>
       </c>
       <c r="I33" t="n">
-        <v>12839.7342926152</v>
+        <v>12970.1374022264</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1446,7 +1446,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>20033.7570644795</v>
+        <v>20175.7919717471</v>
       </c>
       <c r="C34" t="n">
         <v>9171.78565403236</v>
@@ -1467,7 +1467,7 @@
         <v>11041</v>
       </c>
       <c r="I34" t="n">
-        <v>8992.75706447953</v>
+        <v>9134.79197174707</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1478,7 +1478,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>21082.2873619694</v>
+        <v>21203.2593609534</v>
       </c>
       <c r="C35" t="n">
         <v>9606.48652750789</v>
@@ -1499,7 +1499,7 @@
         <v>9537</v>
       </c>
       <c r="I35" t="n">
-        <v>11545.2873619694</v>
+        <v>11666.2593609534</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1510,7 +1510,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>25208.2750749026</v>
+        <v>25347.4635023759</v>
       </c>
       <c r="C36" t="n">
         <v>11242.4952361484</v>
@@ -1531,7 +1531,7 @@
         <v>8702</v>
       </c>
       <c r="I36" t="n">
-        <v>16506.2750749026</v>
+        <v>16645.4635023759</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1542,7 +1542,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>27623.8967777234</v>
+        <v>27802.0741274798</v>
       </c>
       <c r="C37" t="n">
         <v>11977.8083646304</v>
@@ -1563,7 +1563,7 @@
         <v>3839</v>
       </c>
       <c r="I37" t="n">
-        <v>23784.8967777234</v>
+        <v>23963.0741274798</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1574,7 +1574,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>24364.8874336716</v>
+        <v>24584.0434780823</v>
       </c>
       <c r="C38" t="n">
         <v>10637.4505337609</v>
@@ -1595,7 +1595,7 @@
         <v>2370</v>
       </c>
       <c r="I38" t="n">
-        <v>21994.8874336716</v>
+        <v>22214.0434780823</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1606,7 +1606,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>16726.194460917</v>
+        <v>16867.2208699208</v>
       </c>
       <c r="C39" t="n">
         <v>7056.72193509203</v>
@@ -1615,10 +1615,10 @@
         <v>5560.97404019948</v>
       </c>
       <c r="E39" t="n">
-        <v>43475.7461135582</v>
+        <v>43320.8970556415</v>
       </c>
       <c r="F39" t="n">
-        <v>67081.0713666768</v>
+        <v>66942.0103275871</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1627,7 +1627,7 @@
         <v>4548</v>
       </c>
       <c r="I39" t="n">
-        <v>12178.194460917</v>
+        <v>12319.2208699208</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1638,7 +1638,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>20486.9259286457</v>
+        <v>20552.5157480903</v>
       </c>
       <c r="C40" t="n">
         <v>9068.0307354836</v>
@@ -1659,7 +1659,7 @@
         <v>7299</v>
       </c>
       <c r="I40" t="n">
-        <v>13187.9259286457</v>
+        <v>13253.5157480903</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1670,7 +1670,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>27871.6113330244</v>
+        <v>27861.4841191716</v>
       </c>
       <c r="C41" t="n">
         <v>11750.5270156756</v>
@@ -1691,7 +1691,7 @@
         <v>7028</v>
       </c>
       <c r="I41" t="n">
-        <v>20843.6113330244</v>
+        <v>20833.4841191716</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1702,10 +1702,10 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>35764.17984577</v>
+        <v>35684.4295037345</v>
       </c>
       <c r="C42" t="n">
-        <v>13203.7048859453</v>
+        <v>13171.3270967569</v>
       </c>
       <c r="D42" t="n">
         <v>9871.7421132616</v>
@@ -1721,7 +1721,7 @@
         <v>8930</v>
       </c>
       <c r="I42" t="n">
-        <v>26834.17984577</v>
+        <v>26754.4295037345</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1732,10 +1732,10 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>37848.440961904</v>
+        <v>37721.6133285675</v>
       </c>
       <c r="C43" t="n">
-        <v>14057.5891452726</v>
+        <v>14174.3822488968</v>
       </c>
       <c r="D43" t="n">
         <v>10065.7646230228</v>
@@ -1751,7 +1751,7 @@
         <v>10710</v>
       </c>
       <c r="I43" t="n">
-        <v>27138.440961904</v>
+        <v>27011.6133285675</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1762,7 +1762,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>31671.302813738</v>
+        <v>31620.833960472</v>
       </c>
       <c r="C44" t="n">
         <v>12467.7367931876</v>
@@ -1783,7 +1783,7 @@
         <v>9280</v>
       </c>
       <c r="I44" t="n">
-        <v>22391.302813738</v>
+        <v>22340.833960472</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -1794,7 +1794,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>21380.2730857379</v>
+        <v>21451.444042213</v>
       </c>
       <c r="C45" t="n">
         <v>9179.01862585911</v>
@@ -1815,7 +1815,7 @@
         <v>7919</v>
       </c>
       <c r="I45" t="n">
-        <v>13461.2730857379</v>
+        <v>13532.444042213</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1826,7 +1826,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>20096.9330684415</v>
+        <v>20252.8792895879</v>
       </c>
       <c r="C46" t="n">
         <v>8644.97016497651</v>
@@ -1847,7 +1847,7 @@
         <v>10867</v>
       </c>
       <c r="I46" t="n">
-        <v>9229.93306844149</v>
+        <v>9385.87928958791</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -1858,7 +1858,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>21165.8157644503</v>
+        <v>21365.0965116512</v>
       </c>
       <c r="C47" t="n">
         <v>9049.71196455794</v>
@@ -1879,7 +1879,7 @@
         <v>8287</v>
       </c>
       <c r="I47" t="n">
-        <v>12878.8157644503</v>
+        <v>13078.0965116512</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -1890,7 +1890,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>25298.2985774647</v>
+        <v>25526.7923072146</v>
       </c>
       <c r="C48" t="n">
         <v>10543.7000165822</v>
@@ -1911,7 +1911,7 @@
         <v>7642</v>
       </c>
       <c r="I48" t="n">
-        <v>17656.2985774647</v>
+        <v>17884.7923072146</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -1922,7 +1922,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>27710.2453009392</v>
+        <v>27965.846441631</v>
       </c>
       <c r="C49" t="n">
         <v>11218.0042102211</v>
@@ -1943,7 +1943,7 @@
         <v>7092</v>
       </c>
       <c r="I49" t="n">
-        <v>20618.2453009392</v>
+        <v>20873.846441631</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>

--- a/outcome/appendix/forecast/Mumps.xlsx
+++ b/outcome/appendix/forecast/Mumps.xlsx
@@ -424,7 +424,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>24358.577399554</v>
+        <v>24461.5359505928</v>
       </c>
       <c r="C2" t="n">
         <v>18092.6444447926</v>
@@ -433,10 +433,10 @@
         <v>16064.1090125885</v>
       </c>
       <c r="E2" t="n">
-        <v>38436.2516115876</v>
+        <v>38965.3981072151</v>
       </c>
       <c r="F2" t="n">
-        <v>49427.7782579771</v>
+        <v>50045.3189749633</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -445,7 +445,7 @@
         <v>17159</v>
       </c>
       <c r="I2" t="n">
-        <v>7199.57739955404</v>
+        <v>7302.53595059279</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -456,7 +456,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>13820.6143339575</v>
+        <v>13751.7745901086</v>
       </c>
       <c r="C3" t="n">
         <v>10127.0551220868</v>
@@ -465,10 +465,10 @@
         <v>9011.79078507316</v>
       </c>
       <c r="E3" t="n">
-        <v>19221.0119409549</v>
+        <v>18937.4695818333</v>
       </c>
       <c r="F3" t="n">
-        <v>22690.1597142649</v>
+        <v>22084.6511996782</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -477,7 +477,7 @@
         <v>8018</v>
       </c>
       <c r="I3" t="n">
-        <v>5802.61433395746</v>
+        <v>5733.77459010856</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -488,13 +488,13 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>18572.4056119828</v>
+        <v>18538.4450769877</v>
       </c>
       <c r="C4" t="n">
-        <v>12726.7359776422</v>
+        <v>12694.6554253341</v>
       </c>
       <c r="D4" t="n">
-        <v>11447.501962646</v>
+        <v>11441.6264016489</v>
       </c>
       <c r="E4" t="n">
         <v>28175.4522536776</v>
@@ -509,7 +509,7 @@
         <v>6028</v>
       </c>
       <c r="I4" t="n">
-        <v>12544.4056119828</v>
+        <v>12510.4450769877</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -520,13 +520,13 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>27255.1099284259</v>
+        <v>27188.5952362007</v>
       </c>
       <c r="C5" t="n">
-        <v>15198.1373042539</v>
+        <v>14987.1804181161</v>
       </c>
       <c r="D5" t="n">
-        <v>12947.1496266373</v>
+        <v>12780.4867374626</v>
       </c>
       <c r="E5" t="n">
         <v>51322.829529277</v>
@@ -541,7 +541,7 @@
         <v>6169</v>
       </c>
       <c r="I5" t="n">
-        <v>21086.1099284259</v>
+        <v>21019.5952362007</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -552,13 +552,13 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>36532.9008333867</v>
+        <v>36446.5684537737</v>
       </c>
       <c r="C6" t="n">
-        <v>17609.3391313264</v>
+        <v>17277.2105196283</v>
       </c>
       <c r="D6" t="n">
-        <v>15048.7519907714</v>
+        <v>14647.7331008109</v>
       </c>
       <c r="E6" t="n">
         <v>85572.486270753</v>
@@ -573,7 +573,7 @@
         <v>9273</v>
       </c>
       <c r="I6" t="n">
-        <v>27259.9008333867</v>
+        <v>27173.5684537737</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -584,13 +584,13 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>39491.0217594978</v>
+        <v>39424.2224833897</v>
       </c>
       <c r="C7" t="n">
-        <v>19485.4516903577</v>
+        <v>19205.41845331</v>
       </c>
       <c r="D7" t="n">
-        <v>16354.3023066479</v>
+        <v>16018.2984224765</v>
       </c>
       <c r="E7" t="n">
         <v>99346.5360601493</v>
@@ -605,7 +605,7 @@
         <v>11995</v>
       </c>
       <c r="I7" t="n">
-        <v>27496.0217594978</v>
+        <v>27429.2224833897</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -616,7 +616,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>33114.6738261357</v>
+        <v>33060.5906786407</v>
       </c>
       <c r="C8" t="n">
         <v>18361.3929195509</v>
@@ -637,7 +637,7 @@
         <v>9008</v>
       </c>
       <c r="I8" t="n">
-        <v>24106.6738261357</v>
+        <v>24052.5906786407</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -648,7 +648,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>21285.7403404022</v>
+        <v>21377.2861751258</v>
       </c>
       <c r="C9" t="n">
         <v>12476.3200255059</v>
@@ -657,7 +657,7 @@
         <v>10243.5898437275</v>
       </c>
       <c r="E9" t="n">
-        <v>36270.3947389659</v>
+        <v>36693.2319133197</v>
       </c>
       <c r="F9" t="n">
         <v>54087.2769181549</v>
@@ -669,7 +669,7 @@
         <v>9008</v>
       </c>
       <c r="I9" t="n">
-        <v>12277.7403404022</v>
+        <v>12369.2861751258</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -680,7 +680,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>19402.8934322052</v>
+        <v>19533.3406833496</v>
       </c>
       <c r="C10" t="n">
         <v>11497.1825722379</v>
@@ -689,7 +689,7 @@
         <v>9462.00447103951</v>
       </c>
       <c r="E10" t="n">
-        <v>33732.863938446</v>
+        <v>34850.3596412676</v>
       </c>
       <c r="F10" t="n">
         <v>48433.1778172126</v>
@@ -701,7 +701,7 @@
         <v>13212</v>
       </c>
       <c r="I10" t="n">
-        <v>6190.89343220517</v>
+        <v>6321.3406833496</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -712,7 +712,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>20418.3198457485</v>
+        <v>20556.5407096913</v>
       </c>
       <c r="C11" t="n">
         <v>12016.8271575328</v>
@@ -721,7 +721,7 @@
         <v>9789.67296951087</v>
       </c>
       <c r="E11" t="n">
-        <v>36248.1742821249</v>
+        <v>36765.7237617603</v>
       </c>
       <c r="F11" t="n">
         <v>57483.9294762837</v>
@@ -733,7 +733,7 @@
         <v>12818</v>
       </c>
       <c r="I11" t="n">
-        <v>7600.31984574854</v>
+        <v>7738.5407096913</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -744,7 +744,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>25035.5975242835</v>
+        <v>25092.9864667262</v>
       </c>
       <c r="C12" t="n">
         <v>14261.7481346777</v>
@@ -765,7 +765,7 @@
         <v>15211</v>
       </c>
       <c r="I12" t="n">
-        <v>9824.59752428353</v>
+        <v>9881.9864667262</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -776,7 +776,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>27719.8793534874</v>
+        <v>27728.3048946825</v>
       </c>
       <c r="C13" t="n">
         <v>15218.7116627951</v>
@@ -797,7 +797,7 @@
         <v>11437</v>
       </c>
       <c r="I13" t="n">
-        <v>16282.8793534874</v>
+        <v>16291.3048946825</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -808,7 +808,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>24441.9708130999</v>
+        <v>24462.2257899274</v>
       </c>
       <c r="C14" t="n">
         <v>13137.1502140118</v>
@@ -829,7 +829,7 @@
         <v>7078</v>
       </c>
       <c r="I14" t="n">
-        <v>17363.9708130999</v>
+        <v>17384.2257899274</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -840,7 +840,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>14252.8074745722</v>
+        <v>13993.2920688145</v>
       </c>
       <c r="C15" t="n">
         <v>8260.56133907371</v>
@@ -849,10 +849,10 @@
         <v>6834.17978950791</v>
       </c>
       <c r="E15" t="n">
-        <v>28729.1878390283</v>
+        <v>28524.5981673961</v>
       </c>
       <c r="F15" t="n">
-        <v>36014.5616051917</v>
+        <v>35975.9047609483</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -861,7 +861,7 @@
         <v>4393</v>
       </c>
       <c r="I15" t="n">
-        <v>9859.80747457219</v>
+        <v>9600.29206881454</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -872,7 +872,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>18611.0925971313</v>
+        <v>18464.1487373481</v>
       </c>
       <c r="C16" t="n">
         <v>10809.4618368325</v>
@@ -893,7 +893,7 @@
         <v>9604</v>
       </c>
       <c r="I16" t="n">
-        <v>9007.0925971313</v>
+        <v>8860.14873734811</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -904,10 +904,10 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>26692.0923544309</v>
+        <v>26589.0912794963</v>
       </c>
       <c r="C17" t="n">
-        <v>13407.0579422677</v>
+        <v>13277.8648708032</v>
       </c>
       <c r="D17" t="n">
         <v>10967.6489943652</v>
@@ -925,7 +925,7 @@
         <v>11501</v>
       </c>
       <c r="I17" t="n">
-        <v>15191.0923544309</v>
+        <v>15088.0912794963</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -936,13 +936,13 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>35289.4016666568</v>
+        <v>35140.122205063</v>
       </c>
       <c r="C18" t="n">
-        <v>14964.7321839988</v>
+        <v>14944.719734274</v>
       </c>
       <c r="D18" t="n">
-        <v>12604.5175228342</v>
+        <v>12425.8685165999</v>
       </c>
       <c r="E18" t="n">
         <v>144760.36601956</v>
@@ -957,7 +957,7 @@
         <v>11970</v>
       </c>
       <c r="I18" t="n">
-        <v>23319.4016666568</v>
+        <v>23170.122205063</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -968,10 +968,10 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>37950.9460481407</v>
+        <v>37768.5659482412</v>
       </c>
       <c r="C19" t="n">
-        <v>16363.7954381981</v>
+        <v>16211.8616118503</v>
       </c>
       <c r="D19" t="n">
         <v>13004.5100822935</v>
@@ -989,7 +989,7 @@
         <v>12015</v>
       </c>
       <c r="I19" t="n">
-        <v>25935.9460481407</v>
+        <v>25753.5659482412</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1000,7 +1000,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>32092.3579260102</v>
+        <v>31906.7614493348</v>
       </c>
       <c r="C20" t="n">
         <v>15023.7949732691</v>
@@ -1021,7 +1021,7 @@
         <v>9367</v>
       </c>
       <c r="I20" t="n">
-        <v>22725.3579260102</v>
+        <v>22539.7614493348</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1032,7 +1032,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>21577.519344483</v>
+        <v>21499.1943208056</v>
       </c>
       <c r="C21" t="n">
         <v>10679.949749488</v>
@@ -1053,7 +1053,7 @@
         <v>8353</v>
       </c>
       <c r="I21" t="n">
-        <v>13224.519344483</v>
+        <v>13146.1943208056</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1064,7 +1064,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>20002.2464060735</v>
+        <v>20100.8182111201</v>
       </c>
       <c r="C22" t="n">
         <v>9970.77061124087</v>
@@ -1073,7 +1073,7 @@
         <v>7857.72258165793</v>
       </c>
       <c r="E22" t="n">
-        <v>42129.2647666515</v>
+        <v>43268.4953080088</v>
       </c>
       <c r="F22" t="n">
         <v>78653.4080235126</v>
@@ -1085,7 +1085,7 @@
         <v>12606</v>
       </c>
       <c r="I22" t="n">
-        <v>7396.24640607349</v>
+        <v>7494.8182111201</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1096,7 +1096,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>20900.3539169634</v>
+        <v>21104.3450208666</v>
       </c>
       <c r="C23" t="n">
         <v>10444.3007627042</v>
@@ -1117,7 +1117,7 @@
         <v>11116</v>
       </c>
       <c r="I23" t="n">
-        <v>9784.35391696344</v>
+        <v>9988.34502086657</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1128,7 +1128,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>25125.1199144237</v>
+        <v>25260.6795519576</v>
       </c>
       <c r="C24" t="n">
         <v>12294.3409740703</v>
@@ -1149,7 +1149,7 @@
         <v>11881</v>
       </c>
       <c r="I24" t="n">
-        <v>13244.1199144237</v>
+        <v>13379.6795519576</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1160,7 +1160,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>27668.2226876418</v>
+        <v>27736.6424954553</v>
       </c>
       <c r="C25" t="n">
         <v>13115.6534975643</v>
@@ -1181,7 +1181,7 @@
         <v>10892</v>
       </c>
       <c r="I25" t="n">
-        <v>16776.2226876418</v>
+        <v>16844.6424954553</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1192,7 +1192,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>24463.0919676686</v>
+        <v>24496.9390469305</v>
       </c>
       <c r="C26" t="n">
         <v>11540.0256119915</v>
@@ -1213,7 +1213,7 @@
         <v>6570</v>
       </c>
       <c r="I26" t="n">
-        <v>17893.0919676686</v>
+        <v>17926.9390469305</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1224,7 +1224,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>15848.2113443777</v>
+        <v>15524.3032770952</v>
       </c>
       <c r="C27" t="n">
         <v>7508.31736126025</v>
@@ -1233,10 +1233,10 @@
         <v>6028.80690028605</v>
       </c>
       <c r="E27" t="n">
-        <v>38815.3308849224</v>
+        <v>38751.2723385486</v>
       </c>
       <c r="F27" t="n">
-        <v>54251.4025213225</v>
+        <v>53814.0992316784</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1245,7 +1245,7 @@
         <v>4491</v>
       </c>
       <c r="I27" t="n">
-        <v>11357.2113443777</v>
+        <v>11033.3032770952</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1256,7 +1256,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>19549.9335353355</v>
+        <v>19333.023764692</v>
       </c>
       <c r="C28" t="n">
         <v>9721.64643941573</v>
@@ -1277,7 +1277,7 @@
         <v>10001</v>
       </c>
       <c r="I28" t="n">
-        <v>9548.93353533551</v>
+        <v>9332.02376469202</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1288,7 +1288,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>27092.3504418266</v>
+        <v>26950.9089810644</v>
       </c>
       <c r="C29" t="n">
         <v>12712.2919542595</v>
@@ -1309,7 +1309,7 @@
         <v>9968</v>
       </c>
       <c r="I29" t="n">
-        <v>17124.3504418266</v>
+        <v>16982.9089810644</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1320,10 +1320,10 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>35219.3017903363</v>
+        <v>35088.2275010212</v>
       </c>
       <c r="C30" t="n">
-        <v>13634.3900621679</v>
+        <v>13576.3747642065</v>
       </c>
       <c r="D30" t="n">
         <v>10953.7595637456</v>
@@ -1341,7 +1341,7 @@
         <v>11151</v>
       </c>
       <c r="I30" t="n">
-        <v>24068.3017903363</v>
+        <v>23937.2275010212</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1352,10 +1352,10 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>37536.4811357329</v>
+        <v>37415.2258399519</v>
       </c>
       <c r="C31" t="n">
-        <v>14614.0891415861</v>
+        <v>14504.5921919688</v>
       </c>
       <c r="D31" t="n">
         <v>11155.8710716245</v>
@@ -1371,7 +1371,7 @@
         <v>11945</v>
       </c>
       <c r="I31" t="n">
-        <v>25591.4811357329</v>
+        <v>25470.2258399519</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1382,7 +1382,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>31603.6684235759</v>
+        <v>31418.0556653882</v>
       </c>
       <c r="C32" t="n">
         <v>13451.0581028725</v>
@@ -1403,7 +1403,7 @@
         <v>9391</v>
       </c>
       <c r="I32" t="n">
-        <v>22212.6684235759</v>
+        <v>22027.0556653882</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1414,7 +1414,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>21442.1374022264</v>
+        <v>21255.9454386756</v>
       </c>
       <c r="C33" t="n">
         <v>9769.7192097405</v>
@@ -1435,7 +1435,7 @@
         <v>8472</v>
       </c>
       <c r="I33" t="n">
-        <v>12970.1374022264</v>
+        <v>12783.9454386756</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1446,7 +1446,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>20175.7919717471</v>
+        <v>20062.3624705834</v>
       </c>
       <c r="C34" t="n">
         <v>9171.78565403236</v>
@@ -1467,7 +1467,7 @@
         <v>11041</v>
       </c>
       <c r="I34" t="n">
-        <v>9134.79197174707</v>
+        <v>9021.36247058342</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1478,7 +1478,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>21203.2593609534</v>
+        <v>21183.5275991687</v>
       </c>
       <c r="C35" t="n">
         <v>9606.48652750789</v>
@@ -1499,7 +1499,7 @@
         <v>9537</v>
       </c>
       <c r="I35" t="n">
-        <v>11666.2593609534</v>
+        <v>11646.5275991687</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1510,7 +1510,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>25347.4635023759</v>
+        <v>25365.3760418774</v>
       </c>
       <c r="C36" t="n">
         <v>11242.4952361484</v>
@@ -1531,7 +1531,7 @@
         <v>8702</v>
       </c>
       <c r="I36" t="n">
-        <v>16645.4635023759</v>
+        <v>16663.3760418774</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1542,7 +1542,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>27802.0741274798</v>
+        <v>27822.4130179549</v>
       </c>
       <c r="C37" t="n">
         <v>11977.8083646304</v>
@@ -1563,7 +1563,7 @@
         <v>3839</v>
       </c>
       <c r="I37" t="n">
-        <v>23963.0741274798</v>
+        <v>23983.4130179549</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1574,7 +1574,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>24584.0434780823</v>
+        <v>24597.4011873646</v>
       </c>
       <c r="C38" t="n">
         <v>10637.4505337609</v>
@@ -1595,7 +1595,7 @@
         <v>2370</v>
       </c>
       <c r="I38" t="n">
-        <v>22214.0434780823</v>
+        <v>22227.4011873646</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1606,7 +1606,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>16867.2208699208</v>
+        <v>16839.4729831057</v>
       </c>
       <c r="C39" t="n">
         <v>7056.72193509203</v>
@@ -1615,10 +1615,10 @@
         <v>5560.97404019948</v>
       </c>
       <c r="E39" t="n">
-        <v>43320.8970556415</v>
+        <v>44451.2432879007</v>
       </c>
       <c r="F39" t="n">
-        <v>66942.0103275871</v>
+        <v>68826.5644353505</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1627,7 +1627,7 @@
         <v>4548</v>
       </c>
       <c r="I39" t="n">
-        <v>12319.2208699208</v>
+        <v>12291.4729831057</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1638,7 +1638,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>20552.5157480903</v>
+        <v>20532.3198370889</v>
       </c>
       <c r="C40" t="n">
         <v>9068.0307354836</v>
@@ -1659,7 +1659,7 @@
         <v>7299</v>
       </c>
       <c r="I40" t="n">
-        <v>13253.5157480903</v>
+        <v>13233.3198370889</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1670,7 +1670,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>27861.4841191716</v>
+        <v>27867.1707166316</v>
       </c>
       <c r="C41" t="n">
         <v>11750.5270156756</v>
@@ -1691,7 +1691,7 @@
         <v>7028</v>
       </c>
       <c r="I41" t="n">
-        <v>20833.4841191716</v>
+        <v>20839.1707166316</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1702,10 +1702,10 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>35684.4295037345</v>
+        <v>35701.3579121552</v>
       </c>
       <c r="C42" t="n">
-        <v>13171.3270967569</v>
+        <v>13048.548602695</v>
       </c>
       <c r="D42" t="n">
         <v>9871.7421132616</v>
@@ -1721,7 +1721,7 @@
         <v>8930</v>
       </c>
       <c r="I42" t="n">
-        <v>26754.4295037345</v>
+        <v>26771.3579121552</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1732,10 +1732,10 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>37721.6133285675</v>
+        <v>37749.011355913</v>
       </c>
       <c r="C43" t="n">
-        <v>14174.3822488968</v>
+        <v>14045.4937767376</v>
       </c>
       <c r="D43" t="n">
         <v>10065.7646230228</v>
@@ -1751,7 +1751,7 @@
         <v>10710</v>
       </c>
       <c r="I43" t="n">
-        <v>27011.6133285675</v>
+        <v>27039.011355913</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1762,7 +1762,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>31620.833960472</v>
+        <v>31639.2901838467</v>
       </c>
       <c r="C44" t="n">
         <v>12467.7367931876</v>
@@ -1783,7 +1783,7 @@
         <v>9280</v>
       </c>
       <c r="I44" t="n">
-        <v>22340.833960472</v>
+        <v>22359.2901838467</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -1794,7 +1794,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>21451.444042213</v>
+        <v>21378.5771325739</v>
       </c>
       <c r="C45" t="n">
         <v>9179.01862585911</v>
@@ -1815,7 +1815,7 @@
         <v>7919</v>
       </c>
       <c r="I45" t="n">
-        <v>13532.444042213</v>
+        <v>13459.5771325739</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1826,7 +1826,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>20252.8792895879</v>
+        <v>20143.478384449</v>
       </c>
       <c r="C46" t="n">
         <v>8644.97016497651</v>
@@ -1847,7 +1847,7 @@
         <v>10867</v>
       </c>
       <c r="I46" t="n">
-        <v>9385.87928958791</v>
+        <v>9276.47838444903</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -1858,7 +1858,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>21365.0965116512</v>
+        <v>21269.8883947069</v>
       </c>
       <c r="C47" t="n">
         <v>9049.71196455794</v>
@@ -1879,7 +1879,7 @@
         <v>8287</v>
       </c>
       <c r="I47" t="n">
-        <v>13078.0965116512</v>
+        <v>12982.8883947069</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -1890,7 +1890,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>25526.7923072146</v>
+        <v>25458.6812323659</v>
       </c>
       <c r="C48" t="n">
         <v>10543.7000165822</v>
@@ -1911,7 +1911,7 @@
         <v>7642</v>
       </c>
       <c r="I48" t="n">
-        <v>17884.7923072146</v>
+        <v>17816.6812323659</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -1922,7 +1922,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>27965.846441631</v>
+        <v>27919.9019948061</v>
       </c>
       <c r="C49" t="n">
         <v>11218.0042102211</v>
@@ -1943,7 +1943,7 @@
         <v>7092</v>
       </c>
       <c r="I49" t="n">
-        <v>20873.846441631</v>
+        <v>20827.9019948061</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>

--- a/outcome/appendix/forecast/Mumps.xlsx
+++ b/outcome/appendix/forecast/Mumps.xlsx
@@ -424,7 +424,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>24461.5359505928</v>
+        <v>24347.552189803</v>
       </c>
       <c r="C2" t="n">
         <v>18092.6444447926</v>
@@ -433,10 +433,10 @@
         <v>16064.1090125885</v>
       </c>
       <c r="E2" t="n">
-        <v>38965.3981072151</v>
+        <v>38428.3380984097</v>
       </c>
       <c r="F2" t="n">
-        <v>50045.3189749633</v>
+        <v>49477.1154040873</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -445,7 +445,7 @@
         <v>17159</v>
       </c>
       <c r="I2" t="n">
-        <v>7302.53595059279</v>
+        <v>7188.55218980305</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -456,7 +456,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>13751.7745901086</v>
+        <v>13839.0317173025</v>
       </c>
       <c r="C3" t="n">
         <v>10127.0551220868</v>
@@ -465,10 +465,10 @@
         <v>9011.79078507316</v>
       </c>
       <c r="E3" t="n">
-        <v>18937.4695818333</v>
+        <v>19364.7258809618</v>
       </c>
       <c r="F3" t="n">
-        <v>22084.6511996782</v>
+        <v>22908.0937606201</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -477,7 +477,7 @@
         <v>8018</v>
       </c>
       <c r="I3" t="n">
-        <v>5733.77459010856</v>
+        <v>5821.03171730247</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -488,13 +488,13 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>18538.4450769877</v>
+        <v>18577.2355528925</v>
       </c>
       <c r="C4" t="n">
-        <v>12694.6554253341</v>
+        <v>12746.4606840234</v>
       </c>
       <c r="D4" t="n">
-        <v>11441.6264016489</v>
+        <v>11484.3926173507</v>
       </c>
       <c r="E4" t="n">
         <v>28175.4522536776</v>
@@ -509,7 +509,7 @@
         <v>6028</v>
       </c>
       <c r="I4" t="n">
-        <v>12510.4450769877</v>
+        <v>12549.2355528925</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -520,13 +520,13 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>27188.5952362007</v>
+        <v>27272.6410621977</v>
       </c>
       <c r="C5" t="n">
-        <v>14987.1804181161</v>
+        <v>15185.4713442938</v>
       </c>
       <c r="D5" t="n">
-        <v>12780.4867374626</v>
+        <v>12954.1315694326</v>
       </c>
       <c r="E5" t="n">
         <v>51322.829529277</v>
@@ -541,7 +541,7 @@
         <v>6169</v>
       </c>
       <c r="I5" t="n">
-        <v>21019.5952362007</v>
+        <v>21103.6410621977</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -552,13 +552,13 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>36446.5684537737</v>
+        <v>36584.221322</v>
       </c>
       <c r="C6" t="n">
-        <v>17277.2105196283</v>
+        <v>17699.2445989261</v>
       </c>
       <c r="D6" t="n">
-        <v>14647.7331008109</v>
+        <v>15056.5705778674</v>
       </c>
       <c r="E6" t="n">
         <v>85572.486270753</v>
@@ -573,7 +573,7 @@
         <v>9273</v>
       </c>
       <c r="I6" t="n">
-        <v>27173.5684537737</v>
+        <v>27311.221322</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -584,13 +584,13 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>39424.2224833897</v>
+        <v>39548.414126807</v>
       </c>
       <c r="C7" t="n">
-        <v>19205.41845331</v>
+        <v>19614.0752033108</v>
       </c>
       <c r="D7" t="n">
-        <v>16018.2984224765</v>
+        <v>16467.2020840626</v>
       </c>
       <c r="E7" t="n">
         <v>99346.5360601493</v>
@@ -605,7 +605,7 @@
         <v>11995</v>
       </c>
       <c r="I7" t="n">
-        <v>27429.2224833897</v>
+        <v>27553.414126807</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -616,7 +616,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>33060.5906786407</v>
+        <v>33142.4250049916</v>
       </c>
       <c r="C8" t="n">
         <v>18361.3929195509</v>
@@ -637,7 +637,7 @@
         <v>9008</v>
       </c>
       <c r="I8" t="n">
-        <v>24052.5906786407</v>
+        <v>24134.4250049916</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -648,7 +648,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>21377.2861751258</v>
+        <v>21264.5395423215</v>
       </c>
       <c r="C9" t="n">
         <v>12476.3200255059</v>
@@ -657,7 +657,7 @@
         <v>10243.5898437275</v>
       </c>
       <c r="E9" t="n">
-        <v>36693.2319133197</v>
+        <v>35959.3246096087</v>
       </c>
       <c r="F9" t="n">
         <v>54087.2769181549</v>
@@ -669,7 +669,7 @@
         <v>9008</v>
       </c>
       <c r="I9" t="n">
-        <v>12369.2861751258</v>
+        <v>12256.5395423215</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -680,7 +680,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>19533.3406833496</v>
+        <v>19370.8312302146</v>
       </c>
       <c r="C10" t="n">
         <v>11497.1825722379</v>
@@ -689,7 +689,7 @@
         <v>9462.00447103951</v>
       </c>
       <c r="E10" t="n">
-        <v>34850.3596412676</v>
+        <v>33465.2966452422</v>
       </c>
       <c r="F10" t="n">
         <v>48433.1778172126</v>
@@ -701,7 +701,7 @@
         <v>13212</v>
       </c>
       <c r="I10" t="n">
-        <v>6321.3406833496</v>
+        <v>6158.8312302146</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -712,7 +712,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>20556.5407096913</v>
+        <v>20391.011023817</v>
       </c>
       <c r="C11" t="n">
         <v>12016.8271575328</v>
@@ -721,7 +721,7 @@
         <v>9789.67296951087</v>
       </c>
       <c r="E11" t="n">
-        <v>36765.7237617603</v>
+        <v>36248.1742821249</v>
       </c>
       <c r="F11" t="n">
         <v>57483.9294762837</v>
@@ -733,7 +733,7 @@
         <v>12818</v>
       </c>
       <c r="I11" t="n">
-        <v>7738.5407096913</v>
+        <v>7573.01102381703</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -744,7 +744,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>25092.9864667262</v>
+        <v>25024.494761348</v>
       </c>
       <c r="C12" t="n">
         <v>14261.7481346777</v>
@@ -765,7 +765,7 @@
         <v>15211</v>
       </c>
       <c r="I12" t="n">
-        <v>9881.9864667262</v>
+        <v>9813.49476134796</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -776,7 +776,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>27728.3048946825</v>
+        <v>27714.4555588177</v>
       </c>
       <c r="C13" t="n">
         <v>15218.7116627951</v>
@@ -797,7 +797,7 @@
         <v>11437</v>
       </c>
       <c r="I13" t="n">
-        <v>16291.3048946825</v>
+        <v>16277.4555588177</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -808,7 +808,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>24462.2257899274</v>
+        <v>24430.9046897231</v>
       </c>
       <c r="C14" t="n">
         <v>13137.1502140118</v>
@@ -829,7 +829,7 @@
         <v>7078</v>
       </c>
       <c r="I14" t="n">
-        <v>17384.2257899274</v>
+        <v>17352.9046897231</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -840,7 +840,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>13993.2920688145</v>
+        <v>14355.5802748744</v>
       </c>
       <c r="C15" t="n">
         <v>8260.56133907371</v>
@@ -849,10 +849,10 @@
         <v>6834.17978950791</v>
       </c>
       <c r="E15" t="n">
-        <v>28524.5981673961</v>
+        <v>28869.6716629208</v>
       </c>
       <c r="F15" t="n">
-        <v>35975.9047609483</v>
+        <v>36077.4978566217</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -861,7 +861,7 @@
         <v>4393</v>
       </c>
       <c r="I15" t="n">
-        <v>9600.29206881454</v>
+        <v>9962.58027487443</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -872,7 +872,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>18464.1487373481</v>
+        <v>18647.3132843542</v>
       </c>
       <c r="C16" t="n">
         <v>10809.4618368325</v>
@@ -893,7 +893,7 @@
         <v>9604</v>
       </c>
       <c r="I16" t="n">
-        <v>8860.14873734811</v>
+        <v>9043.31328435419</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -904,10 +904,10 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>26589.0912794963</v>
+        <v>26709.5397726338</v>
       </c>
       <c r="C17" t="n">
-        <v>13277.8648708032</v>
+        <v>13401.6625853645</v>
       </c>
       <c r="D17" t="n">
         <v>10967.6489943652</v>
@@ -925,7 +925,7 @@
         <v>11501</v>
       </c>
       <c r="I17" t="n">
-        <v>15088.0912794963</v>
+        <v>15208.5397726338</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -936,13 +936,13 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>35140.122205063</v>
+        <v>35319.7438386566</v>
       </c>
       <c r="C18" t="n">
-        <v>14944.719734274</v>
+        <v>14953.8505022459</v>
       </c>
       <c r="D18" t="n">
-        <v>12425.8685165999</v>
+        <v>12580.504151311</v>
       </c>
       <c r="E18" t="n">
         <v>144760.36601956</v>
@@ -957,7 +957,7 @@
         <v>11970</v>
       </c>
       <c r="I18" t="n">
-        <v>23170.122205063</v>
+        <v>23349.7438386566</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -968,10 +968,10 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>37768.5659482412</v>
+        <v>38004.4400644632</v>
       </c>
       <c r="C19" t="n">
-        <v>16211.8616118503</v>
+        <v>16392.4372659473</v>
       </c>
       <c r="D19" t="n">
         <v>13004.5100822935</v>
@@ -989,7 +989,7 @@
         <v>12015</v>
       </c>
       <c r="I19" t="n">
-        <v>25753.5659482412</v>
+        <v>25989.4400644632</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1000,7 +1000,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>31906.7614493348</v>
+        <v>32148.4224370966</v>
       </c>
       <c r="C20" t="n">
         <v>15023.7949732691</v>
@@ -1021,7 +1021,7 @@
         <v>9367</v>
       </c>
       <c r="I20" t="n">
-        <v>22539.7614493348</v>
+        <v>22781.4224370966</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1032,7 +1032,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>21499.1943208056</v>
+        <v>21596.3583123729</v>
       </c>
       <c r="C21" t="n">
         <v>10679.949749488</v>
@@ -1053,7 +1053,7 @@
         <v>8353</v>
       </c>
       <c r="I21" t="n">
-        <v>13146.1943208056</v>
+        <v>13243.3583123729</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1064,7 +1064,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>20100.8182111201</v>
+        <v>19988.2081279258</v>
       </c>
       <c r="C22" t="n">
         <v>9970.77061124087</v>
@@ -1073,7 +1073,7 @@
         <v>7857.72258165793</v>
       </c>
       <c r="E22" t="n">
-        <v>43268.4953080088</v>
+        <v>41928.3435571219</v>
       </c>
       <c r="F22" t="n">
         <v>78653.4080235126</v>
@@ -1085,7 +1085,7 @@
         <v>12606</v>
       </c>
       <c r="I22" t="n">
-        <v>7494.8182111201</v>
+        <v>7382.20812792579</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1096,7 +1096,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>21104.3450208666</v>
+        <v>20872.4639507214</v>
       </c>
       <c r="C23" t="n">
         <v>10444.3007627042</v>
@@ -1117,7 +1117,7 @@
         <v>11116</v>
       </c>
       <c r="I23" t="n">
-        <v>9988.34502086657</v>
+        <v>9756.46395072139</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1128,7 +1128,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>25260.6795519576</v>
+        <v>25101.1902110233</v>
       </c>
       <c r="C24" t="n">
         <v>12294.3409740703</v>
@@ -1149,7 +1149,7 @@
         <v>11881</v>
       </c>
       <c r="I24" t="n">
-        <v>13379.6795519576</v>
+        <v>13220.1902110233</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1160,7 +1160,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>27736.6424954553</v>
+        <v>27649.3606653986</v>
       </c>
       <c r="C25" t="n">
         <v>13115.6534975643</v>
@@ -1181,7 +1181,7 @@
         <v>10892</v>
       </c>
       <c r="I25" t="n">
-        <v>16844.6424954553</v>
+        <v>16757.3606653986</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1192,7 +1192,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>24496.9390469305</v>
+        <v>24443.5577867121</v>
       </c>
       <c r="C26" t="n">
         <v>11540.0256119915</v>
@@ -1213,7 +1213,7 @@
         <v>6570</v>
       </c>
       <c r="I26" t="n">
-        <v>17926.9390469305</v>
+        <v>17873.5577867121</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1224,7 +1224,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>15524.3032770952</v>
+        <v>15891.2056883325</v>
       </c>
       <c r="C27" t="n">
         <v>7508.31736126025</v>
@@ -1233,10 +1233,10 @@
         <v>6028.80690028605</v>
       </c>
       <c r="E27" t="n">
-        <v>38751.2723385486</v>
+        <v>38807.5107889808</v>
       </c>
       <c r="F27" t="n">
-        <v>53814.0992316784</v>
+        <v>53902.7970516696</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1245,7 +1245,7 @@
         <v>4491</v>
       </c>
       <c r="I27" t="n">
-        <v>11033.3032770952</v>
+        <v>11400.2056883325</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1256,7 +1256,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>19333.023764692</v>
+        <v>19563.5703859681</v>
       </c>
       <c r="C28" t="n">
         <v>9721.64643941573</v>
@@ -1277,7 +1277,7 @@
         <v>10001</v>
       </c>
       <c r="I28" t="n">
-        <v>9332.02376469202</v>
+        <v>9562.57038596812</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1288,7 +1288,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>26950.9089810644</v>
+        <v>27092.6545831058</v>
       </c>
       <c r="C29" t="n">
         <v>12712.2919542595</v>
@@ -1309,7 +1309,7 @@
         <v>9968</v>
       </c>
       <c r="I29" t="n">
-        <v>16982.9089810644</v>
+        <v>17124.6545831058</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1320,10 +1320,10 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>35088.2275010212</v>
+        <v>35228.5405928235</v>
       </c>
       <c r="C30" t="n">
-        <v>13576.3747642065</v>
+        <v>13626.6730379984</v>
       </c>
       <c r="D30" t="n">
         <v>10953.7595637456</v>
@@ -1341,7 +1341,7 @@
         <v>11151</v>
       </c>
       <c r="I30" t="n">
-        <v>23937.2275010212</v>
+        <v>24077.5405928235</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1352,10 +1352,10 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>37415.2258399519</v>
+        <v>37562.2105385546</v>
       </c>
       <c r="C31" t="n">
-        <v>14504.5921919688</v>
+        <v>14607.6140274331</v>
       </c>
       <c r="D31" t="n">
         <v>11155.8710716245</v>
@@ -1371,7 +1371,7 @@
         <v>11945</v>
       </c>
       <c r="I31" t="n">
-        <v>25470.2258399519</v>
+        <v>25617.2105385546</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1382,7 +1382,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>31418.0556653882</v>
+        <v>31643.8673616314</v>
       </c>
       <c r="C32" t="n">
         <v>13451.0581028725</v>
@@ -1403,7 +1403,7 @@
         <v>9391</v>
       </c>
       <c r="I32" t="n">
-        <v>22027.0556653882</v>
+        <v>22252.8673616314</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1414,7 +1414,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>21255.9454386756</v>
+        <v>21475.882692046</v>
       </c>
       <c r="C33" t="n">
         <v>9769.7192097405</v>
@@ -1435,7 +1435,7 @@
         <v>8472</v>
       </c>
       <c r="I33" t="n">
-        <v>12783.9454386756</v>
+        <v>13003.882692046</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1446,7 +1446,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>20062.3624705834</v>
+        <v>20187.8151125151</v>
       </c>
       <c r="C34" t="n">
         <v>9171.78565403236</v>
@@ -1467,7 +1467,7 @@
         <v>11041</v>
       </c>
       <c r="I34" t="n">
-        <v>9021.36247058342</v>
+        <v>9146.81511251513</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1478,7 +1478,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>21183.5275991687</v>
+        <v>21194.0072463916</v>
       </c>
       <c r="C35" t="n">
         <v>9606.48652750789</v>
@@ -1499,7 +1499,7 @@
         <v>9537</v>
       </c>
       <c r="I35" t="n">
-        <v>11646.5275991687</v>
+        <v>11657.0072463916</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1510,7 +1510,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>25365.3760418774</v>
+        <v>25327.5044214897</v>
       </c>
       <c r="C36" t="n">
         <v>11242.4952361484</v>
@@ -1531,7 +1531,7 @@
         <v>8702</v>
       </c>
       <c r="I36" t="n">
-        <v>16663.3760418774</v>
+        <v>16625.5044214897</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1542,7 +1542,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>27822.4130179549</v>
+        <v>27777.5702382675</v>
       </c>
       <c r="C37" t="n">
         <v>11977.8083646304</v>
@@ -1563,7 +1563,7 @@
         <v>3839</v>
       </c>
       <c r="I37" t="n">
-        <v>23983.4130179549</v>
+        <v>23938.5702382675</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1574,7 +1574,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>24597.4011873646</v>
+        <v>24555.4447332538</v>
       </c>
       <c r="C38" t="n">
         <v>10637.4505337609</v>
@@ -1595,7 +1595,7 @@
         <v>2370</v>
       </c>
       <c r="I38" t="n">
-        <v>22227.4011873646</v>
+        <v>22185.4447332538</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1606,7 +1606,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>16839.4729831057</v>
+        <v>16855.5089740382</v>
       </c>
       <c r="C39" t="n">
         <v>7056.72193509203</v>
@@ -1615,10 +1615,10 @@
         <v>5560.97404019948</v>
       </c>
       <c r="E39" t="n">
-        <v>44451.2432879007</v>
+        <v>43643.3795567264</v>
       </c>
       <c r="F39" t="n">
-        <v>68826.5644353505</v>
+        <v>66386.9801635944</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1627,7 +1627,7 @@
         <v>4548</v>
       </c>
       <c r="I39" t="n">
-        <v>12291.4729831057</v>
+        <v>12307.5089740382</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1638,7 +1638,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>20532.3198370889</v>
+        <v>20535.4855986722</v>
       </c>
       <c r="C40" t="n">
         <v>9068.0307354836</v>
@@ -1659,7 +1659,7 @@
         <v>7299</v>
       </c>
       <c r="I40" t="n">
-        <v>13233.3198370889</v>
+        <v>13236.4855986722</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1670,7 +1670,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>27867.1707166316</v>
+        <v>27837.4605580025</v>
       </c>
       <c r="C41" t="n">
         <v>11750.5270156756</v>
@@ -1691,7 +1691,7 @@
         <v>7028</v>
       </c>
       <c r="I41" t="n">
-        <v>20839.1707166316</v>
+        <v>20809.4605580025</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1702,10 +1702,10 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>35701.3579121552</v>
+        <v>35664.4888107044</v>
       </c>
       <c r="C42" t="n">
-        <v>13048.548602695</v>
+        <v>13099.5217503033</v>
       </c>
       <c r="D42" t="n">
         <v>9871.7421132616</v>
@@ -1721,7 +1721,7 @@
         <v>8930</v>
       </c>
       <c r="I42" t="n">
-        <v>26771.3579121552</v>
+        <v>26734.4888107044</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1732,10 +1732,10 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>37749.011355913</v>
+        <v>37714.8146309982</v>
       </c>
       <c r="C43" t="n">
-        <v>14045.4937767376</v>
+        <v>14056.6700929626</v>
       </c>
       <c r="D43" t="n">
         <v>10065.7646230228</v>
@@ -1751,7 +1751,7 @@
         <v>10710</v>
       </c>
       <c r="I43" t="n">
-        <v>27039.011355913</v>
+        <v>27004.8146309982</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1762,7 +1762,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>31639.2901838467</v>
+        <v>31630.0178162172</v>
       </c>
       <c r="C44" t="n">
         <v>12467.7367931876</v>
@@ -1783,7 +1783,7 @@
         <v>9280</v>
       </c>
       <c r="I44" t="n">
-        <v>22359.2901838467</v>
+        <v>22350.0178162172</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -1794,7 +1794,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>21378.5771325739</v>
+        <v>21468.5161484603</v>
       </c>
       <c r="C45" t="n">
         <v>9179.01862585911</v>
@@ -1815,7 +1815,7 @@
         <v>7919</v>
       </c>
       <c r="I45" t="n">
-        <v>13459.5771325739</v>
+        <v>13549.5161484603</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1826,7 +1826,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>20143.478384449</v>
+        <v>20265.3176770665</v>
       </c>
       <c r="C46" t="n">
         <v>8644.97016497651</v>
@@ -1847,7 +1847,7 @@
         <v>10867</v>
       </c>
       <c r="I46" t="n">
-        <v>9276.47838444903</v>
+        <v>9398.31767706646</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -1858,7 +1858,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>21269.8883947069</v>
+        <v>21364.4919331532</v>
       </c>
       <c r="C47" t="n">
         <v>9049.71196455794</v>
@@ -1879,7 +1879,7 @@
         <v>8287</v>
       </c>
       <c r="I47" t="n">
-        <v>12982.8883947069</v>
+        <v>13077.4919331532</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -1890,7 +1890,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>25458.6812323659</v>
+        <v>25512.5857104808</v>
       </c>
       <c r="C48" t="n">
         <v>10543.7000165822</v>
@@ -1911,7 +1911,7 @@
         <v>7642</v>
       </c>
       <c r="I48" t="n">
-        <v>17816.6812323659</v>
+        <v>17870.5857104808</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -1922,7 +1922,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>27919.9019948061</v>
+        <v>27940.4074223899</v>
       </c>
       <c r="C49" t="n">
         <v>11218.0042102211</v>
@@ -1943,7 +1943,7 @@
         <v>7092</v>
       </c>
       <c r="I49" t="n">
-        <v>20827.9019948061</v>
+        <v>20848.4074223899</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>

--- a/outcome/appendix/forecast/Mumps.xlsx
+++ b/outcome/appendix/forecast/Mumps.xlsx
@@ -424,19 +424,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>24347.552189803</v>
+        <v>24439.6672885928</v>
       </c>
       <c r="C2" t="n">
-        <v>18092.6444447926</v>
+        <v>18091.1239050391</v>
       </c>
       <c r="D2" t="n">
-        <v>16064.1090125885</v>
+        <v>16062.1722001229</v>
       </c>
       <c r="E2" t="n">
-        <v>38428.3380984097</v>
+        <v>38608.7021809928</v>
       </c>
       <c r="F2" t="n">
-        <v>49477.1154040873</v>
+        <v>49641.613503334</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -445,7 +445,7 @@
         <v>17159</v>
       </c>
       <c r="I2" t="n">
-        <v>7188.55218980305</v>
+        <v>7280.66728859278</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -456,19 +456,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>13839.0317173025</v>
+        <v>13740.459112629</v>
       </c>
       <c r="C3" t="n">
-        <v>10127.0551220868</v>
+        <v>10126.2009004512</v>
       </c>
       <c r="D3" t="n">
-        <v>9011.79078507316</v>
+        <v>9010.6729951763</v>
       </c>
       <c r="E3" t="n">
-        <v>19364.7258809618</v>
+        <v>18973.7629211933</v>
       </c>
       <c r="F3" t="n">
-        <v>22908.0937606201</v>
+        <v>22399.4081713581</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -477,7 +477,7 @@
         <v>8018</v>
       </c>
       <c r="I3" t="n">
-        <v>5821.03171730247</v>
+        <v>5722.45911262903</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -488,19 +488,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>18577.2355528925</v>
+        <v>18554.9638319971</v>
       </c>
       <c r="C4" t="n">
-        <v>12746.4606840234</v>
+        <v>12683.1504135749</v>
       </c>
       <c r="D4" t="n">
-        <v>11484.3926173507</v>
+        <v>11397.4816358455</v>
       </c>
       <c r="E4" t="n">
-        <v>28175.4522536776</v>
+        <v>28180.1901523421</v>
       </c>
       <c r="F4" t="n">
-        <v>36616.1729568499</v>
+        <v>36627.0906854162</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -509,7 +509,7 @@
         <v>6028</v>
       </c>
       <c r="I4" t="n">
-        <v>12549.2355528925</v>
+        <v>12526.9638319971</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -520,19 +520,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>27272.6410621977</v>
+        <v>26941.8148114831</v>
       </c>
       <c r="C5" t="n">
-        <v>15185.4713442938</v>
+        <v>15078.1833895597</v>
       </c>
       <c r="D5" t="n">
-        <v>12954.1315694326</v>
+        <v>12849.0228645058</v>
       </c>
       <c r="E5" t="n">
-        <v>51322.829529277</v>
+        <v>51336.1758314396</v>
       </c>
       <c r="F5" t="n">
-        <v>78189.2570419258</v>
+        <v>78229.417274297</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -541,7 +541,7 @@
         <v>6169</v>
       </c>
       <c r="I5" t="n">
-        <v>21103.6410621977</v>
+        <v>20772.8148114831</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -552,19 +552,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>36584.221322</v>
+        <v>36056.85382885</v>
       </c>
       <c r="C6" t="n">
-        <v>17699.2445989261</v>
+        <v>17528.7691239096</v>
       </c>
       <c r="D6" t="n">
-        <v>15056.5705778674</v>
+        <v>14929.9665738082</v>
       </c>
       <c r="E6" t="n">
-        <v>85572.486270753</v>
+        <v>85605.5185522327</v>
       </c>
       <c r="F6" t="n">
-        <v>162316.82901376</v>
+        <v>162458.928911775</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -573,7 +573,7 @@
         <v>9273</v>
       </c>
       <c r="I6" t="n">
-        <v>27311.221322</v>
+        <v>26783.85382885</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -584,19 +584,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>39548.414126807</v>
+        <v>39268.6793466132</v>
       </c>
       <c r="C7" t="n">
-        <v>19614.0752033108</v>
+        <v>19338.710941668</v>
       </c>
       <c r="D7" t="n">
-        <v>16467.2020840626</v>
+        <v>16219.1212673796</v>
       </c>
       <c r="E7" t="n">
-        <v>99346.5360601493</v>
+        <v>99391.1950635432</v>
       </c>
       <c r="F7" t="n">
-        <v>212763.578627427</v>
+        <v>212997.251970961</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -605,7 +605,7 @@
         <v>11995</v>
       </c>
       <c r="I7" t="n">
-        <v>27553.414126807</v>
+        <v>27273.6793466132</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -616,19 +616,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>33142.4250049916</v>
+        <v>33031.9728716386</v>
       </c>
       <c r="C8" t="n">
-        <v>18361.3929195509</v>
+        <v>18358.244830615</v>
       </c>
       <c r="D8" t="n">
-        <v>14538.9572520925</v>
+        <v>14535.6089566466</v>
       </c>
       <c r="E8" t="n">
-        <v>70629.9011778482</v>
+        <v>70656.4921983916</v>
       </c>
       <c r="F8" t="n">
-        <v>133519.421938486</v>
+        <v>133633.014658579</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -637,7 +637,7 @@
         <v>9008</v>
       </c>
       <c r="I8" t="n">
-        <v>24134.4250049916</v>
+        <v>24023.9728716386</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -648,19 +648,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>21264.5395423215</v>
+        <v>21356.8818655199</v>
       </c>
       <c r="C9" t="n">
-        <v>12476.3200255059</v>
+        <v>12474.5104703566</v>
       </c>
       <c r="D9" t="n">
-        <v>10243.5898437275</v>
+        <v>10241.5269354364</v>
       </c>
       <c r="E9" t="n">
-        <v>35959.3246096087</v>
+        <v>36178.2047452295</v>
       </c>
       <c r="F9" t="n">
-        <v>54087.2769181549</v>
+        <v>54114.6235287647</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -669,7 +669,7 @@
         <v>9008</v>
       </c>
       <c r="I9" t="n">
-        <v>12256.5395423215</v>
+        <v>12348.8818655199</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -680,19 +680,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>19370.8312302146</v>
+        <v>19403.5246553155</v>
       </c>
       <c r="C10" t="n">
-        <v>11497.1825722379</v>
+        <v>11495.5299082462</v>
       </c>
       <c r="D10" t="n">
-        <v>9462.00447103951</v>
+        <v>9460.10523271231</v>
       </c>
       <c r="E10" t="n">
-        <v>33465.2966452422</v>
+        <v>33869.7245136907</v>
       </c>
       <c r="F10" t="n">
-        <v>48433.1778172126</v>
+        <v>48456.9583054019</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -701,7 +701,7 @@
         <v>13212</v>
       </c>
       <c r="I10" t="n">
-        <v>6158.8312302146</v>
+        <v>6191.52465531546</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -712,19 +712,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>20391.011023817</v>
+        <v>20472.8898395232</v>
       </c>
       <c r="C11" t="n">
-        <v>12016.8271575328</v>
+        <v>12015.0141690174</v>
       </c>
       <c r="D11" t="n">
-        <v>9789.67296951087</v>
+        <v>9787.62446407898</v>
       </c>
       <c r="E11" t="n">
-        <v>36248.1742821249</v>
+        <v>36258.2926014884</v>
       </c>
       <c r="F11" t="n">
-        <v>57483.9294762837</v>
+        <v>57516.065160859</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -733,7 +733,7 @@
         <v>12818</v>
       </c>
       <c r="I11" t="n">
-        <v>7573.01102381703</v>
+        <v>7654.88983952322</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -744,19 +744,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>25024.494761348</v>
+        <v>25249.899379513</v>
       </c>
       <c r="C12" t="n">
-        <v>14261.7481346777</v>
+        <v>14259.3488983343</v>
       </c>
       <c r="D12" t="n">
-        <v>11332.8616313409</v>
+        <v>11330.2681802959</v>
       </c>
       <c r="E12" t="n">
-        <v>53110.407583103</v>
+        <v>53129.4662219574</v>
       </c>
       <c r="F12" t="n">
-        <v>97831.041966233</v>
+        <v>97908.5611090829</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -765,7 +765,7 @@
         <v>15211</v>
       </c>
       <c r="I12" t="n">
-        <v>9813.49476134796</v>
+        <v>10038.899379513</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -776,19 +776,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>27714.4555588177</v>
+        <v>27694.6236027077</v>
       </c>
       <c r="C13" t="n">
-        <v>15218.7116627951</v>
+        <v>15215.9983567237</v>
       </c>
       <c r="D13" t="n">
-        <v>11937.9202762655</v>
+        <v>11935.0542031028</v>
       </c>
       <c r="E13" t="n">
-        <v>64000.9791945106</v>
+        <v>64027.2371990193</v>
       </c>
       <c r="F13" t="n">
-        <v>130538.736970927</v>
+        <v>130664.979781874</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -797,7 +797,7 @@
         <v>11437</v>
       </c>
       <c r="I13" t="n">
-        <v>16277.4555588177</v>
+        <v>16257.6236027077</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -808,19 +808,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>24430.9046897231</v>
+        <v>24551.6432865107</v>
       </c>
       <c r="C14" t="n">
-        <v>13137.1502140118</v>
+        <v>13134.8799652293</v>
       </c>
       <c r="D14" t="n">
-        <v>10392.3495618819</v>
+        <v>10389.9059550861</v>
       </c>
       <c r="E14" t="n">
-        <v>50983.4688284639</v>
+        <v>51002.5150884474</v>
       </c>
       <c r="F14" t="n">
-        <v>97079.2172903469</v>
+        <v>97160.8492276825</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -829,7 +829,7 @@
         <v>7078</v>
       </c>
       <c r="I14" t="n">
-        <v>17352.9046897231</v>
+        <v>17473.6432865107</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -840,19 +840,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>14355.5802748744</v>
+        <v>14104.395307736</v>
       </c>
       <c r="C15" t="n">
-        <v>8260.56133907371</v>
+        <v>8259.35535766899</v>
       </c>
       <c r="D15" t="n">
-        <v>6834.17978950791</v>
+        <v>6832.75935752864</v>
       </c>
       <c r="E15" t="n">
-        <v>28869.6716629208</v>
+        <v>28337.4837049205</v>
       </c>
       <c r="F15" t="n">
-        <v>36077.4978566217</v>
+        <v>35330.5331349237</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -861,7 +861,7 @@
         <v>4393</v>
       </c>
       <c r="I15" t="n">
-        <v>9962.58027487443</v>
+        <v>9711.39530773602</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -872,19 +872,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>18647.3132843542</v>
+        <v>18562.5177260475</v>
       </c>
       <c r="C16" t="n">
-        <v>10809.4618368325</v>
+        <v>10807.6462751344</v>
       </c>
       <c r="D16" t="n">
-        <v>8634.35082245612</v>
+        <v>8632.35001542837</v>
       </c>
       <c r="E16" t="n">
-        <v>38429.041374888</v>
+        <v>38442.0431268953</v>
       </c>
       <c r="F16" t="n">
-        <v>68307.1148253773</v>
+        <v>68356.6434749537</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -893,7 +893,7 @@
         <v>9604</v>
       </c>
       <c r="I16" t="n">
-        <v>9043.31328435419</v>
+        <v>8958.51772604754</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -904,19 +904,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>26709.5397726338</v>
+        <v>26385.4024559235</v>
       </c>
       <c r="C17" t="n">
-        <v>13401.6625853645</v>
+        <v>13350.7918586017</v>
       </c>
       <c r="D17" t="n">
-        <v>10967.6489943652</v>
+        <v>10964.7569946519</v>
       </c>
       <c r="E17" t="n">
-        <v>77409.6847962813</v>
+        <v>77450.4595190176</v>
       </c>
       <c r="F17" t="n">
-        <v>204574.331919665</v>
+        <v>204871.98219584</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -925,7 +925,7 @@
         <v>11501</v>
       </c>
       <c r="I17" t="n">
-        <v>15208.5397726338</v>
+        <v>14884.4024559235</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -936,19 +936,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>35319.7438386566</v>
+        <v>34888.1405765548</v>
       </c>
       <c r="C18" t="n">
-        <v>14953.8505022459</v>
+        <v>14894.0014264562</v>
       </c>
       <c r="D18" t="n">
-        <v>12580.504151311</v>
+        <v>12577.9545517513</v>
       </c>
       <c r="E18" t="n">
-        <v>144760.36601956</v>
+        <v>144876.207824655</v>
       </c>
       <c r="F18" t="n">
-        <v>784280.335714287</v>
+        <v>786962.458026126</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -957,7 +957,7 @@
         <v>11970</v>
       </c>
       <c r="I18" t="n">
-        <v>23349.7438386566</v>
+        <v>22918.1405765548</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -968,19 +968,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>38004.4400644632</v>
+        <v>37800.6308493109</v>
       </c>
       <c r="C19" t="n">
-        <v>16392.4372659473</v>
+        <v>16273.6973052423</v>
       </c>
       <c r="D19" t="n">
-        <v>13004.5100822935</v>
+        <v>13000.6194819844</v>
       </c>
       <c r="E19" t="n">
-        <v>170140.26096436</v>
+        <v>170294.005309041</v>
       </c>
       <c r="F19" t="n">
-        <v>1326592.74400589</v>
+        <v>1332956.94938632</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -989,7 +989,7 @@
         <v>12015</v>
       </c>
       <c r="I19" t="n">
-        <v>25989.4400644632</v>
+        <v>25785.6308493109</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1000,19 +1000,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>32148.4224370966</v>
+        <v>32030.8937476657</v>
       </c>
       <c r="C20" t="n">
-        <v>15023.7949732691</v>
+        <v>15020.5628661693</v>
       </c>
       <c r="D20" t="n">
-        <v>11264.2386707641</v>
+        <v>11261.0554723642</v>
       </c>
       <c r="E20" t="n">
-        <v>105803.715516489</v>
+        <v>105875.277223692</v>
       </c>
       <c r="F20" t="n">
-        <v>407807.8781868</v>
+        <v>408767.440529307</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1021,7 +1021,7 @@
         <v>9367</v>
       </c>
       <c r="I20" t="n">
-        <v>22781.4224370966</v>
+        <v>22663.8937476657</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1032,19 +1032,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>21596.3583123729</v>
+        <v>21671.9440210482</v>
       </c>
       <c r="C21" t="n">
-        <v>10679.949749488</v>
+        <v>10677.9838973114</v>
       </c>
       <c r="D21" t="n">
-        <v>8367.54106770514</v>
+        <v>8365.43764494222</v>
       </c>
       <c r="E21" t="n">
-        <v>45446.1659687599</v>
+        <v>45464.7351532438</v>
       </c>
       <c r="F21" t="n">
-        <v>93680.5701011239</v>
+        <v>93770.6030332846</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1053,7 +1053,7 @@
         <v>8353</v>
       </c>
       <c r="I21" t="n">
-        <v>13243.3583123729</v>
+        <v>13318.9440210482</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1064,19 +1064,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>19988.2081279258</v>
+        <v>20047.4285373099</v>
       </c>
       <c r="C22" t="n">
-        <v>9970.77061124087</v>
+        <v>9968.97069923128</v>
       </c>
       <c r="D22" t="n">
-        <v>7857.72258165793</v>
+        <v>7855.77152313721</v>
       </c>
       <c r="E22" t="n">
-        <v>41928.3435571219</v>
+        <v>42208.1794012393</v>
       </c>
       <c r="F22" t="n">
-        <v>78653.4080235126</v>
+        <v>78722.429387491</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1085,7 +1085,7 @@
         <v>12606</v>
       </c>
       <c r="I22" t="n">
-        <v>7382.20812792579</v>
+        <v>7441.42853730985</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1096,19 +1096,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>20872.4639507214</v>
+        <v>21004.2810292484</v>
       </c>
       <c r="C23" t="n">
-        <v>10444.3007627042</v>
+        <v>10442.3567233538</v>
       </c>
       <c r="D23" t="n">
-        <v>8160.77049170153</v>
+        <v>8158.69422179453</v>
       </c>
       <c r="E23" t="n">
-        <v>45654.7011302902</v>
+        <v>45673.9263020198</v>
       </c>
       <c r="F23" t="n">
-        <v>96461.0129059844</v>
+        <v>96557.850720677</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1117,7 +1117,7 @@
         <v>11116</v>
       </c>
       <c r="I23" t="n">
-        <v>9756.46395072139</v>
+        <v>9888.28102924842</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1128,19 +1128,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>25101.1902110233</v>
+        <v>25393.3269511905</v>
       </c>
       <c r="C24" t="n">
-        <v>12294.3409740703</v>
+        <v>12291.8493966389</v>
       </c>
       <c r="D24" t="n">
-        <v>9371.9704661369</v>
+        <v>9369.42609069086</v>
       </c>
       <c r="E24" t="n">
-        <v>70275.9111734472</v>
+        <v>70314.6801612022</v>
       </c>
       <c r="F24" t="n">
-        <v>198948.716701351</v>
+        <v>199263.447026036</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1149,7 +1149,7 @@
         <v>11881</v>
       </c>
       <c r="I24" t="n">
-        <v>13220.1902110233</v>
+        <v>13512.3269511905</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1160,19 +1160,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>27649.3606653986</v>
+        <v>27696.8504630185</v>
       </c>
       <c r="C25" t="n">
-        <v>13115.6534975643</v>
+        <v>13112.8781355378</v>
       </c>
       <c r="D25" t="n">
-        <v>9881.20624119592</v>
+        <v>9878.43250930082</v>
       </c>
       <c r="E25" t="n">
-        <v>86677.9370595022</v>
+        <v>86732.7962600107</v>
       </c>
       <c r="F25" t="n">
-        <v>301139.429418119</v>
+        <v>301759.889690491</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1181,7 +1181,7 @@
         <v>10892</v>
       </c>
       <c r="I25" t="n">
-        <v>16757.3606653986</v>
+        <v>16804.8504630185</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1192,19 +1192,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>24443.5577867121</v>
+        <v>24618.2380905414</v>
       </c>
       <c r="C26" t="n">
-        <v>11540.0256119915</v>
+        <v>11537.6804890461</v>
       </c>
       <c r="D26" t="n">
-        <v>8805.34450149898</v>
+        <v>8802.93982790736</v>
       </c>
       <c r="E26" t="n">
-        <v>65228.3281239177</v>
+        <v>65263.7675537245</v>
       </c>
       <c r="F26" t="n">
-        <v>182048.466191134</v>
+        <v>182329.311082085</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1213,7 +1213,7 @@
         <v>6570</v>
       </c>
       <c r="I26" t="n">
-        <v>17873.5577867121</v>
+        <v>18048.2380905414</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1224,19 +1224,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>15891.2056883325</v>
+        <v>15724.5437929226</v>
       </c>
       <c r="C27" t="n">
-        <v>7508.31736126025</v>
+        <v>7507.01195907828</v>
       </c>
       <c r="D27" t="n">
-        <v>6028.80690028605</v>
+        <v>6027.32860129222</v>
       </c>
       <c r="E27" t="n">
-        <v>38807.5107889808</v>
+        <v>38843.351357276</v>
       </c>
       <c r="F27" t="n">
-        <v>53902.7970516696</v>
+        <v>53492.7051130651</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1245,7 +1245,7 @@
         <v>4491</v>
       </c>
       <c r="I27" t="n">
-        <v>11400.2056883325</v>
+        <v>11233.5437929226</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1256,19 +1256,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>19563.5703859681</v>
+        <v>19490.7864722083</v>
       </c>
       <c r="C28" t="n">
-        <v>9721.64643941573</v>
+        <v>9719.75424080279</v>
       </c>
       <c r="D28" t="n">
-        <v>7532.42889657479</v>
+        <v>7530.42530997273</v>
       </c>
       <c r="E28" t="n">
-        <v>46337.0817407808</v>
+        <v>46358.3537205966</v>
       </c>
       <c r="F28" t="n">
-        <v>106540.972871357</v>
+        <v>106663.524251627</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1277,7 +1277,7 @@
         <v>10001</v>
       </c>
       <c r="I28" t="n">
-        <v>9562.57038596812</v>
+        <v>9489.78647220834</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1288,19 +1288,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>27092.6545831058</v>
+        <v>26789.4118180734</v>
       </c>
       <c r="C29" t="n">
-        <v>12712.2919542595</v>
+        <v>12709.4475164504</v>
       </c>
       <c r="D29" t="n">
-        <v>9443.73149082119</v>
+        <v>9440.9456691786</v>
       </c>
       <c r="E29" t="n">
-        <v>101802.918866599</v>
+        <v>101879.128699696</v>
       </c>
       <c r="F29" t="n">
-        <v>501086.199143087</v>
+        <v>502592.989328494</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1309,7 +1309,7 @@
         <v>9968</v>
       </c>
       <c r="I29" t="n">
-        <v>17124.6545831058</v>
+        <v>16821.4118180734</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1320,19 +1320,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>35228.5405928235</v>
+        <v>34852.4221908013</v>
       </c>
       <c r="C30" t="n">
-        <v>13626.6730379984</v>
+        <v>13576.7223537599</v>
       </c>
       <c r="D30" t="n">
-        <v>10953.7595637456</v>
+        <v>10950.252109635</v>
       </c>
       <c r="E30" t="n">
-        <v>213581.550704587</v>
+        <v>213839.877154661</v>
       </c>
       <c r="F30" t="n">
-        <v>16359485.2534034</v>
+        <v>16762461.7148595</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1341,7 +1341,7 @@
         <v>11151</v>
       </c>
       <c r="I30" t="n">
-        <v>24077.5405928235</v>
+        <v>23701.4221908013</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1352,16 +1352,16 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>37562.2105385546</v>
+        <v>37466.0976911364</v>
       </c>
       <c r="C31" t="n">
-        <v>14607.6140274331</v>
+        <v>14593.3046344843</v>
       </c>
       <c r="D31" t="n">
-        <v>11155.8710716245</v>
+        <v>11152.2282221675</v>
       </c>
       <c r="E31" t="n">
-        <v>257915.352400381</v>
+        <v>258270.509781315</v>
       </c>
       <c r="F31"/>
       <c r="G31" t="s">
@@ -1371,7 +1371,7 @@
         <v>11945</v>
       </c>
       <c r="I31" t="n">
-        <v>25617.2105385546</v>
+        <v>25521.0976911364</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1382,19 +1382,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>31643.8673616314</v>
+        <v>31621.2666834472</v>
       </c>
       <c r="C32" t="n">
-        <v>13451.0581028725</v>
+        <v>13447.8563547568</v>
       </c>
       <c r="D32" t="n">
-        <v>9815.74249004666</v>
+        <v>9812.70085385008</v>
       </c>
       <c r="E32" t="n">
-        <v>142737.452832718</v>
+        <v>142873.547219104</v>
       </c>
       <c r="F32" t="n">
-        <v>1568757.08979897</v>
+        <v>1578469.39114866</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1403,7 +1403,7 @@
         <v>9391</v>
       </c>
       <c r="I32" t="n">
-        <v>22252.8673616314</v>
+        <v>22230.2666834472</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1414,19 +1414,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>21475.882692046</v>
+        <v>21583.9451636206</v>
       </c>
       <c r="C33" t="n">
-        <v>9769.7192097405</v>
+        <v>9767.70628606055</v>
       </c>
       <c r="D33" t="n">
-        <v>7467.33638734917</v>
+        <v>7465.24997309021</v>
       </c>
       <c r="E33" t="n">
-        <v>54129.9610327774</v>
+        <v>54158.5919022168</v>
       </c>
       <c r="F33" t="n">
-        <v>147365.301158339</v>
+        <v>147582.314279429</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1435,7 +1435,7 @@
         <v>8472</v>
       </c>
       <c r="I33" t="n">
-        <v>13003.882692046</v>
+        <v>13111.9451636206</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1446,19 +1446,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>20187.8151125151</v>
+        <v>20237.1382146202</v>
       </c>
       <c r="C34" t="n">
-        <v>9171.78565403236</v>
+        <v>9169.93417349087</v>
       </c>
       <c r="D34" t="n">
-        <v>7059.10341693668</v>
+        <v>7057.15631692045</v>
       </c>
       <c r="E34" t="n">
-        <v>46983.6527069077</v>
+        <v>47006.7496561411</v>
       </c>
       <c r="F34" t="n">
-        <v>116686.728183286</v>
+        <v>116837.195404079</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1467,7 +1467,7 @@
         <v>11041</v>
       </c>
       <c r="I34" t="n">
-        <v>9146.81511251513</v>
+        <v>9196.13821462015</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1478,19 +1478,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>21194.0072463916</v>
+        <v>21307.7679388817</v>
       </c>
       <c r="C35" t="n">
-        <v>9606.48652750789</v>
+        <v>9604.49835867326</v>
       </c>
       <c r="D35" t="n">
-        <v>7333.66015901523</v>
+        <v>7331.59919189313</v>
       </c>
       <c r="E35" t="n">
-        <v>53983.0921565507</v>
+        <v>54012.0876205841</v>
       </c>
       <c r="F35" t="n">
-        <v>149562.981953177</v>
+        <v>149788.717936947</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1499,7 +1499,7 @@
         <v>9537</v>
       </c>
       <c r="I35" t="n">
-        <v>11657.0072463916</v>
+        <v>11770.7679388817</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1510,19 +1510,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>25327.5044214897</v>
+        <v>25633.9416803228</v>
       </c>
       <c r="C36" t="n">
-        <v>11242.4952361484</v>
+        <v>11239.9872565377</v>
       </c>
       <c r="D36" t="n">
-        <v>8372.3027586585</v>
+        <v>8369.81842683625</v>
       </c>
       <c r="E36" t="n">
-        <v>86926.8699168645</v>
+        <v>86989.5976347442</v>
       </c>
       <c r="F36" t="n">
-        <v>398123.535739444</v>
+        <v>399224.404613528</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1531,7 +1531,7 @@
         <v>8702</v>
       </c>
       <c r="I36" t="n">
-        <v>16625.5044214897</v>
+        <v>16931.9416803228</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1542,19 +1542,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>27777.5702382675</v>
+        <v>27864.7657969719</v>
       </c>
       <c r="C37" t="n">
-        <v>11977.8083646304</v>
+        <v>11975.0342984849</v>
       </c>
       <c r="D37" t="n">
-        <v>8818.45092969726</v>
+        <v>8815.76077785729</v>
       </c>
       <c r="E37" t="n">
-        <v>109874.495487765</v>
+        <v>109966.568903262</v>
       </c>
       <c r="F37" t="n">
-        <v>750114.098746211</v>
+        <v>753180.597073201</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1563,7 +1563,7 @@
         <v>3839</v>
       </c>
       <c r="I37" t="n">
-        <v>23938.5702382675</v>
+        <v>24025.7657969719</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1574,19 +1574,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>24555.4447332538</v>
+        <v>24779.5492283165</v>
       </c>
       <c r="C38" t="n">
-        <v>10637.4505337609</v>
+        <v>10635.0863447836</v>
       </c>
       <c r="D38" t="n">
-        <v>7944.17766137293</v>
+        <v>7941.81946106276</v>
       </c>
       <c r="E38" t="n">
-        <v>79047.1785623351</v>
+        <v>79102.0350552418</v>
       </c>
       <c r="F38" t="n">
-        <v>335373.600946635</v>
+        <v>336224.322393716</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1595,7 +1595,7 @@
         <v>2370</v>
       </c>
       <c r="I38" t="n">
-        <v>22185.4447332538</v>
+        <v>22409.5492283165</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1606,19 +1606,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>16855.5089740382</v>
+        <v>16883.1234436459</v>
       </c>
       <c r="C39" t="n">
-        <v>7056.72193509203</v>
+        <v>7055.36525066547</v>
       </c>
       <c r="D39" t="n">
-        <v>5560.97404019948</v>
+        <v>5559.47338237893</v>
       </c>
       <c r="E39" t="n">
-        <v>43643.3795567264</v>
+        <v>42969.5320728001</v>
       </c>
       <c r="F39" t="n">
-        <v>66386.9801635944</v>
+        <v>65671.3677299789</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1627,7 +1627,7 @@
         <v>4548</v>
       </c>
       <c r="I39" t="n">
-        <v>12307.5089740382</v>
+        <v>12335.1234436459</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1638,19 +1638,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>20535.4855986722</v>
+        <v>20594.841453116</v>
       </c>
       <c r="C40" t="n">
-        <v>9068.0307354836</v>
+        <v>9066.10525452091</v>
       </c>
       <c r="D40" t="n">
-        <v>6892.01922384713</v>
+        <v>6890.02924391816</v>
       </c>
       <c r="E40" t="n">
-        <v>53708.3659996454</v>
+        <v>53738.6326581954</v>
       </c>
       <c r="F40" t="n">
-        <v>159280.895330545</v>
+        <v>159543.307260572</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1659,7 +1659,7 @@
         <v>7299</v>
       </c>
       <c r="I40" t="n">
-        <v>13236.4855986722</v>
+        <v>13295.841453116</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1670,19 +1670,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>27837.4605580025</v>
+        <v>27631.4907914789</v>
       </c>
       <c r="C41" t="n">
-        <v>11750.5270156756</v>
+        <v>11747.6965256173</v>
       </c>
       <c r="D41" t="n">
-        <v>8561.10861979221</v>
+        <v>8558.40485236437</v>
       </c>
       <c r="E41" t="n">
-        <v>128191.894406851</v>
+        <v>128315.629261129</v>
       </c>
       <c r="F41" t="n">
-        <v>1576712.52983547</v>
+        <v>1587247.62083974</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1691,7 +1691,7 @@
         <v>7028</v>
       </c>
       <c r="I41" t="n">
-        <v>20809.4605580025</v>
+        <v>20603.4907914789</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1702,16 +1702,16 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>35664.4888107044</v>
+        <v>35383.2874480466</v>
       </c>
       <c r="C42" t="n">
-        <v>13099.5217503033</v>
+        <v>13101.5104695396</v>
       </c>
       <c r="D42" t="n">
-        <v>9871.7421132616</v>
+        <v>9868.39099819236</v>
       </c>
       <c r="E42" t="n">
-        <v>304737.9060616</v>
+        <v>305248.910415218</v>
       </c>
       <c r="F42"/>
       <c r="G42" t="s">
@@ -1721,7 +1721,7 @@
         <v>8930</v>
       </c>
       <c r="I42" t="n">
-        <v>26734.4888107044</v>
+        <v>26453.2874480466</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1732,16 +1732,16 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>37714.8146309982</v>
+        <v>37723.7609797733</v>
       </c>
       <c r="C43" t="n">
-        <v>14056.6700929626</v>
+        <v>13996.7207980995</v>
       </c>
       <c r="D43" t="n">
-        <v>10065.7646230228</v>
+        <v>10062.2905895777</v>
       </c>
       <c r="E43" t="n">
-        <v>381774.30677831</v>
+        <v>382516.990947419</v>
       </c>
       <c r="F43"/>
       <c r="G43" t="s">
@@ -1751,7 +1751,7 @@
         <v>10710</v>
       </c>
       <c r="I43" t="n">
-        <v>27004.8146309982</v>
+        <v>27013.7609797733</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1762,19 +1762,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>31630.0178162172</v>
+        <v>31711.274921375</v>
       </c>
       <c r="C44" t="n">
-        <v>12467.7367931876</v>
+        <v>12464.5712777754</v>
       </c>
       <c r="D44" t="n">
-        <v>8935.51477818504</v>
+        <v>8932.57640561124</v>
       </c>
       <c r="E44" t="n">
-        <v>186373.0121838</v>
+        <v>186605.09337498</v>
       </c>
       <c r="F44" t="n">
-        <v>50020335.8877109</v>
+        <v>52679344.624584</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1783,7 +1783,7 @@
         <v>9280</v>
       </c>
       <c r="I44" t="n">
-        <v>22350.0178162172</v>
+        <v>22431.274921375</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -1794,19 +1794,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>21468.5161484603</v>
+        <v>21653.6797503754</v>
       </c>
       <c r="C45" t="n">
-        <v>9179.01862585911</v>
+        <v>9176.98344672615</v>
       </c>
       <c r="D45" t="n">
-        <v>6897.90788602894</v>
+        <v>6895.84236957436</v>
       </c>
       <c r="E45" t="n">
-        <v>63919.1728340493</v>
+        <v>63943.1900691776</v>
       </c>
       <c r="F45" t="n">
-        <v>229599.249780612</v>
+        <v>230087.973282151</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1815,7 +1815,7 @@
         <v>7919</v>
       </c>
       <c r="I45" t="n">
-        <v>13549.5161484603</v>
+        <v>13734.6797503754</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1826,19 +1826,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>20265.3176770665</v>
+        <v>20358.4675873825</v>
       </c>
       <c r="C46" t="n">
-        <v>8644.97016497651</v>
+        <v>8643.09148690269</v>
       </c>
       <c r="D46" t="n">
-        <v>6545.13132889716</v>
+        <v>6543.19546185617</v>
       </c>
       <c r="E46" t="n">
-        <v>54311.8167472474</v>
+        <v>54330.5459047604</v>
       </c>
       <c r="F46" t="n">
-        <v>169977.877149992</v>
+        <v>170281.260285004</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1847,7 +1847,7 @@
         <v>10867</v>
       </c>
       <c r="I46" t="n">
-        <v>9398.31767706646</v>
+        <v>9491.46758738245</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -1858,19 +1858,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>21364.4919331532</v>
+        <v>21499.9304203366</v>
       </c>
       <c r="C47" t="n">
-        <v>9049.71196455794</v>
+        <v>9047.70157383157</v>
       </c>
       <c r="D47" t="n">
-        <v>6796.88360948686</v>
+        <v>6794.84142412619</v>
       </c>
       <c r="E47" t="n">
-        <v>62276.8414355117</v>
+        <v>62316.988019727</v>
       </c>
       <c r="F47" t="n">
-        <v>230886.443318587</v>
+        <v>231385.140959133</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1879,7 +1879,7 @@
         <v>8287</v>
       </c>
       <c r="I47" t="n">
-        <v>13077.4919331532</v>
+        <v>13212.9304203366</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -1890,19 +1890,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>25512.5857104808</v>
+        <v>25843.3115939083</v>
       </c>
       <c r="C48" t="n">
-        <v>10543.7000165822</v>
+        <v>10541.1906008834</v>
       </c>
       <c r="D48" t="n">
-        <v>7723.84449605286</v>
+        <v>7721.4097923459</v>
       </c>
       <c r="E48" t="n">
-        <v>104852.099658736</v>
+        <v>104945.366988116</v>
       </c>
       <c r="F48" t="n">
-        <v>912797.371528228</v>
+        <v>917360.989737201</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1911,7 +1911,7 @@
         <v>7642</v>
       </c>
       <c r="I48" t="n">
-        <v>17870.5857104808</v>
+        <v>18201.3115939083</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -1922,19 +1922,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>27940.4074223899</v>
+        <v>28064.5561005492</v>
       </c>
       <c r="C49" t="n">
-        <v>11218.0042102211</v>
+        <v>11215.2413453527</v>
       </c>
       <c r="D49" t="n">
-        <v>8125.2953701326</v>
+        <v>8122.67092489326</v>
       </c>
       <c r="E49" t="n">
-        <v>136038.488723506</v>
+        <v>136181.116898228</v>
       </c>
       <c r="F49" t="n">
-        <v>2855353.70577123</v>
+        <v>2883728.07655319</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1943,7 +1943,7 @@
         <v>7092</v>
       </c>
       <c r="I49" t="n">
-        <v>20848.4074223899</v>
+        <v>20972.5561005492</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>

--- a/outcome/appendix/forecast/Mumps.xlsx
+++ b/outcome/appendix/forecast/Mumps.xlsx
@@ -424,19 +424,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>24439.6672885928</v>
+        <v>24345.720002228</v>
       </c>
       <c r="C2" t="n">
-        <v>18091.1239050391</v>
+        <v>18092.4924455434</v>
       </c>
       <c r="D2" t="n">
-        <v>16062.1722001229</v>
+        <v>16063.915397324</v>
       </c>
       <c r="E2" t="n">
-        <v>38608.7021809928</v>
+        <v>38176.0303686458</v>
       </c>
       <c r="F2" t="n">
-        <v>49641.613503334</v>
+        <v>48914.5421515018</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -445,7 +445,7 @@
         <v>17159</v>
       </c>
       <c r="I2" t="n">
-        <v>7280.66728859278</v>
+        <v>7186.72000222797</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -456,19 +456,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>13740.459112629</v>
+        <v>13722.578714287</v>
       </c>
       <c r="C3" t="n">
-        <v>10126.2009004512</v>
+        <v>10126.9698353231</v>
       </c>
       <c r="D3" t="n">
-        <v>9010.6729951763</v>
+        <v>9011.67914485231</v>
       </c>
       <c r="E3" t="n">
-        <v>18973.7629211933</v>
+        <v>18683.9746325249</v>
       </c>
       <c r="F3" t="n">
-        <v>22399.4081713581</v>
+        <v>21833.2920561376</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -477,7 +477,7 @@
         <v>8018</v>
       </c>
       <c r="I3" t="n">
-        <v>5722.45911262903</v>
+        <v>5704.57871428695</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -488,19 +488,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>18554.9638319971</v>
+        <v>18536.8268197417</v>
       </c>
       <c r="C4" t="n">
-        <v>12683.1504135749</v>
+        <v>12639.4128959579</v>
       </c>
       <c r="D4" t="n">
-        <v>11397.4816358455</v>
+        <v>11368.3486874683</v>
       </c>
       <c r="E4" t="n">
-        <v>28180.1901523421</v>
+        <v>28175.9255301128</v>
       </c>
       <c r="F4" t="n">
-        <v>36627.0906854162</v>
+        <v>36617.2632577916</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -509,7 +509,7 @@
         <v>6028</v>
       </c>
       <c r="I4" t="n">
-        <v>12526.9638319971</v>
+        <v>12508.8268197417</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -520,19 +520,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>26941.8148114831</v>
+        <v>27202.8550129773</v>
       </c>
       <c r="C5" t="n">
-        <v>15078.1833895597</v>
+        <v>15003.3558146986</v>
       </c>
       <c r="D5" t="n">
-        <v>12849.0228645058</v>
+        <v>12810.179274395</v>
       </c>
       <c r="E5" t="n">
-        <v>51336.1758314396</v>
+        <v>51324.1619474972</v>
       </c>
       <c r="F5" t="n">
-        <v>78229.417274297</v>
+        <v>78193.2652110536</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -541,7 +541,7 @@
         <v>6169</v>
       </c>
       <c r="I5" t="n">
-        <v>20772.8148114831</v>
+        <v>21033.8550129773</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -552,19 +552,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>36056.85382885</v>
+        <v>36433.7550115936</v>
       </c>
       <c r="C6" t="n">
-        <v>17528.7691239096</v>
+        <v>17427.4556341115</v>
       </c>
       <c r="D6" t="n">
-        <v>14929.9665738082</v>
+        <v>14839.1252447025</v>
       </c>
       <c r="E6" t="n">
-        <v>85605.5185522327</v>
+        <v>85575.7827524761</v>
       </c>
       <c r="F6" t="n">
-        <v>162458.928911775</v>
+        <v>162331.003990143</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -573,7 +573,7 @@
         <v>9273</v>
       </c>
       <c r="I6" t="n">
-        <v>26783.85382885</v>
+        <v>27160.7550115936</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -584,19 +584,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>39268.6793466132</v>
+        <v>39338.5856958</v>
       </c>
       <c r="C7" t="n">
-        <v>19338.710941668</v>
+        <v>19282.3272044312</v>
       </c>
       <c r="D7" t="n">
-        <v>16219.1212673796</v>
+        <v>16226.5231104775</v>
       </c>
       <c r="E7" t="n">
-        <v>99391.1950635432</v>
+        <v>99350.9916094001</v>
       </c>
       <c r="F7" t="n">
-        <v>212997.251970961</v>
+        <v>212786.880026479</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -605,7 +605,7 @@
         <v>11995</v>
       </c>
       <c r="I7" t="n">
-        <v>27273.6793466132</v>
+        <v>27343.5856958</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -616,19 +616,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>33031.9728716386</v>
+        <v>32994.6759290356</v>
       </c>
       <c r="C8" t="n">
-        <v>18358.244830615</v>
+        <v>18361.0789628703</v>
       </c>
       <c r="D8" t="n">
-        <v>14535.6089566466</v>
+        <v>14538.6232765782</v>
       </c>
       <c r="E8" t="n">
-        <v>70656.4921983916</v>
+        <v>70632.553895221</v>
       </c>
       <c r="F8" t="n">
-        <v>133633.014658579</v>
+        <v>133530.74930394</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -637,7 +637,7 @@
         <v>9008</v>
       </c>
       <c r="I8" t="n">
-        <v>24023.9728716386</v>
+        <v>23986.6759290356</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -648,19 +648,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>21356.8818655199</v>
+        <v>21262.6117867352</v>
       </c>
       <c r="C9" t="n">
-        <v>12474.5104703566</v>
+        <v>12476.1395462347</v>
       </c>
       <c r="D9" t="n">
-        <v>10241.5269354364</v>
+        <v>10243.3840724705</v>
       </c>
       <c r="E9" t="n">
-        <v>36178.2047452295</v>
+        <v>36255.4868073133</v>
       </c>
       <c r="F9" t="n">
-        <v>54114.6235287647</v>
+        <v>54090.0036762822</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -669,7 +669,7 @@
         <v>9008</v>
       </c>
       <c r="I9" t="n">
-        <v>12348.8818655199</v>
+        <v>12254.6117867352</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -680,19 +680,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>19403.5246553155</v>
+        <v>19393.778172098</v>
       </c>
       <c r="C10" t="n">
-        <v>11495.5299082462</v>
+        <v>11497.0176937693</v>
       </c>
       <c r="D10" t="n">
-        <v>9460.10523271231</v>
+        <v>9461.81499520606</v>
       </c>
       <c r="E10" t="n">
-        <v>33869.7245136907</v>
+        <v>34038.3052050015</v>
       </c>
       <c r="F10" t="n">
-        <v>48456.9583054019</v>
+        <v>48435.5481817018</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -701,7 +701,7 @@
         <v>13212</v>
       </c>
       <c r="I10" t="n">
-        <v>6191.52465531546</v>
+        <v>6181.77817209799</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -712,19 +712,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>20472.8898395232</v>
+        <v>20393.9020415401</v>
       </c>
       <c r="C11" t="n">
-        <v>12015.0141690174</v>
+        <v>12016.6463063526</v>
       </c>
       <c r="D11" t="n">
-        <v>9787.62446407898</v>
+        <v>9789.46862498092</v>
       </c>
       <c r="E11" t="n">
-        <v>36258.2926014884</v>
+        <v>36249.1828428617</v>
       </c>
       <c r="F11" t="n">
-        <v>57516.065160859</v>
+        <v>57487.1323117146</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -733,7 +733,7 @@
         <v>12818</v>
       </c>
       <c r="I11" t="n">
-        <v>7654.88983952322</v>
+        <v>7575.90204154009</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -744,19 +744,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>25249.899379513</v>
+        <v>24975.8235103986</v>
       </c>
       <c r="C12" t="n">
-        <v>14259.3488983343</v>
+        <v>14261.5088032256</v>
       </c>
       <c r="D12" t="n">
-        <v>11330.2681802959</v>
+        <v>11332.6029373831</v>
       </c>
       <c r="E12" t="n">
-        <v>53129.4662219574</v>
+        <v>53112.306907629</v>
       </c>
       <c r="F12" t="n">
-        <v>97908.5611090829</v>
+        <v>97838.766070616</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -765,7 +765,7 @@
         <v>15211</v>
       </c>
       <c r="I12" t="n">
-        <v>10038.899379513</v>
+        <v>9764.82351039861</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -776,19 +776,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>27694.6236027077</v>
+        <v>27639.2613657263</v>
       </c>
       <c r="C13" t="n">
-        <v>15215.9983567237</v>
+        <v>15218.4410585252</v>
       </c>
       <c r="D13" t="n">
-        <v>11935.0542031028</v>
+        <v>11937.6344345851</v>
       </c>
       <c r="E13" t="n">
-        <v>64027.2371990193</v>
+        <v>64003.5961499494</v>
       </c>
       <c r="F13" t="n">
-        <v>130664.979781874</v>
+        <v>130551.31518566</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -797,7 +797,7 @@
         <v>11437</v>
       </c>
       <c r="I13" t="n">
-        <v>16257.6236027077</v>
+        <v>16202.2613657263</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -808,19 +808,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>24551.6432865107</v>
+        <v>24366.4975306578</v>
       </c>
       <c r="C14" t="n">
-        <v>13134.8799652293</v>
+        <v>13136.9238160693</v>
       </c>
       <c r="D14" t="n">
-        <v>10389.9059550861</v>
+        <v>10392.1058689157</v>
       </c>
       <c r="E14" t="n">
-        <v>51002.5150884474</v>
+        <v>50985.3669595326</v>
       </c>
       <c r="F14" t="n">
-        <v>97160.8492276825</v>
+        <v>97087.350692911</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -829,7 +829,7 @@
         <v>7078</v>
       </c>
       <c r="I14" t="n">
-        <v>17473.6432865107</v>
+        <v>17288.4975306578</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -840,19 +840,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>14104.395307736</v>
+        <v>13947.4213643768</v>
       </c>
       <c r="C15" t="n">
-        <v>8259.35535766899</v>
+        <v>8260.44110091534</v>
       </c>
       <c r="D15" t="n">
-        <v>6832.75935752864</v>
+        <v>6834.03814556186</v>
       </c>
       <c r="E15" t="n">
-        <v>28337.4837049205</v>
+        <v>28046.8726476533</v>
       </c>
       <c r="F15" t="n">
-        <v>35330.5331349237</v>
+        <v>34874.7869421486</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -861,7 +861,7 @@
         <v>4393</v>
       </c>
       <c r="I15" t="n">
-        <v>9711.39530773602</v>
+        <v>9554.42136437684</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -872,19 +872,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>18562.5177260475</v>
+        <v>18462.0513841259</v>
       </c>
       <c r="C16" t="n">
-        <v>10807.6462751344</v>
+        <v>10809.2808317434</v>
       </c>
       <c r="D16" t="n">
-        <v>8632.35001542837</v>
+        <v>8634.15132873405</v>
       </c>
       <c r="E16" t="n">
-        <v>38442.0431268953</v>
+        <v>38430.3370833548</v>
       </c>
       <c r="F16" t="n">
-        <v>68356.6434749537</v>
+        <v>68312.0494278997</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -893,7 +893,7 @@
         <v>9604</v>
       </c>
       <c r="I16" t="n">
-        <v>8958.51772604754</v>
+        <v>8858.05138412592</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -904,19 +904,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>26385.4024559235</v>
+        <v>26599.7222248452</v>
       </c>
       <c r="C17" t="n">
-        <v>13350.7918586017</v>
+        <v>13265.6301655309</v>
       </c>
       <c r="D17" t="n">
-        <v>10964.7569946519</v>
+        <v>10967.3606792469</v>
       </c>
       <c r="E17" t="n">
-        <v>77450.4595190176</v>
+        <v>77413.7474736456</v>
       </c>
       <c r="F17" t="n">
-        <v>204871.98219584</v>
+        <v>204603.972284896</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -925,7 +925,7 @@
         <v>11501</v>
       </c>
       <c r="I17" t="n">
-        <v>14884.4024559235</v>
+        <v>15098.7222248452</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -936,19 +936,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>34888.1405765548</v>
+        <v>35203.289558956</v>
       </c>
       <c r="C18" t="n">
-        <v>14894.0014264562</v>
+        <v>14927.9527463849</v>
       </c>
       <c r="D18" t="n">
-        <v>12577.9545517513</v>
+        <v>12571.3706235277</v>
       </c>
       <c r="E18" t="n">
-        <v>144876.207824655</v>
+        <v>144771.906230013</v>
       </c>
       <c r="F18" t="n">
-        <v>786962.458026126</v>
+        <v>784547.07427327</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -957,7 +957,7 @@
         <v>11970</v>
       </c>
       <c r="I18" t="n">
-        <v>22918.1405765548</v>
+        <v>23233.289558956</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -968,19 +968,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>37800.6308493109</v>
+        <v>37793.7110249877</v>
       </c>
       <c r="C19" t="n">
-        <v>16273.6973052423</v>
+        <v>16236.474327046</v>
       </c>
       <c r="D19" t="n">
-        <v>13000.6194819844</v>
+        <v>13004.1222608266</v>
       </c>
       <c r="E19" t="n">
-        <v>170294.005309041</v>
+        <v>170155.575249513</v>
       </c>
       <c r="F19" t="n">
-        <v>1332956.94938632</v>
+        <v>1327225.03677792</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -989,7 +989,7 @@
         <v>12015</v>
       </c>
       <c r="I19" t="n">
-        <v>25785.6308493109</v>
+        <v>25778.7110249877</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1000,19 +1000,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>32030.8937476657</v>
+        <v>31909.0564078313</v>
       </c>
       <c r="C20" t="n">
-        <v>15020.5628661693</v>
+        <v>15023.4728482719</v>
       </c>
       <c r="D20" t="n">
-        <v>11261.0554723642</v>
+        <v>11263.9213950112</v>
       </c>
       <c r="E20" t="n">
-        <v>105875.277223692</v>
+        <v>105810.844194749</v>
       </c>
       <c r="F20" t="n">
-        <v>408767.440529307</v>
+        <v>407903.363591727</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1021,7 +1021,7 @@
         <v>9367</v>
       </c>
       <c r="I20" t="n">
-        <v>22663.8937476657</v>
+        <v>22542.0564078313</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1032,19 +1032,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>21671.9440210482</v>
+        <v>21430.0333538536</v>
       </c>
       <c r="C21" t="n">
-        <v>10677.9838973114</v>
+        <v>10679.7538028968</v>
       </c>
       <c r="D21" t="n">
-        <v>8365.43764494222</v>
+        <v>8367.33139272611</v>
       </c>
       <c r="E21" t="n">
-        <v>45464.7351532438</v>
+        <v>45448.0155788156</v>
       </c>
       <c r="F21" t="n">
-        <v>93770.6030332846</v>
+        <v>93689.5352187715</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1053,7 +1053,7 @@
         <v>8353</v>
       </c>
       <c r="I21" t="n">
-        <v>13318.9440210482</v>
+        <v>13077.0333538536</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1064,19 +1064,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>20047.4285373099</v>
+        <v>19894.9692373322</v>
       </c>
       <c r="C22" t="n">
-        <v>9968.97069923128</v>
+        <v>9970.59116267544</v>
       </c>
       <c r="D22" t="n">
-        <v>7855.77152313721</v>
+        <v>7857.52806555665</v>
       </c>
       <c r="E22" t="n">
-        <v>42208.1794012393</v>
+        <v>41839.0102975576</v>
       </c>
       <c r="F22" t="n">
-        <v>78722.429387491</v>
+        <v>78660.2796988942</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1085,7 +1085,7 @@
         <v>12606</v>
       </c>
       <c r="I22" t="n">
-        <v>7441.42853730985</v>
+        <v>7288.96923733221</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1096,19 +1096,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>21004.2810292484</v>
+        <v>20811.0077442978</v>
       </c>
       <c r="C23" t="n">
-        <v>10442.3567233538</v>
+        <v>10444.1069619848</v>
       </c>
       <c r="D23" t="n">
-        <v>8158.69422179453</v>
+        <v>8160.56350885274</v>
       </c>
       <c r="E23" t="n">
-        <v>45673.9263020198</v>
+        <v>45656.6154513641</v>
       </c>
       <c r="F23" t="n">
-        <v>96557.850720677</v>
+        <v>96470.653071675</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1117,7 +1117,7 @@
         <v>11116</v>
       </c>
       <c r="I23" t="n">
-        <v>9888.28102924842</v>
+        <v>9695.00774429783</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1128,19 +1128,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>25393.3269511905</v>
+        <v>25017.9461075787</v>
       </c>
       <c r="C24" t="n">
-        <v>12291.8493966389</v>
+        <v>12294.0925930535</v>
       </c>
       <c r="D24" t="n">
-        <v>9369.42609069086</v>
+        <v>9371.71683149207</v>
       </c>
       <c r="E24" t="n">
-        <v>70314.6801612022</v>
+        <v>70279.7709953264</v>
       </c>
       <c r="F24" t="n">
-        <v>199263.447026036</v>
+        <v>198980.035838802</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1149,7 +1149,7 @@
         <v>11881</v>
       </c>
       <c r="I24" t="n">
-        <v>13512.3269511905</v>
+        <v>13136.9461075787</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1160,19 +1160,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>27696.8504630185</v>
+        <v>27538.6798534659</v>
       </c>
       <c r="C25" t="n">
-        <v>13112.8781355378</v>
+        <v>13115.3768707123</v>
       </c>
       <c r="D25" t="n">
-        <v>9878.43250930082</v>
+        <v>9880.92977750801</v>
       </c>
       <c r="E25" t="n">
-        <v>86732.7962600107</v>
+        <v>86683.3991387237</v>
       </c>
       <c r="F25" t="n">
-        <v>301759.889690491</v>
+        <v>301201.157169818</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1181,7 +1181,7 @@
         <v>10892</v>
       </c>
       <c r="I25" t="n">
-        <v>16804.8504630185</v>
+        <v>16646.6798534659</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1192,19 +1192,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>24618.2380905414</v>
+        <v>24335.0663452209</v>
       </c>
       <c r="C26" t="n">
-        <v>11537.6804890461</v>
+        <v>11539.7918772032</v>
       </c>
       <c r="D26" t="n">
-        <v>8802.93982790736</v>
+        <v>8805.1048250701</v>
       </c>
       <c r="E26" t="n">
-        <v>65263.7675537245</v>
+        <v>65231.8567260587</v>
       </c>
       <c r="F26" t="n">
-        <v>182329.311082085</v>
+        <v>182076.414484554</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1213,7 +1213,7 @@
         <v>6570</v>
       </c>
       <c r="I26" t="n">
-        <v>18048.2380905414</v>
+        <v>17765.0663452209</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1224,19 +1224,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>15724.5437929226</v>
+        <v>15357.3128352908</v>
       </c>
       <c r="C27" t="n">
-        <v>7507.01195907828</v>
+        <v>7508.18726410201</v>
       </c>
       <c r="D27" t="n">
-        <v>6027.32860129222</v>
+        <v>6028.65954784603</v>
       </c>
       <c r="E27" t="n">
-        <v>38843.351357276</v>
+        <v>37903.1089964917</v>
       </c>
       <c r="F27" t="n">
-        <v>53492.7051130651</v>
+        <v>51908.9887819916</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1245,7 +1245,7 @@
         <v>4491</v>
       </c>
       <c r="I27" t="n">
-        <v>11233.5437929226</v>
+        <v>10866.3128352908</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1256,19 +1256,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>19490.7864722083</v>
+        <v>19254.0948799403</v>
       </c>
       <c r="C28" t="n">
-        <v>9719.75424080279</v>
+        <v>9721.45787856784</v>
       </c>
       <c r="D28" t="n">
-        <v>7530.42530997273</v>
+        <v>7532.22921590088</v>
       </c>
       <c r="E28" t="n">
-        <v>46358.3537205966</v>
+        <v>46339.1998651848</v>
       </c>
       <c r="F28" t="n">
-        <v>106663.524251627</v>
+        <v>106553.170969964</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1277,7 +1277,7 @@
         <v>10001</v>
       </c>
       <c r="I28" t="n">
-        <v>9489.78647220834</v>
+        <v>9253.09487994033</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1288,19 +1288,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>26789.4118180734</v>
+        <v>26921.125670245</v>
       </c>
       <c r="C29" t="n">
-        <v>12709.4475164504</v>
+        <v>12598.9547223937</v>
       </c>
       <c r="D29" t="n">
-        <v>9440.9456691786</v>
+        <v>9443.45388996134</v>
       </c>
       <c r="E29" t="n">
-        <v>101879.128699696</v>
+        <v>101810.505998659</v>
       </c>
       <c r="F29" t="n">
-        <v>502592.989328494</v>
+        <v>501235.999954875</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1309,7 +1309,7 @@
         <v>9968</v>
       </c>
       <c r="I29" t="n">
-        <v>16821.4118180734</v>
+        <v>16953.125670245</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1320,19 +1320,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>34852.4221908013</v>
+        <v>35080.0786372405</v>
       </c>
       <c r="C30" t="n">
-        <v>13576.7223537599</v>
+        <v>13573.5561225336</v>
       </c>
       <c r="D30" t="n">
-        <v>10950.252109635</v>
+        <v>10953.4100773992</v>
       </c>
       <c r="E30" t="n">
-        <v>213839.877154661</v>
+        <v>213607.262884146</v>
       </c>
       <c r="F30" t="n">
-        <v>16762461.7148595</v>
+        <v>16398953.5557968</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1341,7 +1341,7 @@
         <v>11151</v>
       </c>
       <c r="I30" t="n">
-        <v>23701.4221908013</v>
+        <v>23929.0786372405</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1352,16 +1352,16 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>37466.0976911364</v>
+        <v>37348.5048695738</v>
       </c>
       <c r="C31" t="n">
-        <v>14593.3046344843</v>
+        <v>14565.3779312737</v>
       </c>
       <c r="D31" t="n">
-        <v>11152.2282221675</v>
+        <v>11155.508108668</v>
       </c>
       <c r="E31" t="n">
-        <v>258270.509781315</v>
+        <v>257950.698156669</v>
       </c>
       <c r="F31"/>
       <c r="G31" t="s">
@@ -1371,7 +1371,7 @@
         <v>11945</v>
       </c>
       <c r="I31" t="n">
-        <v>25521.0976911364</v>
+        <v>25403.5048695738</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1382,19 +1382,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>31621.2666834472</v>
+        <v>31386.3830121291</v>
       </c>
       <c r="C32" t="n">
-        <v>13447.8563547568</v>
+        <v>13450.7391326698</v>
       </c>
       <c r="D32" t="n">
-        <v>9812.70085385008</v>
+        <v>9815.43944856726</v>
       </c>
       <c r="E32" t="n">
-        <v>142873.547219104</v>
+        <v>142750.999743554</v>
       </c>
       <c r="F32" t="n">
-        <v>1578469.39114866</v>
+        <v>1569720.51063761</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1403,7 +1403,7 @@
         <v>9391</v>
       </c>
       <c r="I32" t="n">
-        <v>22230.2666834472</v>
+        <v>21995.3830121291</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1414,19 +1414,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>21583.9451636206</v>
+        <v>21216.073721019</v>
       </c>
       <c r="C33" t="n">
-        <v>9767.70628606055</v>
+        <v>9769.51864829506</v>
       </c>
       <c r="D33" t="n">
-        <v>7465.24997309021</v>
+        <v>7467.12848541125</v>
       </c>
       <c r="E33" t="n">
-        <v>54158.5919022168</v>
+        <v>54132.8109914905</v>
       </c>
       <c r="F33" t="n">
-        <v>147582.314279429</v>
+        <v>147386.891808661</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1435,7 +1435,7 @@
         <v>8472</v>
       </c>
       <c r="I33" t="n">
-        <v>13111.9451636206</v>
+        <v>12744.073721019</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1446,19 +1446,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>20237.1382146202</v>
+        <v>19969.3542803837</v>
       </c>
       <c r="C34" t="n">
-        <v>9169.93417349087</v>
+        <v>9171.60113917578</v>
       </c>
       <c r="D34" t="n">
-        <v>7057.15631692045</v>
+        <v>7058.90936928022</v>
       </c>
       <c r="E34" t="n">
-        <v>47006.7496561411</v>
+        <v>46985.9512722211</v>
       </c>
       <c r="F34" t="n">
-        <v>116837.195404079</v>
+        <v>116701.697108934</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1467,7 +1467,7 @@
         <v>11041</v>
       </c>
       <c r="I34" t="n">
-        <v>9196.13821462015</v>
+        <v>8928.35428038367</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1478,19 +1478,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>21307.7679388817</v>
+        <v>21025.0080835236</v>
       </c>
       <c r="C35" t="n">
-        <v>9604.49835867326</v>
+        <v>9606.28840658525</v>
       </c>
       <c r="D35" t="n">
-        <v>7331.59919189313</v>
+        <v>7333.454778583</v>
       </c>
       <c r="E35" t="n">
-        <v>54012.0876205841</v>
+        <v>53985.9776702563</v>
       </c>
       <c r="F35" t="n">
-        <v>149788.717936947</v>
+        <v>149585.435835693</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1499,7 +1499,7 @@
         <v>9537</v>
       </c>
       <c r="I35" t="n">
-        <v>11770.7679388817</v>
+        <v>11488.0080835236</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1510,19 +1510,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>25633.9416803228</v>
+        <v>25171.7962182551</v>
       </c>
       <c r="C36" t="n">
-        <v>11239.9872565377</v>
+        <v>11242.2453237966</v>
       </c>
       <c r="D36" t="n">
-        <v>8369.81842683625</v>
+        <v>8372.05520615417</v>
       </c>
       <c r="E36" t="n">
-        <v>86989.5976347442</v>
+        <v>86933.1114796927</v>
       </c>
       <c r="F36" t="n">
-        <v>399224.404613528</v>
+        <v>398232.950522563</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1531,7 +1531,7 @@
         <v>8702</v>
       </c>
       <c r="I36" t="n">
-        <v>16931.9416803228</v>
+        <v>16469.7962182551</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1542,19 +1542,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>27864.7657969719</v>
+        <v>27616.9652262582</v>
       </c>
       <c r="C37" t="n">
-        <v>11975.0342984849</v>
+        <v>11977.5319767506</v>
       </c>
       <c r="D37" t="n">
-        <v>8815.76077785729</v>
+        <v>8818.18289828804</v>
       </c>
       <c r="E37" t="n">
-        <v>109966.568903262</v>
+        <v>109883.657404065</v>
       </c>
       <c r="F37" t="n">
-        <v>753180.597073201</v>
+        <v>750418.627654008</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1563,7 +1563,7 @@
         <v>3839</v>
       </c>
       <c r="I37" t="n">
-        <v>24025.7657969719</v>
+        <v>23777.9652262582</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1574,19 +1574,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>24779.5492283165</v>
+        <v>24406.1173386381</v>
       </c>
       <c r="C38" t="n">
-        <v>10635.0863447836</v>
+        <v>10637.2149873172</v>
       </c>
       <c r="D38" t="n">
-        <v>7941.81946106276</v>
+        <v>7943.94270064227</v>
       </c>
       <c r="E38" t="n">
-        <v>79102.0350552418</v>
+        <v>79052.6374233316</v>
       </c>
       <c r="F38" t="n">
-        <v>336224.322393716</v>
+        <v>335458.168543993</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1595,7 +1595,7 @@
         <v>2370</v>
       </c>
       <c r="I38" t="n">
-        <v>22409.5492283165</v>
+        <v>22036.1173386381</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1606,19 +1606,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>16883.1234436459</v>
+        <v>16528.2844906199</v>
       </c>
       <c r="C39" t="n">
-        <v>7055.36525066547</v>
+        <v>7056.58676675973</v>
       </c>
       <c r="D39" t="n">
-        <v>5559.47338237893</v>
+        <v>5560.82450054179</v>
       </c>
       <c r="E39" t="n">
-        <v>42969.5320728001</v>
+        <v>42866.9186280565</v>
       </c>
       <c r="F39" t="n">
-        <v>65671.3677299789</v>
+        <v>66086.7907040786</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1627,7 +1627,7 @@
         <v>4548</v>
       </c>
       <c r="I39" t="n">
-        <v>12335.1234436459</v>
+        <v>11980.2844906199</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1638,19 +1638,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>20594.841453116</v>
+        <v>20223.326816756</v>
       </c>
       <c r="C40" t="n">
-        <v>9066.10525452091</v>
+        <v>9067.83892013057</v>
       </c>
       <c r="D40" t="n">
-        <v>6890.02924391816</v>
+        <v>6891.82095969175</v>
       </c>
       <c r="E40" t="n">
-        <v>53738.6326581954</v>
+        <v>53711.3781915217</v>
       </c>
       <c r="F40" t="n">
-        <v>159543.307260572</v>
+        <v>159306.994937842</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1659,7 +1659,7 @@
         <v>7299</v>
       </c>
       <c r="I40" t="n">
-        <v>13295.841453116</v>
+        <v>12924.326816756</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1670,19 +1670,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>27631.4907914789</v>
+        <v>27581.5401355928</v>
       </c>
       <c r="C41" t="n">
-        <v>11747.6965256173</v>
+        <v>11750.2450752071</v>
       </c>
       <c r="D41" t="n">
-        <v>8558.40485236437</v>
+        <v>8560.83928220565</v>
       </c>
       <c r="E41" t="n">
-        <v>128315.629261129</v>
+        <v>128204.206217879</v>
       </c>
       <c r="F41" t="n">
-        <v>1587247.62083974</v>
+        <v>1577756.86594624</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1691,7 +1691,7 @@
         <v>7028</v>
       </c>
       <c r="I41" t="n">
-        <v>20603.4907914789</v>
+        <v>20553.5401355928</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1702,16 +1702,16 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>35383.2874480466</v>
+        <v>35445.1469689538</v>
       </c>
       <c r="C42" t="n">
-        <v>13101.5104695396</v>
+        <v>13119.9379341246</v>
       </c>
       <c r="D42" t="n">
-        <v>9868.39099819236</v>
+        <v>9871.40831393216</v>
       </c>
       <c r="E42" t="n">
-        <v>305248.910415218</v>
+        <v>304788.73390502</v>
       </c>
       <c r="F42"/>
       <c r="G42" t="s">
@@ -1721,7 +1721,7 @@
         <v>8930</v>
       </c>
       <c r="I42" t="n">
-        <v>26453.2874480466</v>
+        <v>26515.1469689538</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1732,16 +1732,16 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>37723.7609797733</v>
+        <v>37468.0256002217</v>
       </c>
       <c r="C43" t="n">
-        <v>13996.7207980995</v>
+        <v>13960.2968679098</v>
       </c>
       <c r="D43" t="n">
-        <v>10062.2905895777</v>
+        <v>10065.4185912971</v>
       </c>
       <c r="E43" t="n">
-        <v>382516.990947419</v>
+        <v>381848.166114763</v>
       </c>
       <c r="F43"/>
       <c r="G43" t="s">
@@ -1751,7 +1751,7 @@
         <v>10710</v>
       </c>
       <c r="I43" t="n">
-        <v>27013.7609797733</v>
+        <v>26758.0256002217</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1762,19 +1762,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>31711.274921375</v>
+        <v>31357.1319569215</v>
       </c>
       <c r="C44" t="n">
-        <v>12464.5712777754</v>
+        <v>12467.421530378</v>
       </c>
       <c r="D44" t="n">
-        <v>8932.57640561124</v>
+        <v>8935.22211187576</v>
       </c>
       <c r="E44" t="n">
-        <v>186605.09337498</v>
+        <v>186396.100960366</v>
       </c>
       <c r="F44" t="n">
-        <v>52679344.624584</v>
+        <v>50275630.6257551</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1783,7 +1783,7 @@
         <v>9280</v>
       </c>
       <c r="I44" t="n">
-        <v>22431.274921375</v>
+        <v>22077.1319569215</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -1794,19 +1794,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>21653.6797503754</v>
+        <v>21173.0483848368</v>
       </c>
       <c r="C45" t="n">
-        <v>9176.98344672615</v>
+        <v>9178.81590599966</v>
       </c>
       <c r="D45" t="n">
-        <v>6895.84236957436</v>
+        <v>6897.70212165095</v>
       </c>
       <c r="E45" t="n">
-        <v>63943.1900691776</v>
+        <v>63918.397276443</v>
       </c>
       <c r="F45" t="n">
-        <v>230087.973282151</v>
+        <v>229647.835126378</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1815,7 +1815,7 @@
         <v>7919</v>
       </c>
       <c r="I45" t="n">
-        <v>13734.6797503754</v>
+        <v>13254.0483848368</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1826,19 +1826,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>20358.4675873825</v>
+        <v>19977.4073345476</v>
       </c>
       <c r="C46" t="n">
-        <v>8643.09148690269</v>
+        <v>8644.78299636455</v>
       </c>
       <c r="D46" t="n">
-        <v>6543.19546185617</v>
+        <v>6544.93845301705</v>
       </c>
       <c r="E46" t="n">
-        <v>54330.5459047604</v>
+        <v>54311.1943881223</v>
       </c>
       <c r="F46" t="n">
-        <v>170281.260285004</v>
+        <v>170008.038970976</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1847,7 +1847,7 @@
         <v>10867</v>
       </c>
       <c r="I46" t="n">
-        <v>9491.46758738245</v>
+        <v>9110.4073345476</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -1858,19 +1858,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>21499.9304203366</v>
+        <v>21109.6728174872</v>
       </c>
       <c r="C47" t="n">
-        <v>9047.70157383157</v>
+        <v>9049.5116891526</v>
       </c>
       <c r="D47" t="n">
-        <v>6794.84142412619</v>
+        <v>6796.68015538556</v>
       </c>
       <c r="E47" t="n">
-        <v>62316.988019727</v>
+        <v>62280.8350573019</v>
       </c>
       <c r="F47" t="n">
-        <v>231385.140959133</v>
+        <v>230936.011703939</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1879,7 +1879,7 @@
         <v>8287</v>
       </c>
       <c r="I47" t="n">
-        <v>13212.9304203366</v>
+        <v>12822.6728174872</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -1890,19 +1890,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>25843.3115939083</v>
+        <v>25279.1436100233</v>
       </c>
       <c r="C48" t="n">
-        <v>10541.1906008834</v>
+        <v>10543.4500390557</v>
       </c>
       <c r="D48" t="n">
-        <v>7721.4097923459</v>
+        <v>7723.6019571311</v>
       </c>
       <c r="E48" t="n">
-        <v>104945.366988116</v>
+        <v>104861.376144495</v>
       </c>
       <c r="F48" t="n">
-        <v>917360.989737201</v>
+        <v>913250.125630109</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1911,7 +1911,7 @@
         <v>7642</v>
       </c>
       <c r="I48" t="n">
-        <v>18201.3115939083</v>
+        <v>17637.1436100233</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -1922,19 +1922,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>28064.5561005492</v>
+        <v>27718.5402509355</v>
       </c>
       <c r="C49" t="n">
-        <v>11215.2413453527</v>
+        <v>11217.7290213158</v>
       </c>
       <c r="D49" t="n">
-        <v>8122.67092489326</v>
+        <v>8125.03395752396</v>
       </c>
       <c r="E49" t="n">
-        <v>136181.116898228</v>
+        <v>136052.674952319</v>
       </c>
       <c r="F49" t="n">
-        <v>2883728.07655319</v>
+        <v>2858159.32993834</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1943,7 +1943,7 @@
         <v>7092</v>
       </c>
       <c r="I49" t="n">
-        <v>20972.5561005492</v>
+        <v>20626.5402509355</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>

--- a/outcome/appendix/forecast/Mumps.xlsx
+++ b/outcome/appendix/forecast/Mumps.xlsx
@@ -424,7 +424,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>24345.720002228</v>
+        <v>24427.5641012367</v>
       </c>
       <c r="C2" t="n">
         <v>18092.4924455434</v>
@@ -433,10 +433,10 @@
         <v>16063.915397324</v>
       </c>
       <c r="E2" t="n">
-        <v>38176.0303686458</v>
+        <v>38774.6544918429</v>
       </c>
       <c r="F2" t="n">
-        <v>48914.5421515018</v>
+        <v>49825.3447963252</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -445,7 +445,7 @@
         <v>17159</v>
       </c>
       <c r="I2" t="n">
-        <v>7186.72000222797</v>
+        <v>7268.56410123665</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -456,7 +456,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>13722.578714287</v>
+        <v>13781.3579254822</v>
       </c>
       <c r="C3" t="n">
         <v>10126.9698353231</v>
@@ -465,10 +465,10 @@
         <v>9011.67914485231</v>
       </c>
       <c r="E3" t="n">
-        <v>18683.9746325249</v>
+        <v>19061.2478401936</v>
       </c>
       <c r="F3" t="n">
-        <v>21833.2920561376</v>
+        <v>22331.2478955794</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -477,7 +477,7 @@
         <v>8018</v>
       </c>
       <c r="I3" t="n">
-        <v>5704.57871428695</v>
+        <v>5763.35792548217</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -488,13 +488,13 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>18536.8268197417</v>
+        <v>18575.0899678734</v>
       </c>
       <c r="C4" t="n">
-        <v>12639.4128959579</v>
+        <v>12656.3626443526</v>
       </c>
       <c r="D4" t="n">
-        <v>11368.3486874683</v>
+        <v>11388.7555271537</v>
       </c>
       <c r="E4" t="n">
         <v>28175.9255301128</v>
@@ -509,7 +509,7 @@
         <v>6028</v>
       </c>
       <c r="I4" t="n">
-        <v>12508.8268197417</v>
+        <v>12547.0899678734</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -520,13 +520,13 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>27202.8550129773</v>
+        <v>27202.4601482025</v>
       </c>
       <c r="C5" t="n">
-        <v>15003.3558146986</v>
+        <v>15032.791428126</v>
       </c>
       <c r="D5" t="n">
-        <v>12810.179274395</v>
+        <v>12875.5685437185</v>
       </c>
       <c r="E5" t="n">
         <v>51324.1619474972</v>
@@ -541,7 +541,7 @@
         <v>6169</v>
       </c>
       <c r="I5" t="n">
-        <v>21033.8550129773</v>
+        <v>21033.4601482025</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -552,13 +552,13 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>36433.7550115936</v>
+        <v>36451.3056794192</v>
       </c>
       <c r="C6" t="n">
-        <v>17427.4556341115</v>
+        <v>17456.7397910294</v>
       </c>
       <c r="D6" t="n">
-        <v>14839.1252447025</v>
+        <v>14841.2940348269</v>
       </c>
       <c r="E6" t="n">
         <v>85575.7827524761</v>
@@ -573,7 +573,7 @@
         <v>9273</v>
       </c>
       <c r="I6" t="n">
-        <v>27160.7550115936</v>
+        <v>27178.3056794192</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -584,13 +584,13 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>39338.5856958</v>
+        <v>39349.8473487291</v>
       </c>
       <c r="C7" t="n">
-        <v>19282.3272044312</v>
+        <v>19362.1876153397</v>
       </c>
       <c r="D7" t="n">
-        <v>16226.5231104775</v>
+        <v>16177.7050138511</v>
       </c>
       <c r="E7" t="n">
         <v>99350.9916094001</v>
@@ -605,7 +605,7 @@
         <v>11995</v>
       </c>
       <c r="I7" t="n">
-        <v>27343.5856958</v>
+        <v>27354.8473487291</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -616,7 +616,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>32994.6759290356</v>
+        <v>33117.115689903</v>
       </c>
       <c r="C8" t="n">
         <v>18361.0789628703</v>
@@ -637,7 +637,7 @@
         <v>9008</v>
       </c>
       <c r="I8" t="n">
-        <v>23986.6759290356</v>
+        <v>24109.115689903</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -648,7 +648,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>21262.6117867352</v>
+        <v>21336.7649947006</v>
       </c>
       <c r="C9" t="n">
         <v>12476.1395462347</v>
@@ -657,7 +657,7 @@
         <v>10243.3840724705</v>
       </c>
       <c r="E9" t="n">
-        <v>36255.4868073133</v>
+        <v>36328.5698350155</v>
       </c>
       <c r="F9" t="n">
         <v>54090.0036762822</v>
@@ -669,7 +669,7 @@
         <v>9008</v>
       </c>
       <c r="I9" t="n">
-        <v>12254.6117867352</v>
+        <v>12328.7649947006</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -680,7 +680,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>19393.778172098</v>
+        <v>19476.0657317897</v>
       </c>
       <c r="C10" t="n">
         <v>11497.0176937693</v>
@@ -689,7 +689,7 @@
         <v>9461.81499520606</v>
       </c>
       <c r="E10" t="n">
-        <v>34038.3052050015</v>
+        <v>34126.2912113885</v>
       </c>
       <c r="F10" t="n">
         <v>48435.5481817018</v>
@@ -701,7 +701,7 @@
         <v>13212</v>
       </c>
       <c r="I10" t="n">
-        <v>6181.77817209799</v>
+        <v>6264.06573178967</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -712,7 +712,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>20393.9020415401</v>
+        <v>20515.6397297873</v>
       </c>
       <c r="C11" t="n">
         <v>12016.6463063526</v>
@@ -733,7 +733,7 @@
         <v>12818</v>
       </c>
       <c r="I11" t="n">
-        <v>7575.90204154009</v>
+        <v>7697.63972978734</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -744,7 +744,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>24975.8235103986</v>
+        <v>25176.0179394952</v>
       </c>
       <c r="C12" t="n">
         <v>14261.5088032256</v>
@@ -765,7 +765,7 @@
         <v>15211</v>
       </c>
       <c r="I12" t="n">
-        <v>9764.82351039861</v>
+        <v>9965.01793949517</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -776,7 +776,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>27639.2613657263</v>
+        <v>27881.2164058611</v>
       </c>
       <c r="C13" t="n">
         <v>15218.4410585252</v>
@@ -797,7 +797,7 @@
         <v>11437</v>
       </c>
       <c r="I13" t="n">
-        <v>16202.2613657263</v>
+        <v>16444.2164058611</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -808,7 +808,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>24366.4975306578</v>
+        <v>24647.8388534317</v>
       </c>
       <c r="C14" t="n">
         <v>13136.9238160693</v>
@@ -829,7 +829,7 @@
         <v>7078</v>
       </c>
       <c r="I14" t="n">
-        <v>17288.4975306578</v>
+        <v>17569.8388534317</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -840,7 +840,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>13947.4213643768</v>
+        <v>14100.7228588727</v>
       </c>
       <c r="C15" t="n">
         <v>8260.44110091534</v>
@@ -849,10 +849,10 @@
         <v>6834.03814556186</v>
       </c>
       <c r="E15" t="n">
-        <v>28046.8726476533</v>
+        <v>28518.9616898132</v>
       </c>
       <c r="F15" t="n">
-        <v>34874.7869421486</v>
+        <v>35837.8954815899</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -861,7 +861,7 @@
         <v>4393</v>
       </c>
       <c r="I15" t="n">
-        <v>9554.42136437684</v>
+        <v>9707.72285887266</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -872,7 +872,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>18462.0513841259</v>
+        <v>18549.3548673372</v>
       </c>
       <c r="C16" t="n">
         <v>10809.2808317434</v>
@@ -893,7 +893,7 @@
         <v>9604</v>
       </c>
       <c r="I16" t="n">
-        <v>8858.05138412592</v>
+        <v>8945.35486733719</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -904,10 +904,10 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>26599.7222248452</v>
+        <v>26667.2707589235</v>
       </c>
       <c r="C17" t="n">
-        <v>13265.6301655309</v>
+        <v>13317.5920122176</v>
       </c>
       <c r="D17" t="n">
         <v>10967.3606792469</v>
@@ -925,7 +925,7 @@
         <v>11501</v>
       </c>
       <c r="I17" t="n">
-        <v>15098.7222248452</v>
+        <v>15166.2707589235</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -936,13 +936,13 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>35203.289558956</v>
+        <v>35287.3160875356</v>
       </c>
       <c r="C18" t="n">
-        <v>14927.9527463849</v>
+        <v>14943.7708054143</v>
       </c>
       <c r="D18" t="n">
-        <v>12571.3706235277</v>
+        <v>12542.7105148772</v>
       </c>
       <c r="E18" t="n">
         <v>144771.906230013</v>
@@ -957,7 +957,7 @@
         <v>11970</v>
       </c>
       <c r="I18" t="n">
-        <v>23233.289558956</v>
+        <v>23317.3160875356</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -968,10 +968,10 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>37793.7110249877</v>
+        <v>37933.349480562</v>
       </c>
       <c r="C19" t="n">
-        <v>16236.474327046</v>
+        <v>16303.3002593077</v>
       </c>
       <c r="D19" t="n">
         <v>13004.1222608266</v>
@@ -989,7 +989,7 @@
         <v>12015</v>
       </c>
       <c r="I19" t="n">
-        <v>25778.7110249877</v>
+        <v>25918.349480562</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1000,7 +1000,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>31909.0564078313</v>
+        <v>32158.5030795156</v>
       </c>
       <c r="C20" t="n">
         <v>15023.4728482719</v>
@@ -1021,7 +1021,7 @@
         <v>9367</v>
       </c>
       <c r="I20" t="n">
-        <v>22542.0564078313</v>
+        <v>22791.5030795156</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1032,7 +1032,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>21430.0333538536</v>
+        <v>21701.9862677064</v>
       </c>
       <c r="C21" t="n">
         <v>10679.7538028968</v>
@@ -1053,7 +1053,7 @@
         <v>8353</v>
       </c>
       <c r="I21" t="n">
-        <v>13077.0333538536</v>
+        <v>13348.9862677064</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1064,7 +1064,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>19894.9692373322</v>
+        <v>20168.1618262594</v>
       </c>
       <c r="C22" t="n">
         <v>9970.59116267544</v>
@@ -1073,7 +1073,7 @@
         <v>7857.52806555665</v>
       </c>
       <c r="E22" t="n">
-        <v>41839.0102975576</v>
+        <v>42727.8222698892</v>
       </c>
       <c r="F22" t="n">
         <v>78660.2796988942</v>
@@ -1085,7 +1085,7 @@
         <v>12606</v>
       </c>
       <c r="I22" t="n">
-        <v>7288.96923733221</v>
+        <v>7562.16182625938</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1096,7 +1096,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>20811.0077442978</v>
+        <v>21104.0989428935</v>
       </c>
       <c r="C23" t="n">
         <v>10444.1069619848</v>
@@ -1117,7 +1117,7 @@
         <v>11116</v>
       </c>
       <c r="I23" t="n">
-        <v>9695.00774429783</v>
+        <v>9988.09894289354</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1128,7 +1128,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>25017.9461075787</v>
+        <v>25369.4848062146</v>
       </c>
       <c r="C24" t="n">
         <v>12294.0925930535</v>
@@ -1149,7 +1149,7 @@
         <v>11881</v>
       </c>
       <c r="I24" t="n">
-        <v>13136.9461075787</v>
+        <v>13488.4848062146</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1160,7 +1160,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>27538.6798534659</v>
+        <v>27949.9306168033</v>
       </c>
       <c r="C25" t="n">
         <v>13115.3768707123</v>
@@ -1181,7 +1181,7 @@
         <v>10892</v>
       </c>
       <c r="I25" t="n">
-        <v>16646.6798534659</v>
+        <v>17057.9306168033</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1192,7 +1192,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>24335.0663452209</v>
+        <v>24797.7984750112</v>
       </c>
       <c r="C26" t="n">
         <v>11539.7918772032</v>
@@ -1213,7 +1213,7 @@
         <v>6570</v>
       </c>
       <c r="I26" t="n">
-        <v>17765.0663452209</v>
+        <v>18227.7984750112</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1224,7 +1224,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>15357.3128352908</v>
+        <v>15743.2895101169</v>
       </c>
       <c r="C27" t="n">
         <v>7508.18726410201</v>
@@ -1233,10 +1233,10 @@
         <v>6028.65954784603</v>
       </c>
       <c r="E27" t="n">
-        <v>37903.1089964917</v>
+        <v>39215.5189828467</v>
       </c>
       <c r="F27" t="n">
-        <v>51908.9887819916</v>
+        <v>53716.5274023874</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1245,7 +1245,7 @@
         <v>4491</v>
       </c>
       <c r="I27" t="n">
-        <v>10866.3128352908</v>
+        <v>11252.2895101169</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1256,7 +1256,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>19254.0948799403</v>
+        <v>19488.5477513409</v>
       </c>
       <c r="C28" t="n">
         <v>9721.45787856784</v>
@@ -1277,7 +1277,7 @@
         <v>10001</v>
       </c>
       <c r="I28" t="n">
-        <v>9253.09487994033</v>
+        <v>9487.54775134088</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1288,10 +1288,10 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>26921.125670245</v>
+        <v>27063.2293328747</v>
       </c>
       <c r="C29" t="n">
-        <v>12598.9547223937</v>
+        <v>12683.1396911342</v>
       </c>
       <c r="D29" t="n">
         <v>9443.45388996134</v>
@@ -1309,7 +1309,7 @@
         <v>9968</v>
       </c>
       <c r="I29" t="n">
-        <v>16953.125670245</v>
+        <v>17095.2293328747</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1320,10 +1320,10 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>35080.0786372405</v>
+        <v>35237.4175433273</v>
       </c>
       <c r="C30" t="n">
-        <v>13573.5561225336</v>
+        <v>13623.9938595092</v>
       </c>
       <c r="D30" t="n">
         <v>10953.4100773992</v>
@@ -1341,7 +1341,7 @@
         <v>11151</v>
       </c>
       <c r="I30" t="n">
-        <v>23929.0786372405</v>
+        <v>24086.4175433273</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1352,10 +1352,10 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>37348.5048695738</v>
+        <v>37587.122169978</v>
       </c>
       <c r="C31" t="n">
-        <v>14565.3779312737</v>
+        <v>14558.5458915357</v>
       </c>
       <c r="D31" t="n">
         <v>11155.508108668</v>
@@ -1371,7 +1371,7 @@
         <v>11945</v>
       </c>
       <c r="I31" t="n">
-        <v>25403.5048695738</v>
+        <v>25642.122169978</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1382,7 +1382,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>31386.3830121291</v>
+        <v>31732.6102135905</v>
       </c>
       <c r="C32" t="n">
         <v>13450.7391326698</v>
@@ -1403,7 +1403,7 @@
         <v>9391</v>
       </c>
       <c r="I32" t="n">
-        <v>21995.3830121291</v>
+        <v>22341.6102135905</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1414,7 +1414,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>21216.073721019</v>
+        <v>21640.0359098841</v>
       </c>
       <c r="C33" t="n">
         <v>9769.51864829506</v>
@@ -1435,7 +1435,7 @@
         <v>8472</v>
       </c>
       <c r="I33" t="n">
-        <v>12744.073721019</v>
+        <v>13168.0359098841</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1446,7 +1446,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>19969.3542803837</v>
+        <v>20432.4480295351</v>
       </c>
       <c r="C34" t="n">
         <v>9171.60113917578</v>
@@ -1467,7 +1467,7 @@
         <v>11041</v>
       </c>
       <c r="I34" t="n">
-        <v>8928.35428038367</v>
+        <v>9391.44802953506</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1478,7 +1478,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>21025.0080835236</v>
+        <v>21513.4863113908</v>
       </c>
       <c r="C35" t="n">
         <v>9606.28840658525</v>
@@ -1499,7 +1499,7 @@
         <v>9537</v>
       </c>
       <c r="I35" t="n">
-        <v>11488.0080835236</v>
+        <v>11976.4863113908</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1510,7 +1510,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>25171.7962182551</v>
+        <v>25700.1102686597</v>
       </c>
       <c r="C36" t="n">
         <v>11242.2453237966</v>
@@ -1531,7 +1531,7 @@
         <v>8702</v>
       </c>
       <c r="I36" t="n">
-        <v>16469.7962182551</v>
+        <v>16998.1102686597</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1542,7 +1542,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>27616.9652262582</v>
+        <v>28194.7804759144</v>
       </c>
       <c r="C37" t="n">
         <v>11977.5319767506</v>
@@ -1563,7 +1563,7 @@
         <v>3839</v>
       </c>
       <c r="I37" t="n">
-        <v>23777.9652262582</v>
+        <v>24355.7804759144</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1574,7 +1574,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>24406.1173386381</v>
+        <v>25033.8397073355</v>
       </c>
       <c r="C38" t="n">
         <v>10637.2149873172</v>
@@ -1595,7 +1595,7 @@
         <v>2370</v>
       </c>
       <c r="I38" t="n">
-        <v>22036.1173386381</v>
+        <v>22663.8397073355</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1606,7 +1606,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>16528.2844906199</v>
+        <v>17115.6557896816</v>
       </c>
       <c r="C39" t="n">
         <v>7056.58676675973</v>
@@ -1615,10 +1615,10 @@
         <v>5560.82450054179</v>
       </c>
       <c r="E39" t="n">
-        <v>42866.9186280565</v>
+        <v>43674.8663041445</v>
       </c>
       <c r="F39" t="n">
-        <v>66086.7907040786</v>
+        <v>65923.659448087</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1627,7 +1627,7 @@
         <v>4548</v>
       </c>
       <c r="I39" t="n">
-        <v>11980.2844906199</v>
+        <v>12567.6557896816</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1638,7 +1638,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>20223.326816756</v>
+        <v>20711.4368614594</v>
       </c>
       <c r="C40" t="n">
         <v>9067.83892013057</v>
@@ -1659,7 +1659,7 @@
         <v>7299</v>
       </c>
       <c r="I40" t="n">
-        <v>12924.326816756</v>
+        <v>13412.4368614594</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1670,7 +1670,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>27581.5401355928</v>
+        <v>27981.8174259261</v>
       </c>
       <c r="C41" t="n">
         <v>11750.2450752071</v>
@@ -1691,7 +1691,7 @@
         <v>7028</v>
       </c>
       <c r="I41" t="n">
-        <v>20553.5401355928</v>
+        <v>20953.8174259261</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1702,10 +1702,10 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>35445.1469689538</v>
+        <v>35817.3090016161</v>
       </c>
       <c r="C42" t="n">
-        <v>13119.9379341246</v>
+        <v>13089.7813165989</v>
       </c>
       <c r="D42" t="n">
         <v>9871.40831393216</v>
@@ -1721,7 +1721,7 @@
         <v>8930</v>
       </c>
       <c r="I42" t="n">
-        <v>26515.1469689538</v>
+        <v>26887.3090016161</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1732,10 +1732,10 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>37468.0256002217</v>
+        <v>37870.3534992594</v>
       </c>
       <c r="C43" t="n">
-        <v>13960.2968679098</v>
+        <v>14125.9025871167</v>
       </c>
       <c r="D43" t="n">
         <v>10065.4185912971</v>
@@ -1751,7 +1751,7 @@
         <v>10710</v>
       </c>
       <c r="I43" t="n">
-        <v>26758.0256002217</v>
+        <v>27160.3534992594</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1762,7 +1762,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>31357.1319569215</v>
+        <v>31830.8896491844</v>
       </c>
       <c r="C44" t="n">
         <v>12467.421530378</v>
@@ -1783,7 +1783,7 @@
         <v>9280</v>
       </c>
       <c r="I44" t="n">
-        <v>22077.1319569215</v>
+        <v>22550.8896491844</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -1794,7 +1794,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>21173.0483848368</v>
+        <v>21726.5056905229</v>
       </c>
       <c r="C45" t="n">
         <v>9178.81590599966</v>
@@ -1815,7 +1815,7 @@
         <v>7919</v>
       </c>
       <c r="I45" t="n">
-        <v>13254.0483848368</v>
+        <v>13807.5056905229</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1826,7 +1826,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>19977.4073345476</v>
+        <v>20595.136280008</v>
       </c>
       <c r="C46" t="n">
         <v>8644.78299636455</v>
@@ -1847,7 +1847,7 @@
         <v>10867</v>
       </c>
       <c r="I46" t="n">
-        <v>9110.4073345476</v>
+        <v>9728.136280008</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -1858,7 +1858,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>21109.6728174872</v>
+        <v>21773.0703492249</v>
       </c>
       <c r="C47" t="n">
         <v>9049.5116891526</v>
@@ -1879,7 +1879,7 @@
         <v>8287</v>
       </c>
       <c r="I47" t="n">
-        <v>12822.6728174872</v>
+        <v>13486.0703492249</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -1890,7 +1890,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>25279.1436100233</v>
+        <v>25982.5401543486</v>
       </c>
       <c r="C48" t="n">
         <v>10543.4500390557</v>
@@ -1911,7 +1911,7 @@
         <v>7642</v>
       </c>
       <c r="I48" t="n">
-        <v>17637.1436100233</v>
+        <v>18340.5401543486</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -1922,7 +1922,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>27718.5402509355</v>
+        <v>28462.7952851139</v>
       </c>
       <c r="C49" t="n">
         <v>11217.7290213158</v>
@@ -1943,7 +1943,7 @@
         <v>7092</v>
       </c>
       <c r="I49" t="n">
-        <v>20626.5402509355</v>
+        <v>21370.7952851139</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>
